--- a/FOMC1_bse.xlsx
+++ b/FOMC1_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00042488649681642</v>
+        <v>0.0004584306812678286</v>
       </c>
       <c r="C2">
-        <v>0.0005733739340266228</v>
+        <v>0.0007453611384166696</v>
       </c>
       <c r="D2">
-        <v>3.705781439254336e-06</v>
+        <v>3.601799477657799e-06</v>
       </c>
       <c r="E2">
-        <v>0.0003136111482706662</v>
+        <v>0.0003606115335966238</v>
       </c>
       <c r="F2">
-        <v>0.0001474211735256687</v>
+        <v>0.0001588352674506466</v>
       </c>
       <c r="G2">
-        <v>4.399226007987628e-07</v>
+        <v>6.496152950080003e-07</v>
       </c>
       <c r="H2">
-        <v>0.001662253377608432</v>
+        <v>0.001878767630491592</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0003960520987036755</v>
+        <v>0.0004602316620969922</v>
       </c>
       <c r="C3">
-        <v>0.0006511980471447986</v>
+        <v>0.0005830335558639192</v>
       </c>
       <c r="D3">
-        <v>4.294946303574912e-06</v>
+        <v>5.903307972425549e-06</v>
       </c>
       <c r="E3">
-        <v>0.000369702708873567</v>
+        <v>0.0002977364463293697</v>
       </c>
       <c r="F3">
-        <v>0.000137851966596084</v>
+        <v>0.0001512398829429841</v>
       </c>
       <c r="G3">
-        <v>4.644096770157332e-07</v>
+        <v>6.110484385546463e-07</v>
       </c>
       <c r="H3">
-        <v>0.001503765454580905</v>
+        <v>0.001539167920767613</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.000437957077711877</v>
+        <v>0.0004977728111447627</v>
       </c>
       <c r="C4">
-        <v>0.0005664325012581318</v>
+        <v>0.0008391827703404089</v>
       </c>
       <c r="D4">
-        <v>4.75282366007767e-06</v>
+        <v>7.743644753054611e-06</v>
       </c>
       <c r="E4">
-        <v>0.0003278226551042766</v>
+        <v>0.0004039226527836899</v>
       </c>
       <c r="F4">
-        <v>0.0001628628189082213</v>
+        <v>0.0001120288449629615</v>
       </c>
       <c r="G4">
-        <v>6.258958987695111e-07</v>
+        <v>4.780222854971025e-07</v>
       </c>
       <c r="H4">
-        <v>0.001642762428764878</v>
+        <v>0.00114332042402652</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004741934792726867</v>
+        <v>0.0004649358281501784</v>
       </c>
       <c r="C5">
-        <v>0.0004687971404560633</v>
+        <v>0.0007031183897779323</v>
       </c>
       <c r="D5">
-        <v>5.355047557583612e-06</v>
+        <v>5.874883319832971e-06</v>
       </c>
       <c r="E5">
-        <v>0.000383881684883594</v>
+        <v>0.0003651121491717866</v>
       </c>
       <c r="F5">
-        <v>0.0001915394465585311</v>
+        <v>0.0002222025231742086</v>
       </c>
       <c r="G5">
-        <v>7.303258502204614e-07</v>
+        <v>4.594940907489856e-07</v>
       </c>
       <c r="H5">
-        <v>0.001999864515113168</v>
+        <v>0.002348374710788982</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0005066769544205114</v>
+        <v>0.0004490796340165827</v>
       </c>
       <c r="C6">
-        <v>0.0004960912749458758</v>
+        <v>0.000448988353638087</v>
       </c>
       <c r="D6">
-        <v>5.188169271795089e-06</v>
+        <v>5.245709268451435e-06</v>
       </c>
       <c r="E6">
-        <v>0.0003359491386392752</v>
+        <v>0.0003620338648280242</v>
       </c>
       <c r="F6">
-        <v>0.0001261621514524022</v>
+        <v>0.0001445120257231271</v>
       </c>
       <c r="G6">
-        <v>4.900376060753263e-07</v>
+        <v>5.394090801900241e-07</v>
       </c>
       <c r="H6">
-        <v>0.001519541715796985</v>
+        <v>0.001557792560881087</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004988274974584723</v>
+        <v>0.0004658393073929673</v>
       </c>
       <c r="C7">
-        <v>0.0005189499931908686</v>
+        <v>0.000593052116961216</v>
       </c>
       <c r="D7">
-        <v>5.452535992078871e-06</v>
+        <v>4.448997427676146e-06</v>
       </c>
       <c r="E7">
-        <v>0.0003985128882019266</v>
+        <v>0.0003705323774591257</v>
       </c>
       <c r="F7">
-        <v>0.0001628663767562934</v>
+        <v>0.0001889271277151352</v>
       </c>
       <c r="G7">
-        <v>6.411285105909551e-07</v>
+        <v>6.167350655576593e-07</v>
       </c>
       <c r="H7">
-        <v>0.001886502595336494</v>
+        <v>0.002164841094048366</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0005160650344933921</v>
+        <v>0.0003854379154984629</v>
       </c>
       <c r="C8">
-        <v>0.0006141667613644049</v>
+        <v>0.0004387162921115578</v>
       </c>
       <c r="D8">
-        <v>6.256374751363079e-06</v>
+        <v>4.096567926928772e-06</v>
       </c>
       <c r="E8">
-        <v>0.000366249560168037</v>
+        <v>0.0003067583812969471</v>
       </c>
       <c r="F8">
-        <v>0.0001818120451822107</v>
+        <v>0.0001254176245218871</v>
       </c>
       <c r="G8">
-        <v>5.65114228204731e-07</v>
+        <v>5.189044119074758e-07</v>
       </c>
       <c r="H8">
-        <v>0.002147680072946151</v>
+        <v>0.001612144325928802</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003805502176616508</v>
+        <v>0.0003973041304425301</v>
       </c>
       <c r="C9">
-        <v>0.0004146667380303557</v>
+        <v>0.0004043638278069232</v>
       </c>
       <c r="D9">
-        <v>6.067343916154849e-06</v>
+        <v>4.409947405240877e-06</v>
       </c>
       <c r="E9">
-        <v>0.0004072364610166761</v>
+        <v>0.000403714580234347</v>
       </c>
       <c r="F9">
-        <v>0.0001572893486451735</v>
+        <v>0.0001264640861465681</v>
       </c>
       <c r="G9">
-        <v>5.812721481106033e-07</v>
+        <v>6.26526840885529e-07</v>
       </c>
       <c r="H9">
-        <v>0.001765958873204845</v>
+        <v>0.001531141003098299</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0004428910507362998</v>
+        <v>0.0004363575582341993</v>
       </c>
       <c r="C10">
-        <v>0.0005803834554642788</v>
+        <v>0.0004620916402119894</v>
       </c>
       <c r="D10">
-        <v>5.700818221405821e-06</v>
+        <v>5.276572982114781e-06</v>
       </c>
       <c r="E10">
-        <v>0.000407923744229434</v>
+        <v>0.0003444025347927136</v>
       </c>
       <c r="F10">
-        <v>0.0001218512720151843</v>
+        <v>0.0001619084988991117</v>
       </c>
       <c r="G10">
-        <v>5.333399534562555e-07</v>
+        <v>5.04945663772531e-07</v>
       </c>
       <c r="H10">
-        <v>0.001392451372584197</v>
+        <v>0.001981976155696533</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0004646772720482578</v>
+        <v>0.000520622542587606</v>
       </c>
       <c r="C11">
-        <v>0.0007187667432870579</v>
+        <v>0.0004189226537688858</v>
       </c>
       <c r="D11">
-        <v>6.004083877848913e-06</v>
+        <v>5.034611021053066e-06</v>
       </c>
       <c r="E11">
-        <v>0.0003877974734412564</v>
+        <v>0.0003948334007599052</v>
       </c>
       <c r="F11">
-        <v>0.0001548029278755215</v>
+        <v>0.00019489997941229</v>
       </c>
       <c r="G11">
-        <v>6.044493232738955e-07</v>
+        <v>8.978000468546844e-07</v>
       </c>
       <c r="H11">
-        <v>0.001701393119247375</v>
+        <v>0.002059357310304782</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0004277058782804647</v>
+        <v>0.0004311779018706855</v>
       </c>
       <c r="C12">
-        <v>0.0004278623304413368</v>
+        <v>0.000543713020289437</v>
       </c>
       <c r="D12">
-        <v>6.355980934186197e-06</v>
+        <v>5.496574587601893e-06</v>
       </c>
       <c r="E12">
-        <v>0.000320208831269529</v>
+        <v>0.000314029275702369</v>
       </c>
       <c r="F12">
-        <v>0.0001143313917740256</v>
+        <v>0.0001753312261797778</v>
       </c>
       <c r="G12">
-        <v>5.305544543279268e-07</v>
+        <v>5.734814102645085e-07</v>
       </c>
       <c r="H12">
-        <v>0.001196872942736809</v>
+        <v>0.001842319986576628</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004241385242406399</v>
+        <v>0.0005675213625996992</v>
       </c>
       <c r="C13">
-        <v>0.0005663037641664726</v>
+        <v>0.0003425609639099354</v>
       </c>
       <c r="D13">
-        <v>4.677323377681776e-06</v>
+        <v>4.207456404522276e-06</v>
       </c>
       <c r="E13">
-        <v>0.0003508732016772962</v>
+        <v>0.000384124034714634</v>
       </c>
       <c r="F13">
-        <v>0.0001387407547152465</v>
+        <v>0.0001618876931795362</v>
       </c>
       <c r="G13">
-        <v>5.761432206599579e-07</v>
+        <v>4.566341773409485e-07</v>
       </c>
       <c r="H13">
-        <v>0.001616924520248557</v>
+        <v>0.001768759284215335</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0004240581314920408</v>
+        <v>0.0004253470235233859</v>
       </c>
       <c r="C14">
-        <v>0.0004182051991508267</v>
+        <v>0.0004260758095636375</v>
       </c>
       <c r="D14">
-        <v>5.511398233363056e-06</v>
+        <v>5.50769365829119e-06</v>
       </c>
       <c r="E14">
-        <v>0.0004056681063960677</v>
+        <v>0.0004200649127487343</v>
       </c>
       <c r="F14">
-        <v>0.0001854829579990104</v>
+        <v>0.0001382000118800635</v>
       </c>
       <c r="G14">
-        <v>5.291367043595592e-07</v>
+        <v>6.013254753175884e-07</v>
       </c>
       <c r="H14">
-        <v>0.001870231537761873</v>
+        <v>0.001627887061655732</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0004146511565258094</v>
+        <v>0.0004744233035406893</v>
       </c>
       <c r="C15">
-        <v>0.0005091144509086013</v>
+        <v>0.0004315314381983089</v>
       </c>
       <c r="D15">
-        <v>5.130420792559888e-06</v>
+        <v>5.442965415664332e-06</v>
       </c>
       <c r="E15">
-        <v>0.0004200660980303597</v>
+        <v>0.0003373318332645573</v>
       </c>
       <c r="F15">
-        <v>0.0001461990350766137</v>
+        <v>0.0001616644894506785</v>
       </c>
       <c r="G15">
-        <v>5.178689807831286e-07</v>
+        <v>6.18304749720929e-07</v>
       </c>
       <c r="H15">
-        <v>0.001575036629699647</v>
+        <v>0.001667814148627263</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0004862096434194416</v>
+        <v>0.0005822399528460855</v>
       </c>
       <c r="C16">
-        <v>0.0004686229954859948</v>
+        <v>0.0006837794088664846</v>
       </c>
       <c r="D16">
-        <v>5.840585266264959e-06</v>
+        <v>5.002702538216806e-06</v>
       </c>
       <c r="E16">
-        <v>0.0003715308222379287</v>
+        <v>0.0004001004421990944</v>
       </c>
       <c r="F16">
-        <v>0.0001227310531229326</v>
+        <v>0.0002552424533020736</v>
       </c>
       <c r="G16">
-        <v>5.594325670497501e-07</v>
+        <v>1.068989161899359e-06</v>
       </c>
       <c r="H16">
-        <v>0.001357985426892663</v>
+        <v>0.002647969479401599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004085952746404623</v>
+        <v>0.0004249516064416896</v>
       </c>
       <c r="C17">
-        <v>0.0005276868484949885</v>
+        <v>0.0005716365302429634</v>
       </c>
       <c r="D17">
-        <v>4.27501895410003e-06</v>
+        <v>4.889666923419936e-06</v>
       </c>
       <c r="E17">
-        <v>0.0003636770225017866</v>
+        <v>0.0002684281293874045</v>
       </c>
       <c r="F17">
-        <v>0.0001659136499735493</v>
+        <v>0.000127424064335088</v>
       </c>
       <c r="G17">
-        <v>8.119788628784181e-07</v>
+        <v>3.97977442901795e-07</v>
       </c>
       <c r="H17">
-        <v>0.001740973440750075</v>
+        <v>0.00136927590260386</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0005640598975504221</v>
+        <v>0.0003919871858797127</v>
       </c>
       <c r="C18">
-        <v>0.0004805590200204441</v>
+        <v>0.001166683622805948</v>
       </c>
       <c r="D18">
-        <v>4.17880461439388e-06</v>
+        <v>5.200215831309953e-06</v>
       </c>
       <c r="E18">
-        <v>0.0003522499220964397</v>
+        <v>0.0004278328343057571</v>
       </c>
       <c r="F18">
-        <v>0.0002059717917046466</v>
+        <v>0.0001789606193301155</v>
       </c>
       <c r="G18">
-        <v>7.713169360254808e-07</v>
+        <v>5.646756477080072e-07</v>
       </c>
       <c r="H18">
-        <v>0.002301147459961089</v>
+        <v>0.001932754647558373</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0004398772018717042</v>
+        <v>0.0004998194960634594</v>
       </c>
       <c r="C19">
-        <v>0.0006319452779097043</v>
+        <v>0.0007628256454668736</v>
       </c>
       <c r="D19">
-        <v>4.367716396257158e-06</v>
+        <v>5.596511436713497e-06</v>
       </c>
       <c r="E19">
-        <v>0.0003709399664476026</v>
+        <v>0.000353807687460722</v>
       </c>
       <c r="F19">
-        <v>0.0001470911095666476</v>
+        <v>0.0001436496920649401</v>
       </c>
       <c r="G19">
-        <v>5.376846607273e-07</v>
+        <v>5.253884278380065e-07</v>
       </c>
       <c r="H19">
-        <v>0.001662205016988086</v>
+        <v>0.001641805555300029</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0004078241555820533</v>
+        <v>0.000439073422988207</v>
       </c>
       <c r="C20">
-        <v>0.0009854093717101547</v>
+        <v>0.0005501714763502382</v>
       </c>
       <c r="D20">
-        <v>6.196590912724696e-06</v>
+        <v>4.352086691670335e-06</v>
       </c>
       <c r="E20">
-        <v>0.000281330420653118</v>
+        <v>0.0004146421710223583</v>
       </c>
       <c r="F20">
-        <v>0.0001745448537884993</v>
+        <v>0.0001299031650605685</v>
       </c>
       <c r="G20">
-        <v>4.659265185047423e-07</v>
+        <v>6.39987149254477e-07</v>
       </c>
       <c r="H20">
-        <v>0.001906028112923184</v>
+        <v>0.001337279781078984</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.000500214385566554</v>
+        <v>0.0004250009288484349</v>
       </c>
       <c r="C21">
-        <v>0.0006035568313125131</v>
+        <v>0.00039372528211927</v>
       </c>
       <c r="D21">
-        <v>5.197604103822619e-06</v>
+        <v>5.299266558972027e-06</v>
       </c>
       <c r="E21">
-        <v>0.0004605813665039024</v>
+        <v>0.0003714973052376755</v>
       </c>
       <c r="F21">
-        <v>0.0001768451375480608</v>
+        <v>0.0001514802882880033</v>
       </c>
       <c r="G21">
-        <v>5.866243746593362e-07</v>
+        <v>5.24329996178752e-07</v>
       </c>
       <c r="H21">
-        <v>0.001934965153439445</v>
+        <v>0.001775365523162549</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0004462768664087347</v>
+        <v>0.0004697098963472451</v>
       </c>
       <c r="C22">
-        <v>0.0005228358646039774</v>
+        <v>0.0005970688674357538</v>
       </c>
       <c r="D22">
-        <v>6.217314783835399e-06</v>
+        <v>4.768290507818101e-06</v>
       </c>
       <c r="E22">
-        <v>0.0003368135538585956</v>
+        <v>0.0003361591843402609</v>
       </c>
       <c r="F22">
-        <v>0.0001987632620484114</v>
+        <v>0.0001502244765892164</v>
       </c>
       <c r="G22">
-        <v>6.214788750591798e-07</v>
+        <v>5.714505233589665e-07</v>
       </c>
       <c r="H22">
-        <v>0.002015831967540606</v>
+        <v>0.001625561381566282</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.000348469927645411</v>
+        <v>0.0003704603835412333</v>
       </c>
       <c r="C23">
-        <v>0.0003939646657998943</v>
+        <v>0.0004520997815466961</v>
       </c>
       <c r="D23">
-        <v>4.019960219739342e-06</v>
+        <v>3.958144379207295e-06</v>
       </c>
       <c r="E23">
-        <v>0.0002863091739538099</v>
+        <v>0.0003699954835974817</v>
       </c>
       <c r="F23">
-        <v>0.0001112911061737317</v>
+        <v>0.0001460183277981508</v>
       </c>
       <c r="G23">
-        <v>4.717907127983375e-07</v>
+        <v>4.652649523661742e-07</v>
       </c>
       <c r="H23">
-        <v>0.001246498754212403</v>
+        <v>0.0016762905345485</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003622263918719711</v>
+        <v>0.0004891704076033734</v>
       </c>
       <c r="C24">
-        <v>0.000348534842976424</v>
+        <v>0.0003552987912105793</v>
       </c>
       <c r="D24">
-        <v>4.894382205577963e-06</v>
+        <v>4.124048835501096e-06</v>
       </c>
       <c r="E24">
-        <v>0.0003429139460349626</v>
+        <v>0.0002987737313183167</v>
       </c>
       <c r="F24">
-        <v>0.0001414985910834247</v>
+        <v>0.0001555065997894831</v>
       </c>
       <c r="G24">
-        <v>5.434243620842882e-07</v>
+        <v>6.412315599274924e-07</v>
       </c>
       <c r="H24">
-        <v>0.001543138043961541</v>
+        <v>0.001689055527283375</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0004525320969868963</v>
+        <v>0.0004140389188963074</v>
       </c>
       <c r="C25">
-        <v>0.0005085275433666054</v>
+        <v>0.0003306420596464281</v>
       </c>
       <c r="D25">
-        <v>3.815770942465177e-06</v>
+        <v>4.662047837200564e-06</v>
       </c>
       <c r="E25">
-        <v>0.0003072563742316315</v>
+        <v>0.0002951336536012815</v>
       </c>
       <c r="F25">
-        <v>0.0001269214173489464</v>
+        <v>0.0001119642134873412</v>
       </c>
       <c r="G25">
-        <v>6.291864107069441e-07</v>
+        <v>4.827315937165553e-07</v>
       </c>
       <c r="H25">
-        <v>0.001470889978217556</v>
+        <v>0.001269242280526751</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0003445527781049668</v>
+        <v>0.0005001794082115365</v>
       </c>
       <c r="C26">
-        <v>0.0003891689720081652</v>
+        <v>0.0005764203235045327</v>
       </c>
       <c r="D26">
-        <v>4.081240936405493e-06</v>
+        <v>4.517832894921769e-06</v>
       </c>
       <c r="E26">
-        <v>0.0003205990835661905</v>
+        <v>0.0003537007355264587</v>
       </c>
       <c r="F26">
-        <v>0.0001536120143597436</v>
+        <v>0.0001592640888508069</v>
       </c>
       <c r="G26">
-        <v>4.262339458811108e-07</v>
+        <v>5.738326572710582e-07</v>
       </c>
       <c r="H26">
-        <v>0.001540335409179015</v>
+        <v>0.001714355412751286</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0004216446731218562</v>
+        <v>0.0004602419260638791</v>
       </c>
       <c r="C27">
-        <v>0.0005401660015050721</v>
+        <v>0.0005883703852740322</v>
       </c>
       <c r="D27">
-        <v>4.126422520021793e-06</v>
+        <v>3.879238566540062e-06</v>
       </c>
       <c r="E27">
-        <v>0.0002978823581210528</v>
+        <v>0.000292822399976626</v>
       </c>
       <c r="F27">
-        <v>0.0001236280874686445</v>
+        <v>0.0001222006982904115</v>
       </c>
       <c r="G27">
-        <v>4.978234519221539e-07</v>
+        <v>5.042740835719952e-07</v>
       </c>
       <c r="H27">
-        <v>0.001541351591251527</v>
+        <v>0.001500052335310131</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0005307219456200077</v>
+        <v>0.0005178192138800496</v>
       </c>
       <c r="C28">
-        <v>0.0005032935104880513</v>
+        <v>0.0006152939610744316</v>
       </c>
       <c r="D28">
-        <v>8.466677398147978e-06</v>
+        <v>4.902967165256604e-06</v>
       </c>
       <c r="E28">
-        <v>0.0003194612841407442</v>
+        <v>0.0003293557973404883</v>
       </c>
       <c r="F28">
-        <v>0.0002604203980195243</v>
+        <v>0.0001654859371223645</v>
       </c>
       <c r="G28">
-        <v>5.541533009087247e-07</v>
+        <v>4.371499115056406e-07</v>
       </c>
       <c r="H28">
-        <v>0.002699686425104135</v>
+        <v>0.001963458436884294</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0004309821640416437</v>
+        <v>0.000375519989893701</v>
       </c>
       <c r="C29">
-        <v>0.0005798214002845639</v>
+        <v>0.0004271016605090632</v>
       </c>
       <c r="D29">
-        <v>4.567044612752908e-06</v>
+        <v>5.34865496465458e-06</v>
       </c>
       <c r="E29">
-        <v>0.0004205190375213016</v>
+        <v>0.0003203302340827016</v>
       </c>
       <c r="F29">
-        <v>0.0001410980647043035</v>
+        <v>0.0001916971656565408</v>
       </c>
       <c r="G29">
-        <v>5.960789906576674e-07</v>
+        <v>4.191563962620785e-07</v>
       </c>
       <c r="H29">
-        <v>0.001584083135781109</v>
+        <v>0.002201204010857001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004026583078514137</v>
+        <v>0.0004521779471181519</v>
       </c>
       <c r="C30">
-        <v>0.0005307032162698981</v>
+        <v>0.0007990543274336715</v>
       </c>
       <c r="D30">
-        <v>4.518465497768555e-06</v>
+        <v>5.290235144228539e-06</v>
       </c>
       <c r="E30">
-        <v>0.0003505478209189087</v>
+        <v>0.0003156449169118358</v>
       </c>
       <c r="F30">
-        <v>0.0001385704105688619</v>
+        <v>0.0001584527379804501</v>
       </c>
       <c r="G30">
-        <v>4.793420804801448e-07</v>
+        <v>4.417527623839792e-07</v>
       </c>
       <c r="H30">
-        <v>0.001632158521319154</v>
+        <v>0.001795524544212995</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0004202027182355736</v>
+        <v>0.0004468692233816904</v>
       </c>
       <c r="C31">
-        <v>0.0004407818435033286</v>
+        <v>0.000492905234663112</v>
       </c>
       <c r="D31">
-        <v>4.991370628386356e-06</v>
+        <v>5.679578749690389e-06</v>
       </c>
       <c r="E31">
-        <v>0.0003482461626018909</v>
+        <v>0.0003842281249073933</v>
       </c>
       <c r="F31">
-        <v>0.0001724550721821398</v>
+        <v>0.0001569795080825558</v>
       </c>
       <c r="G31">
-        <v>3.972087033621991e-07</v>
+        <v>4.40539444902438e-07</v>
       </c>
       <c r="H31">
-        <v>0.001966119137338279</v>
+        <v>0.001911545008133366</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0004521917909228644</v>
+        <v>0.000474704529246345</v>
       </c>
       <c r="C32">
-        <v>0.0004730124553369476</v>
+        <v>0.0005875505908807365</v>
       </c>
       <c r="D32">
-        <v>5.906496104247027e-06</v>
+        <v>6.568405351953423e-06</v>
       </c>
       <c r="E32">
-        <v>0.0003481064566496149</v>
+        <v>0.0004195008005605518</v>
       </c>
       <c r="F32">
-        <v>0.0001334875936454711</v>
+        <v>0.0001450384471217292</v>
       </c>
       <c r="G32">
-        <v>7.149674035869864e-07</v>
+        <v>6.181924094038865e-07</v>
       </c>
       <c r="H32">
-        <v>0.001566513625801693</v>
+        <v>0.001689227331341955</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0004147420562742413</v>
+        <v>0.0005191409798589239</v>
       </c>
       <c r="C33">
-        <v>0.0004508046199402177</v>
+        <v>0.000767819485356283</v>
       </c>
       <c r="D33">
-        <v>5.069493735361207e-06</v>
+        <v>5.424761835060324e-06</v>
       </c>
       <c r="E33">
-        <v>0.000360340321546226</v>
+        <v>0.0003193120759958462</v>
       </c>
       <c r="F33">
-        <v>0.000160036501074533</v>
+        <v>0.0001307019088875994</v>
       </c>
       <c r="G33">
-        <v>6.506936609332187e-07</v>
+        <v>5.340942937000828e-07</v>
       </c>
       <c r="H33">
-        <v>0.001825180477481685</v>
+        <v>0.001444945030908068</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0004306659997573549</v>
+        <v>0.0005369398566328012</v>
       </c>
       <c r="C34">
-        <v>0.0005757062643236411</v>
+        <v>0.0003504091316888854</v>
       </c>
       <c r="D34">
-        <v>5.489233526500633e-06</v>
+        <v>4.657286013296314e-06</v>
       </c>
       <c r="E34">
-        <v>0.0003638031793145844</v>
+        <v>0.000344508753055067</v>
       </c>
       <c r="F34">
-        <v>0.0001676893434654458</v>
+        <v>0.0001560739824870935</v>
       </c>
       <c r="G34">
-        <v>4.874031625851759e-07</v>
+        <v>5.075204582431318e-07</v>
       </c>
       <c r="H34">
-        <v>0.001919876448842681</v>
+        <v>0.001918218687048842</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0005548090315202747</v>
+        <v>0.0003612684995887925</v>
       </c>
       <c r="C35">
-        <v>0.0005422482728929168</v>
+        <v>0.0003118348330261772</v>
       </c>
       <c r="D35">
-        <v>4.778140166023462e-06</v>
+        <v>4.043495298713494e-06</v>
       </c>
       <c r="E35">
-        <v>0.000408994575908042</v>
+        <v>0.0003692018320697151</v>
       </c>
       <c r="F35">
-        <v>0.0001973791246216073</v>
+        <v>0.0001385339664440797</v>
       </c>
       <c r="G35">
-        <v>6.239364732790057e-07</v>
+        <v>4.807960340455846e-07</v>
       </c>
       <c r="H35">
-        <v>0.002194514576420256</v>
+        <v>0.001461668728984082</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0006049150940350126</v>
+        <v>0.0005181790494510126</v>
       </c>
       <c r="C36">
-        <v>0.0006043117924734685</v>
+        <v>0.0005214310393953815</v>
       </c>
       <c r="D36">
-        <v>5.959650537861756e-06</v>
+        <v>5.324659330697047e-06</v>
       </c>
       <c r="E36">
-        <v>0.0003073187591274611</v>
+        <v>0.0004225717180609767</v>
       </c>
       <c r="F36">
-        <v>0.000151171006943526</v>
+        <v>0.0002369043858482699</v>
       </c>
       <c r="G36">
-        <v>6.173097147977108e-07</v>
+        <v>8.730556468091281e-07</v>
       </c>
       <c r="H36">
-        <v>0.001746504451501569</v>
+        <v>0.002350757793576126</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0005014114914918138</v>
+        <v>0.0004625638267196526</v>
       </c>
       <c r="C37">
-        <v>0.00051601660119797</v>
+        <v>0.0004522943746551606</v>
       </c>
       <c r="D37">
-        <v>4.435014128617367e-06</v>
+        <v>4.745040157531817e-06</v>
       </c>
       <c r="E37">
-        <v>0.0003959284720244215</v>
+        <v>0.000377690585909264</v>
       </c>
       <c r="F37">
-        <v>0.0001732229023354026</v>
+        <v>0.0001343113437802216</v>
       </c>
       <c r="G37">
-        <v>5.925270623194071e-07</v>
+        <v>5.833307253058235e-07</v>
       </c>
       <c r="H37">
-        <v>0.001772275314027222</v>
+        <v>0.001662849823836866</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0005110729640783831</v>
+        <v>0.0004488339962394349</v>
       </c>
       <c r="C38">
-        <v>0.0005664439948150788</v>
+        <v>0.0006263573947758093</v>
       </c>
       <c r="D38">
-        <v>5.464892296551232e-06</v>
+        <v>5.980756566018636e-06</v>
       </c>
       <c r="E38">
-        <v>0.0003860912882885164</v>
+        <v>0.0003946172422385671</v>
       </c>
       <c r="F38">
-        <v>0.0001754224969765599</v>
+        <v>0.0001588542930644675</v>
       </c>
       <c r="G38">
-        <v>4.74542031932625e-07</v>
+        <v>5.852219502217648e-07</v>
       </c>
       <c r="H38">
-        <v>0.002022269161369349</v>
+        <v>0.001629214012294277</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0005539829659835609</v>
+        <v>0.0003486815965853534</v>
       </c>
       <c r="C39">
-        <v>0.0005908969874033434</v>
+        <v>0.0005653174352591669</v>
       </c>
       <c r="D39">
-        <v>5.086424250267521e-06</v>
+        <v>4.423440923860507e-06</v>
       </c>
       <c r="E39">
-        <v>0.0003042653109166177</v>
+        <v>0.0003745290835367757</v>
       </c>
       <c r="F39">
-        <v>0.0001588841184288394</v>
+        <v>0.0001414550627864193</v>
       </c>
       <c r="G39">
-        <v>5.598624569524163e-07</v>
+        <v>5.580959768592082e-07</v>
       </c>
       <c r="H39">
-        <v>0.001746299499878522</v>
+        <v>0.00149479102326523</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0003937819729823533</v>
+        <v>0.0005571061386552312</v>
       </c>
       <c r="C40">
-        <v>0.0006575672456322545</v>
+        <v>0.0005579757400255908</v>
       </c>
       <c r="D40">
-        <v>4.564881893723431e-06</v>
+        <v>6.128780481461964e-06</v>
       </c>
       <c r="E40">
-        <v>0.00034668331959569</v>
+        <v>0.0003748013821465801</v>
       </c>
       <c r="F40">
-        <v>0.0001294768057318682</v>
+        <v>0.0001866143980126336</v>
       </c>
       <c r="G40">
-        <v>5.577269927437416e-07</v>
+        <v>5.475423363565161e-07</v>
       </c>
       <c r="H40">
-        <v>0.001612002738660127</v>
+        <v>0.00221688292310874</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0004843135427484238</v>
+        <v>0.0005642252079848455</v>
       </c>
       <c r="C41">
-        <v>0.0004567841983974792</v>
+        <v>0.0005422667788888369</v>
       </c>
       <c r="D41">
-        <v>3.85497599277482e-06</v>
+        <v>6.509559518137327e-06</v>
       </c>
       <c r="E41">
-        <v>0.0002938492452320707</v>
+        <v>0.0003703563907826945</v>
       </c>
       <c r="F41">
-        <v>0.0001594429647061715</v>
+        <v>0.00017127750311433</v>
       </c>
       <c r="G41">
-        <v>6.175198250620498e-07</v>
+        <v>5.037778099396796e-07</v>
       </c>
       <c r="H41">
-        <v>0.001780432639301688</v>
+        <v>0.001867579438424068</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0004339106102759322</v>
+        <v>0.0004900198003944056</v>
       </c>
       <c r="C42">
-        <v>0.0006612472528372396</v>
+        <v>0.0007593054584784277</v>
       </c>
       <c r="D42">
-        <v>4.901562621093159e-06</v>
+        <v>5.772481467315494e-06</v>
       </c>
       <c r="E42">
-        <v>0.0002750211281550326</v>
+        <v>0.0003321329251131711</v>
       </c>
       <c r="F42">
-        <v>0.0001587680586609546</v>
+        <v>0.0001571297011687908</v>
       </c>
       <c r="G42">
-        <v>7.978423983246547e-07</v>
+        <v>6.341844357434474e-07</v>
       </c>
       <c r="H42">
-        <v>0.001648900635284865</v>
+        <v>0.001623933650364747</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0004143344763032087</v>
+        <v>0.000414311726400956</v>
       </c>
       <c r="C43">
-        <v>0.0007340062220542548</v>
+        <v>0.0005274217487966556</v>
       </c>
       <c r="D43">
-        <v>6.031404500765039e-06</v>
+        <v>5.575705696395991e-06</v>
       </c>
       <c r="E43">
-        <v>0.0004579966913236028</v>
+        <v>0.000417996780622622</v>
       </c>
       <c r="F43">
-        <v>0.0001908268184525249</v>
+        <v>0.0001518929401364857</v>
       </c>
       <c r="G43">
-        <v>6.586197911352275e-07</v>
+        <v>5.511375366576239e-07</v>
       </c>
       <c r="H43">
-        <v>0.0019352820702542</v>
+        <v>0.001712980666499665</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.000422061807742456</v>
+        <v>0.000470312422846236</v>
       </c>
       <c r="C44">
-        <v>0.0006609464290708655</v>
+        <v>0.0005723655447193948</v>
       </c>
       <c r="D44">
-        <v>5.018804962216318e-06</v>
+        <v>4.783069713446366e-06</v>
       </c>
       <c r="E44">
-        <v>0.0003960372133363421</v>
+        <v>0.0003897385389797696</v>
       </c>
       <c r="F44">
-        <v>0.0001676921134598307</v>
+        <v>0.0001523944718394436</v>
       </c>
       <c r="G44">
-        <v>4.94973102144093e-07</v>
+        <v>5.9560585870496e-07</v>
       </c>
       <c r="H44">
-        <v>0.001793238149211252</v>
+        <v>0.001624788951144415</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0004514343744379823</v>
+        <v>0.0003865931705414426</v>
       </c>
       <c r="C45">
-        <v>0.0007132882724871231</v>
+        <v>0.0009622280325967637</v>
       </c>
       <c r="D45">
-        <v>5.11484805140433e-06</v>
+        <v>5.413562735821325e-06</v>
       </c>
       <c r="E45">
-        <v>0.000306168094106712</v>
+        <v>0.0003246703340854221</v>
       </c>
       <c r="F45">
-        <v>0.0001273194605928318</v>
+        <v>0.0001278646069294889</v>
       </c>
       <c r="G45">
-        <v>4.802361097726614e-07</v>
+        <v>5.052899545468172e-07</v>
       </c>
       <c r="H45">
-        <v>0.001298162614526451</v>
+        <v>0.001440999094480535</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.00042671137443064</v>
+        <v>0.0003151365011038439</v>
       </c>
       <c r="C46">
-        <v>0.0005885376465642416</v>
+        <v>0.000446939321581393</v>
       </c>
       <c r="D46">
-        <v>5.686225612938446e-06</v>
+        <v>3.814050401771491e-06</v>
       </c>
       <c r="E46">
-        <v>0.0003810014517972476</v>
+        <v>0.0003033734575003205</v>
       </c>
       <c r="F46">
-        <v>0.0001355682314109176</v>
+        <v>0.000115324998391746</v>
       </c>
       <c r="G46">
-        <v>3.610142834679713e-07</v>
+        <v>3.804425116677524e-07</v>
       </c>
       <c r="H46">
-        <v>0.001461029945982325</v>
+        <v>0.001419974167902045</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0003318064834053474</v>
+        <v>0.0004922714466249136</v>
       </c>
       <c r="C47">
-        <v>0.0005601577119843256</v>
+        <v>0.0008406978565870377</v>
       </c>
       <c r="D47">
-        <v>4.187693963337748e-06</v>
+        <v>4.64410988248556e-06</v>
       </c>
       <c r="E47">
-        <v>0.0003492472011422149</v>
+        <v>0.0003683517869282058</v>
       </c>
       <c r="F47">
-        <v>0.000147282220967704</v>
+        <v>0.0001510378886292248</v>
       </c>
       <c r="G47">
-        <v>5.167542688516028e-07</v>
+        <v>5.320459269185994e-07</v>
       </c>
       <c r="H47">
-        <v>0.001513190422810243</v>
+        <v>0.001520469114246474</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0004215423215071924</v>
+        <v>0.0004407752282857974</v>
       </c>
       <c r="C48">
-        <v>0.000544010149856691</v>
+        <v>0.0008092184925381224</v>
       </c>
       <c r="D48">
-        <v>4.986924632367241e-06</v>
+        <v>6.324983528503404e-06</v>
       </c>
       <c r="E48">
-        <v>0.0003276831523906399</v>
+        <v>0.0003466822902240312</v>
       </c>
       <c r="F48">
-        <v>0.0001606099361390499</v>
+        <v>0.0001759159823422957</v>
       </c>
       <c r="G48">
-        <v>5.191405578064012e-07</v>
+        <v>5.829198002621618e-07</v>
       </c>
       <c r="H48">
-        <v>0.001802855202837708</v>
+        <v>0.00205894703812772</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0004532752340703111</v>
+        <v>0.0005563223267239933</v>
       </c>
       <c r="C49">
-        <v>0.0003897221776779008</v>
+        <v>0.000445550418514187</v>
       </c>
       <c r="D49">
-        <v>4.570524587364403e-06</v>
+        <v>4.648523019459353e-06</v>
       </c>
       <c r="E49">
-        <v>0.0004230681644253462</v>
+        <v>0.000329180754384593</v>
       </c>
       <c r="F49">
-        <v>0.0001557552980866289</v>
+        <v>0.0001630053716079285</v>
       </c>
       <c r="G49">
-        <v>6.000022092058649e-07</v>
+        <v>4.507995795658893e-07</v>
       </c>
       <c r="H49">
-        <v>0.001707644039290821</v>
+        <v>0.001798111197770245</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0004049359501124497</v>
+        <v>0.0004112874263548252</v>
       </c>
       <c r="C50">
-        <v>0.0007176265226446785</v>
+        <v>0.000529771282958258</v>
       </c>
       <c r="D50">
-        <v>5.204717863500031e-06</v>
+        <v>5.246312420419503e-06</v>
       </c>
       <c r="E50">
-        <v>0.0002826313773044154</v>
+        <v>0.0002901418258735436</v>
       </c>
       <c r="F50">
-        <v>0.0001638958005694344</v>
+        <v>0.0001180733322128241</v>
       </c>
       <c r="G50">
-        <v>8.537246429088207e-07</v>
+        <v>4.61014256535732e-07</v>
       </c>
       <c r="H50">
-        <v>0.001576473190191877</v>
+        <v>0.001257872043583131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0003976399260913355</v>
+        <v>0.0005025882202534775</v>
       </c>
       <c r="C51">
-        <v>0.0007354546076681891</v>
+        <v>0.0005974243749937929</v>
       </c>
       <c r="D51">
-        <v>4.602439095249173e-06</v>
+        <v>4.569097286030428e-06</v>
       </c>
       <c r="E51">
-        <v>0.0003243220872058122</v>
+        <v>0.0003288567079180718</v>
       </c>
       <c r="F51">
-        <v>0.0001284764492231525</v>
+        <v>0.0001547640442932289</v>
       </c>
       <c r="G51">
-        <v>4.951796702205895e-07</v>
+        <v>4.789193031296676e-07</v>
       </c>
       <c r="H51">
-        <v>0.001346897873872473</v>
+        <v>0.001786170449301971</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0005760991815076363</v>
+        <v>0.0004311956013892845</v>
       </c>
       <c r="C52">
-        <v>0.0006356669926294315</v>
+        <v>0.0009516186625469617</v>
       </c>
       <c r="D52">
-        <v>5.852670153082091e-06</v>
+        <v>5.043606539226971e-06</v>
       </c>
       <c r="E52">
-        <v>0.0004042356106866356</v>
+        <v>0.0003313448762319931</v>
       </c>
       <c r="F52">
-        <v>0.0001481401444001821</v>
+        <v>0.0001804098176631764</v>
       </c>
       <c r="G52">
-        <v>5.82564185089463e-07</v>
+        <v>5.76396619410141e-07</v>
       </c>
       <c r="H52">
-        <v>0.001663649976579363</v>
+        <v>0.002058681372253766</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0003954854187888541</v>
+        <v>0.0004527697054264578</v>
       </c>
       <c r="C53">
-        <v>0.0006827038252218596</v>
+        <v>0.0007110956490566404</v>
       </c>
       <c r="D53">
-        <v>4.030885116016308e-06</v>
+        <v>5.543392003249345e-06</v>
       </c>
       <c r="E53">
-        <v>0.0003992819068755642</v>
+        <v>0.0003538530425252114</v>
       </c>
       <c r="F53">
-        <v>0.0001681241582957682</v>
+        <v>0.0001433198848836399</v>
       </c>
       <c r="G53">
-        <v>7.702968221935259e-07</v>
+        <v>6.025272964774901e-07</v>
       </c>
       <c r="H53">
-        <v>0.001882531110809855</v>
+        <v>0.001677731266086899</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00042791209036677</v>
+        <v>0.0004629475223486102</v>
       </c>
       <c r="C54">
-        <v>0.0005800350438564457</v>
+        <v>0.0004534964107215853</v>
       </c>
       <c r="D54">
-        <v>5.94509102055154e-06</v>
+        <v>4.666501049210186e-06</v>
       </c>
       <c r="E54">
-        <v>0.0003587501075815949</v>
+        <v>0.0003903934408428911</v>
       </c>
       <c r="F54">
-        <v>0.0001638746963869016</v>
+        <v>0.0001618130256039626</v>
       </c>
       <c r="G54">
-        <v>7.988774225588329e-07</v>
+        <v>6.134399714452574e-07</v>
       </c>
       <c r="H54">
-        <v>0.00182854001774427</v>
+        <v>0.001910923195397351</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0003456777432636245</v>
+        <v>0.0004335512691216046</v>
       </c>
       <c r="C55">
-        <v>0.0004761853381990291</v>
+        <v>0.0005426855433500944</v>
       </c>
       <c r="D55">
-        <v>5.145532587058627e-06</v>
+        <v>4.222714009066062e-06</v>
       </c>
       <c r="E55">
-        <v>0.0003420051961023574</v>
+        <v>0.0003761333472297486</v>
       </c>
       <c r="F55">
-        <v>0.00014302403901368</v>
+        <v>0.0001440820798551025</v>
       </c>
       <c r="G55">
-        <v>6.312161132952883e-07</v>
+        <v>4.714246604323561e-07</v>
       </c>
       <c r="H55">
-        <v>0.001511380354396401</v>
+        <v>0.001644958976274724</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0004553652082244915</v>
+        <v>0.0004961375482868354</v>
       </c>
       <c r="C56">
-        <v>0.0007049618577356797</v>
+        <v>0.0004027816330424279</v>
       </c>
       <c r="D56">
-        <v>4.533274635451634e-06</v>
+        <v>5.052200392974099e-06</v>
       </c>
       <c r="E56">
-        <v>0.0004200215088568421</v>
+        <v>0.0003547383011443329</v>
       </c>
       <c r="F56">
-        <v>0.0001546927433584402</v>
+        <v>0.000149999414816942</v>
       </c>
       <c r="G56">
-        <v>6.520219521853207e-07</v>
+        <v>5.52518410786396e-07</v>
       </c>
       <c r="H56">
-        <v>0.001780328471124361</v>
+        <v>0.001683290966676619</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0004168657604306656</v>
+        <v>0.0005187487894656478</v>
       </c>
       <c r="C57">
-        <v>0.000461302255985096</v>
+        <v>0.0005900325775782074</v>
       </c>
       <c r="D57">
-        <v>4.172036521424639e-06</v>
+        <v>5.319507969340162e-06</v>
       </c>
       <c r="E57">
-        <v>0.0003170122784067743</v>
+        <v>0.0004350331189920949</v>
       </c>
       <c r="F57">
-        <v>0.0001188166740387343</v>
+        <v>0.0001870393968306044</v>
       </c>
       <c r="G57">
-        <v>4.708793262823976e-07</v>
+        <v>6.372655190630282e-07</v>
       </c>
       <c r="H57">
-        <v>0.001279102576619684</v>
+        <v>0.002170997971284931</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0005626452597322865</v>
+        <v>0.0004537598506558446</v>
       </c>
       <c r="C58">
-        <v>0.000402952580852774</v>
+        <v>0.0004853067643166996</v>
       </c>
       <c r="D58">
-        <v>7.215209634124576e-06</v>
+        <v>4.715024166447287e-06</v>
       </c>
       <c r="E58">
-        <v>0.0004514848112122366</v>
+        <v>0.0004005949212221586</v>
       </c>
       <c r="F58">
-        <v>0.000145405149850074</v>
+        <v>0.0001453554852539791</v>
       </c>
       <c r="G58">
-        <v>6.380279581749947e-07</v>
+        <v>5.423450015237498e-07</v>
       </c>
       <c r="H58">
-        <v>0.001594207244708654</v>
+        <v>0.001736253521823225</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0004035679676321882</v>
+        <v>0.0003592677207195472</v>
       </c>
       <c r="C59">
-        <v>0.0005004074901976907</v>
+        <v>0.0005420586056614111</v>
       </c>
       <c r="D59">
-        <v>4.262295310869048e-06</v>
+        <v>5.1654513182791e-06</v>
       </c>
       <c r="E59">
-        <v>0.0003542620141071524</v>
+        <v>0.0002626279813345465</v>
       </c>
       <c r="F59">
-        <v>0.0001328352967530951</v>
+        <v>0.0001717834149168552</v>
       </c>
       <c r="G59">
-        <v>4.611016592404913e-07</v>
+        <v>4.468144338997783e-07</v>
       </c>
       <c r="H59">
-        <v>0.001421994805302036</v>
+        <v>0.001806722841830688</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.000526523266384679</v>
+        <v>0.0005790314442754456</v>
       </c>
       <c r="C60">
-        <v>0.0006257261501809857</v>
+        <v>0.0004790737520294587</v>
       </c>
       <c r="D60">
-        <v>6.105277602033745e-06</v>
+        <v>6.095609067150521e-06</v>
       </c>
       <c r="E60">
-        <v>0.0003660381160049669</v>
+        <v>0.0004458117676648919</v>
       </c>
       <c r="F60">
-        <v>0.0001643515921283672</v>
+        <v>0.0002164859946069558</v>
       </c>
       <c r="G60">
-        <v>5.615137257809374e-07</v>
+        <v>6.550867677386577e-07</v>
       </c>
       <c r="H60">
-        <v>0.001778254998721647</v>
+        <v>0.002380369746835342</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0005098173623807869</v>
+        <v>0.0005059534860299315</v>
       </c>
       <c r="C61">
-        <v>0.0004848077479596645</v>
+        <v>0.0006134167323341543</v>
       </c>
       <c r="D61">
-        <v>5.51115774516348e-06</v>
+        <v>5.880918613125991e-06</v>
       </c>
       <c r="E61">
-        <v>0.0003601343963745524</v>
+        <v>0.0004181111241885128</v>
       </c>
       <c r="F61">
-        <v>0.0001915993232972926</v>
+        <v>0.0001838892182600686</v>
       </c>
       <c r="G61">
-        <v>5.424738091414639e-07</v>
+        <v>6.530251627135531e-07</v>
       </c>
       <c r="H61">
-        <v>0.002068310960472504</v>
+        <v>0.001991532611497652</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0005017591629072761</v>
+        <v>0.0003392340435233688</v>
       </c>
       <c r="C62">
-        <v>0.0004315279260182791</v>
+        <v>0.0006225504817992593</v>
       </c>
       <c r="D62">
-        <v>5.304541811164925e-06</v>
+        <v>4.410720888755566e-06</v>
       </c>
       <c r="E62">
-        <v>0.00036663017305173</v>
+        <v>0.0003304383881044868</v>
       </c>
       <c r="F62">
-        <v>0.0001691666191392684</v>
+        <v>0.0001421157540060974</v>
       </c>
       <c r="G62">
-        <v>5.503033806122885e-07</v>
+        <v>4.364745931247189e-07</v>
       </c>
       <c r="H62">
-        <v>0.001887741266224462</v>
+        <v>0.001605804475078263</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0004518504347367938</v>
+        <v>0.000410688987963029</v>
       </c>
       <c r="C63">
-        <v>0.0005352925424055667</v>
+        <v>0.0006005796673913955</v>
       </c>
       <c r="D63">
-        <v>4.057664232882381e-06</v>
+        <v>4.278489948893731e-06</v>
       </c>
       <c r="E63">
-        <v>0.0003238640518384144</v>
+        <v>0.0003020023410820126</v>
       </c>
       <c r="F63">
-        <v>0.0001414506890465555</v>
+        <v>0.0001321258547749564</v>
       </c>
       <c r="G63">
-        <v>5.88182503456126e-07</v>
+        <v>3.609886164163494e-07</v>
       </c>
       <c r="H63">
-        <v>0.0017653177419082</v>
+        <v>0.001524476614327534</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0003652909180107466</v>
+        <v>0.0003823285817732349</v>
       </c>
       <c r="C64">
-        <v>0.0003828382395818433</v>
+        <v>0.0004221802992362773</v>
       </c>
       <c r="D64">
-        <v>4.91716969916623e-06</v>
+        <v>5.205466905039986e-06</v>
       </c>
       <c r="E64">
-        <v>0.0003101419456085989</v>
+        <v>0.0003406016872937324</v>
       </c>
       <c r="F64">
-        <v>0.0001383816881859787</v>
+        <v>0.0001524685307377124</v>
       </c>
       <c r="G64">
-        <v>3.656711554571347e-07</v>
+        <v>4.071906370349529e-07</v>
       </c>
       <c r="H64">
-        <v>0.001591816238741631</v>
+        <v>0.001920859328751427</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0004463311337740225</v>
+        <v>0.0004132706562343275</v>
       </c>
       <c r="C65">
-        <v>0.0005454559049663301</v>
+        <v>0.0003644055452777253</v>
       </c>
       <c r="D65">
-        <v>5.024539360341854e-06</v>
+        <v>4.599712409623586e-06</v>
       </c>
       <c r="E65">
-        <v>0.0003416928950531158</v>
+        <v>0.0003398103772082814</v>
       </c>
       <c r="F65">
-        <v>0.0001538435607479619</v>
+        <v>0.0001542556188375237</v>
       </c>
       <c r="G65">
-        <v>6.014570561990467e-07</v>
+        <v>5.43596079191012e-07</v>
       </c>
       <c r="H65">
-        <v>0.001645666874295486</v>
+        <v>0.001649025048008388</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0006008266123930723</v>
+        <v>0.0003983162359252568</v>
       </c>
       <c r="C66">
-        <v>0.0004537291172805023</v>
+        <v>0.001077222654581702</v>
       </c>
       <c r="D66">
-        <v>4.299353468426199e-06</v>
+        <v>4.312220806442227e-06</v>
       </c>
       <c r="E66">
-        <v>0.0003188698011129775</v>
+        <v>0.0002843475558169713</v>
       </c>
       <c r="F66">
-        <v>0.0001763159620968886</v>
+        <v>0.0001478668699173758</v>
       </c>
       <c r="G66">
-        <v>6.908414442674387e-07</v>
+        <v>5.345521453542941e-07</v>
       </c>
       <c r="H66">
-        <v>0.002086346315100412</v>
+        <v>0.001805666619524501</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0004430610900034376</v>
+        <v>0.0004047749307100086</v>
       </c>
       <c r="C67">
-        <v>0.0006270367093730594</v>
+        <v>0.000373565454477449</v>
       </c>
       <c r="D67">
-        <v>6.38625839003533e-06</v>
+        <v>4.442310730071443e-06</v>
       </c>
       <c r="E67">
-        <v>0.0003999128209589481</v>
+        <v>0.0003638257339828833</v>
       </c>
       <c r="F67">
-        <v>0.0001630227009677564</v>
+        <v>0.0001664010988285233</v>
       </c>
       <c r="G67">
-        <v>5.100543623902782e-07</v>
+        <v>5.770701311422911e-07</v>
       </c>
       <c r="H67">
-        <v>0.001831199797749843</v>
+        <v>0.001860795722132298</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0004091126902017114</v>
+        <v>0.00048337802067038</v>
       </c>
       <c r="C68">
-        <v>0.001029230478810275</v>
+        <v>0.001201179151995602</v>
       </c>
       <c r="D68">
-        <v>4.653467633246138e-06</v>
+        <v>6.209287010653825e-06</v>
       </c>
       <c r="E68">
-        <v>0.0003378508756041308</v>
+        <v>0.000287690276210421</v>
       </c>
       <c r="F68">
-        <v>0.0001496611762502425</v>
+        <v>0.00016139756904995</v>
       </c>
       <c r="G68">
-        <v>4.902870117200022e-07</v>
+        <v>5.674484682809073e-07</v>
       </c>
       <c r="H68">
-        <v>0.001527420781078784</v>
+        <v>0.001906638382100041</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0004123105910925638</v>
+        <v>0.0005648399524920118</v>
       </c>
       <c r="C69">
-        <v>0.0008181420435414721</v>
+        <v>0.0004614682915632635</v>
       </c>
       <c r="D69">
-        <v>5.440059074503114e-06</v>
+        <v>7.216396901876023e-06</v>
       </c>
       <c r="E69">
-        <v>0.0004581647669795852</v>
+        <v>0.0004498412786561613</v>
       </c>
       <c r="F69">
-        <v>0.0001759849231371339</v>
+        <v>0.0001552588891251939</v>
       </c>
       <c r="G69">
-        <v>6.347734248858582e-07</v>
+        <v>7.521681663069953e-07</v>
       </c>
       <c r="H69">
-        <v>0.001784682956626854</v>
+        <v>0.001906510009669119</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0005516723779414097</v>
+        <v>0.0004215380194121785</v>
       </c>
       <c r="C70">
-        <v>0.00053575326469564</v>
+        <v>0.0003206700074032188</v>
       </c>
       <c r="D70">
-        <v>5.018689862954239e-06</v>
+        <v>4.557449942737399e-06</v>
       </c>
       <c r="E70">
-        <v>0.0003884890942069439</v>
+        <v>0.0003814495919710789</v>
       </c>
       <c r="F70">
-        <v>0.0001766627046938979</v>
+        <v>0.0001410516528329544</v>
       </c>
       <c r="G70">
-        <v>6.770018354146149e-07</v>
+        <v>4.854418903576125e-07</v>
       </c>
       <c r="H70">
-        <v>0.002017888223350468</v>
+        <v>0.001637688324201392</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003488483588116436</v>
+        <v>0.000504618985818842</v>
       </c>
       <c r="C71">
-        <v>0.0006917753466142867</v>
+        <v>0.0005869430728006941</v>
       </c>
       <c r="D71">
-        <v>4.098308838784217e-06</v>
+        <v>4.289782137730155e-06</v>
       </c>
       <c r="E71">
-        <v>0.0004742555044526514</v>
+        <v>0.0003487803678535391</v>
       </c>
       <c r="F71">
-        <v>0.0001392385209918095</v>
+        <v>0.0001682558703308825</v>
       </c>
       <c r="G71">
-        <v>5.971402445295776e-07</v>
+        <v>5.440756580947746e-07</v>
       </c>
       <c r="H71">
-        <v>0.001596235316775562</v>
+        <v>0.002153377736047884</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.000554279158360397</v>
+        <v>0.0003985176245047274</v>
       </c>
       <c r="C72">
-        <v>0.0003634879694675798</v>
+        <v>0.0007067288634314237</v>
       </c>
       <c r="D72">
-        <v>4.135757492472775e-06</v>
+        <v>4.731949004629965e-06</v>
       </c>
       <c r="E72">
-        <v>0.0003002591646665219</v>
+        <v>0.0004168912378081471</v>
       </c>
       <c r="F72">
-        <v>0.0001736443842634883</v>
+        <v>0.0001747215464368882</v>
       </c>
       <c r="G72">
-        <v>4.977348149484201e-07</v>
+        <v>6.320584226101889e-07</v>
       </c>
       <c r="H72">
-        <v>0.002006658121030839</v>
+        <v>0.00187191875296988</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0005764843209135334</v>
+        <v>0.0004682344766696002</v>
       </c>
       <c r="C73">
-        <v>0.0008018149833893698</v>
+        <v>0.000661219281085754</v>
       </c>
       <c r="D73">
-        <v>5.098213335192185e-06</v>
+        <v>5.967763723746843e-06</v>
       </c>
       <c r="E73">
-        <v>0.0004618235809111848</v>
+        <v>0.0004125675565611248</v>
       </c>
       <c r="F73">
-        <v>0.000181720624382528</v>
+        <v>0.0001662078744400796</v>
       </c>
       <c r="G73">
-        <v>6.857916766227436e-07</v>
+        <v>5.900258441785706e-07</v>
       </c>
       <c r="H73">
-        <v>0.002174962294697651</v>
+        <v>0.002040790175919861</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0004684114731670414</v>
+        <v>0.0003535632355573551</v>
       </c>
       <c r="C74">
-        <v>0.0003425271887047546</v>
+        <v>0.0005144249155998931</v>
       </c>
       <c r="D74">
-        <v>4.512763342733209e-06</v>
+        <v>5.519524510042117e-06</v>
       </c>
       <c r="E74">
-        <v>0.0003636517880965729</v>
+        <v>0.0003830250834749488</v>
       </c>
       <c r="F74">
-        <v>0.0001399751155803487</v>
+        <v>0.0001624610044705109</v>
       </c>
       <c r="G74">
-        <v>4.609325691116064e-07</v>
+        <v>4.805275068935391e-07</v>
       </c>
       <c r="H74">
-        <v>0.001472105327346868</v>
+        <v>0.001686118867281864</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0005007358383628716</v>
+        <v>0.0004145115626528958</v>
       </c>
       <c r="C75">
-        <v>0.0004207052343598535</v>
+        <v>0.0007354487709334712</v>
       </c>
       <c r="D75">
-        <v>5.869784240025002e-06</v>
+        <v>4.477758101596686e-06</v>
       </c>
       <c r="E75">
-        <v>0.0003775518477276943</v>
+        <v>0.0003291120738356063</v>
       </c>
       <c r="F75">
-        <v>0.0001657036239162142</v>
+        <v>0.0001193038727185976</v>
       </c>
       <c r="G75">
-        <v>6.0799442351005e-07</v>
+        <v>5.138383555149127e-07</v>
       </c>
       <c r="H75">
-        <v>0.00194362938238433</v>
+        <v>0.001515093451444736</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0005112707125940627</v>
+        <v>0.000522996274008144</v>
       </c>
       <c r="C76">
-        <v>0.0006243893890258943</v>
+        <v>0.0003954189049467287</v>
       </c>
       <c r="D76">
-        <v>5.057422414329082e-06</v>
+        <v>5.902989026994134e-06</v>
       </c>
       <c r="E76">
-        <v>0.0003222132625281631</v>
+        <v>0.0003983969378798616</v>
       </c>
       <c r="F76">
-        <v>0.000129968531645629</v>
+        <v>0.0001607137872820795</v>
       </c>
       <c r="G76">
-        <v>5.779565714581449e-07</v>
+        <v>4.871113848313855e-07</v>
       </c>
       <c r="H76">
-        <v>0.001550687250125852</v>
+        <v>0.001822839868103411</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0003884648563661369</v>
+        <v>0.0004655552183976898</v>
       </c>
       <c r="C77">
-        <v>0.0006837977152924671</v>
+        <v>0.0005645697051076333</v>
       </c>
       <c r="D77">
-        <v>5.401748027254729e-06</v>
+        <v>4.537327105678919e-06</v>
       </c>
       <c r="E77">
-        <v>0.0003442087088437858</v>
+        <v>0.000326438639262647</v>
       </c>
       <c r="F77">
-        <v>0.0001426627494261597</v>
+        <v>0.000147557049767955</v>
       </c>
       <c r="G77">
-        <v>5.405730241259019e-07</v>
+        <v>4.958126248855492e-07</v>
       </c>
       <c r="H77">
-        <v>0.001414918673621786</v>
+        <v>0.001860266473509962</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0003829356536551286</v>
+        <v>0.0004835333037424473</v>
       </c>
       <c r="C78">
-        <v>0.0004245236156100237</v>
+        <v>0.0004067751790801319</v>
       </c>
       <c r="D78">
-        <v>4.570645646042261e-06</v>
+        <v>4.446517930656418e-06</v>
       </c>
       <c r="E78">
-        <v>0.0003537621885580465</v>
+        <v>0.0004177757774368651</v>
       </c>
       <c r="F78">
-        <v>0.0001325793355454873</v>
+        <v>0.0001584348142081795</v>
       </c>
       <c r="G78">
-        <v>6.461066014879432e-07</v>
+        <v>5.171498248726289e-07</v>
       </c>
       <c r="H78">
-        <v>0.001554201955477955</v>
+        <v>0.001779200072331589</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0004892825815615983</v>
+        <v>0.0003675332608985368</v>
       </c>
       <c r="C79">
-        <v>0.000678031370027847</v>
+        <v>0.0004329926214814441</v>
       </c>
       <c r="D79">
-        <v>6.326868429968413e-06</v>
+        <v>3.645172926307336e-06</v>
       </c>
       <c r="E79">
-        <v>0.0003898309797555573</v>
+        <v>0.0003378579262262007</v>
       </c>
       <c r="F79">
-        <v>0.0001431510697242591</v>
+        <v>0.0001576178725192983</v>
       </c>
       <c r="G79">
-        <v>6.975516053706196e-07</v>
+        <v>4.925658231321267e-07</v>
       </c>
       <c r="H79">
-        <v>0.001695161189022305</v>
+        <v>0.001649737383607264</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.000470478067301413</v>
+        <v>0.0005099663320466306</v>
       </c>
       <c r="C80">
-        <v>0.000644081895206961</v>
+        <v>0.0005261765552787246</v>
       </c>
       <c r="D80">
-        <v>5.21305132929328e-06</v>
+        <v>6.03082550774553e-06</v>
       </c>
       <c r="E80">
-        <v>0.0003277909092412864</v>
+        <v>0.0003976910109739679</v>
       </c>
       <c r="F80">
-        <v>0.0001915527740909188</v>
+        <v>0.0001701107828022341</v>
       </c>
       <c r="G80">
-        <v>5.949679498960431e-07</v>
+        <v>6.175368831937066e-07</v>
       </c>
       <c r="H80">
-        <v>0.002035396882383213</v>
+        <v>0.001965699239795855</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0005455509068385173</v>
+        <v>0.0004795630309177175</v>
       </c>
       <c r="C81">
-        <v>0.0006001712147602048</v>
+        <v>0.0004834243805787268</v>
       </c>
       <c r="D81">
-        <v>4.150468637238148e-06</v>
+        <v>5.773046256378191e-06</v>
       </c>
       <c r="E81">
-        <v>0.0003737392252767732</v>
+        <v>0.0004190136243429671</v>
       </c>
       <c r="F81">
-        <v>0.0001955731628920965</v>
+        <v>0.0001783383836648882</v>
       </c>
       <c r="G81">
-        <v>7.59132944521869e-07</v>
+        <v>6.542800183356521e-07</v>
       </c>
       <c r="H81">
-        <v>0.002038917829797341</v>
+        <v>0.001828274291796568</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0005013762537687634</v>
+        <v>0.0004936464479491581</v>
       </c>
       <c r="C82">
-        <v>0.0005142284261249043</v>
+        <v>0.0008858841433643328</v>
       </c>
       <c r="D82">
-        <v>3.977243253257059e-06</v>
+        <v>8.536391601383886e-06</v>
       </c>
       <c r="E82">
-        <v>0.0003645065634692868</v>
+        <v>0.000423827347828764</v>
       </c>
       <c r="F82">
-        <v>0.0001422755425129288</v>
+        <v>0.0001471696029652331</v>
       </c>
       <c r="G82">
-        <v>5.664819706665517e-07</v>
+        <v>4.222766207616204e-07</v>
       </c>
       <c r="H82">
-        <v>0.00160581567032697</v>
+        <v>0.001510093168315923</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.00042648374515349</v>
+        <v>0.000432753111570369</v>
       </c>
       <c r="C83">
-        <v>0.0007877446400103832</v>
+        <v>0.0004262439415754814</v>
       </c>
       <c r="D83">
-        <v>5.250854116679772e-06</v>
+        <v>4.228670116455886e-06</v>
       </c>
       <c r="E83">
-        <v>0.000324380250850375</v>
+        <v>0.0003777228211600774</v>
       </c>
       <c r="F83">
-        <v>0.0001595894821964057</v>
+        <v>0.0001566646087412327</v>
       </c>
       <c r="G83">
-        <v>5.462019061169045e-07</v>
+        <v>5.168739786940906e-07</v>
       </c>
       <c r="H83">
-        <v>0.001663716226710993</v>
+        <v>0.001948420943281012</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0005249868573279541</v>
+        <v>0.0005126701073776328</v>
       </c>
       <c r="C84">
-        <v>0.0005299623485107814</v>
+        <v>0.000436770169012</v>
       </c>
       <c r="D84">
-        <v>5.651110957382316e-06</v>
+        <v>4.860531580207492e-06</v>
       </c>
       <c r="E84">
-        <v>0.000350310243362473</v>
+        <v>0.0003930744288803137</v>
       </c>
       <c r="F84">
-        <v>0.0001554425954712713</v>
+        <v>0.0001774997676956815</v>
       </c>
       <c r="G84">
-        <v>6.452010119597022e-07</v>
+        <v>6.162017488988242e-07</v>
       </c>
       <c r="H84">
-        <v>0.001672972636978287</v>
+        <v>0.001934411838309737</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0005401491094613287</v>
+        <v>0.0004099615262736334</v>
       </c>
       <c r="C85">
-        <v>0.001143034671781758</v>
+        <v>0.0006957983127640155</v>
       </c>
       <c r="D85">
-        <v>6.955102147864814e-06</v>
+        <v>4.948858466014397e-06</v>
       </c>
       <c r="E85">
-        <v>0.0005025895139128846</v>
+        <v>0.0003072323682036497</v>
       </c>
       <c r="F85">
-        <v>0.0001919881963995299</v>
+        <v>0.000154688152576105</v>
       </c>
       <c r="G85">
-        <v>7.098342824768065e-07</v>
+        <v>6.712592865972715e-07</v>
       </c>
       <c r="H85">
-        <v>0.002218858514501695</v>
+        <v>0.001599759698245694</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0003845174396153538</v>
+        <v>0.000540304434918415</v>
       </c>
       <c r="C86">
-        <v>0.0003223566126776583</v>
+        <v>0.0005037804028395945</v>
       </c>
       <c r="D86">
-        <v>3.962586555787136e-06</v>
+        <v>5.82011249824638e-06</v>
       </c>
       <c r="E86">
-        <v>0.0002134012023945537</v>
+        <v>0.0004225889683875781</v>
       </c>
       <c r="F86">
-        <v>0.0001163707288494277</v>
+        <v>0.0002113947857990242</v>
       </c>
       <c r="G86">
-        <v>4.49725434422976e-07</v>
+        <v>6.005305428570444e-07</v>
       </c>
       <c r="H86">
-        <v>0.001276351483879802</v>
+        <v>0.002206705844994786</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004754169622020161</v>
+        <v>0.000337166541600519</v>
       </c>
       <c r="C87">
-        <v>0.000411998013881914</v>
+        <v>0.0007804330747624508</v>
       </c>
       <c r="D87">
-        <v>3.847629009861878e-06</v>
+        <v>5.327992929725748e-06</v>
       </c>
       <c r="E87">
-        <v>0.0003125331152430874</v>
+        <v>0.0002990097993388775</v>
       </c>
       <c r="F87">
-        <v>0.0001524117211433419</v>
+        <v>0.0001271234432020442</v>
       </c>
       <c r="G87">
-        <v>5.511621563569035e-07</v>
+        <v>4.574114337142561e-07</v>
       </c>
       <c r="H87">
-        <v>0.001758187543695392</v>
+        <v>0.001243158252973414</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0004234946838309447</v>
+        <v>0.0004471696216226012</v>
       </c>
       <c r="C88">
-        <v>0.0005006642750009083</v>
+        <v>0.0004961701676105941</v>
       </c>
       <c r="D88">
-        <v>4.608030845344449e-06</v>
+        <v>5.188082385274702e-06</v>
       </c>
       <c r="E88">
-        <v>0.000358226323092135</v>
+        <v>0.0003645951796674823</v>
       </c>
       <c r="F88">
-        <v>0.0001741088225310557</v>
+        <v>0.0001410701782341143</v>
       </c>
       <c r="G88">
-        <v>5.279064656253273e-07</v>
+        <v>5.679183092578717e-07</v>
       </c>
       <c r="H88">
-        <v>0.001857961978117063</v>
+        <v>0.001749029788761756</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0005292467151954006</v>
+        <v>0.0004762465861443757</v>
       </c>
       <c r="C89">
-        <v>0.000942475467980417</v>
+        <v>0.0005958422902280263</v>
       </c>
       <c r="D89">
-        <v>4.296435335988666e-06</v>
+        <v>5.913646096341375e-06</v>
       </c>
       <c r="E89">
-        <v>0.0003409975277519747</v>
+        <v>0.0003543244990338931</v>
       </c>
       <c r="F89">
-        <v>0.0001830449262459281</v>
+        <v>0.0001755894042062896</v>
       </c>
       <c r="G89">
-        <v>6.118143028030349e-07</v>
+        <v>5.655826020186044e-07</v>
       </c>
       <c r="H89">
-        <v>0.001917498531580113</v>
+        <v>0.002206068996857176</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004776643555987776</v>
+        <v>0.0004310598314579808</v>
       </c>
       <c r="C90">
-        <v>0.0006186886544663543</v>
+        <v>0.0007995353883215832</v>
       </c>
       <c r="D90">
-        <v>5.454467956895788e-06</v>
+        <v>5.249110074922114e-06</v>
       </c>
       <c r="E90">
-        <v>0.0003863556884645724</v>
+        <v>0.0003905807997092933</v>
       </c>
       <c r="F90">
-        <v>0.0001459514759199492</v>
+        <v>0.0001604377971656712</v>
       </c>
       <c r="G90">
-        <v>6.469633276077525e-07</v>
+        <v>4.908598477224948e-07</v>
       </c>
       <c r="H90">
-        <v>0.00165649647113131</v>
+        <v>0.001857638978425741</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0004238191427259586</v>
+        <v>0.0004345455677265378</v>
       </c>
       <c r="C91">
-        <v>0.0003486437186557031</v>
+        <v>0.0004334872507647719</v>
       </c>
       <c r="D91">
-        <v>4.648387012014971e-06</v>
+        <v>5.28201570046697e-06</v>
       </c>
       <c r="E91">
-        <v>0.0004648295636497866</v>
+        <v>0.0004573894860435541</v>
       </c>
       <c r="F91">
-        <v>0.0001717248513035847</v>
+        <v>0.0001383238720841102</v>
       </c>
       <c r="G91">
-        <v>7.207141202467501e-07</v>
+        <v>4.690855120968629e-07</v>
       </c>
       <c r="H91">
-        <v>0.001749432775811773</v>
+        <v>0.001668018008211174</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0003895482334850134</v>
+        <v>0.0004929580478397747</v>
       </c>
       <c r="C92">
-        <v>0.0003231998974856411</v>
+        <v>0.0007713305412035416</v>
       </c>
       <c r="D92">
-        <v>4.650516666480656e-06</v>
+        <v>5.174523594822014e-06</v>
       </c>
       <c r="E92">
-        <v>0.0003239941890460729</v>
+        <v>0.0003741819441832634</v>
       </c>
       <c r="F92">
-        <v>0.0001197123877465524</v>
+        <v>0.0001420200736214285</v>
       </c>
       <c r="G92">
-        <v>4.722649157466429e-07</v>
+        <v>5.585135243552686e-07</v>
       </c>
       <c r="H92">
-        <v>0.001483984111690828</v>
+        <v>0.001644862366563288</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0004218216849186712</v>
+        <v>0.0004118597963258512</v>
       </c>
       <c r="C93">
-        <v>0.0003159397981647895</v>
+        <v>0.0005945356990335046</v>
       </c>
       <c r="D93">
-        <v>4.158768581029238e-06</v>
+        <v>4.696550766491097e-06</v>
       </c>
       <c r="E93">
-        <v>0.000355680844793894</v>
+        <v>0.0003601944841128885</v>
       </c>
       <c r="F93">
-        <v>0.0001365841046628021</v>
+        <v>0.0001287699760389162</v>
       </c>
       <c r="G93">
-        <v>5.512178707351314e-07</v>
+        <v>4.877594073866137e-07</v>
       </c>
       <c r="H93">
-        <v>0.00163716140961475</v>
+        <v>0.001374958715939216</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0004221700483194064</v>
+        <v>0.0004675755429770062</v>
       </c>
       <c r="C94">
-        <v>0.000662568818674251</v>
+        <v>0.0004865244739109817</v>
       </c>
       <c r="D94">
-        <v>6.280573955141704e-06</v>
+        <v>5.061565297504669e-06</v>
       </c>
       <c r="E94">
-        <v>0.000366436253878756</v>
+        <v>0.0003927668351104649</v>
       </c>
       <c r="F94">
-        <v>0.0001651623146848601</v>
+        <v>0.0001768990494271715</v>
       </c>
       <c r="G94">
-        <v>6.178432721081297e-07</v>
+        <v>5.895528349805186e-07</v>
       </c>
       <c r="H94">
-        <v>0.00167166485993873</v>
+        <v>0.001948712167883383</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.000594547329089155</v>
+        <v>0.000440314067129247</v>
       </c>
       <c r="C95">
-        <v>0.0005595199508500741</v>
+        <v>0.0006584422262789125</v>
       </c>
       <c r="D95">
-        <v>9.257923209671279e-06</v>
+        <v>5.703163792579637e-06</v>
       </c>
       <c r="E95">
-        <v>0.0003944337680425878</v>
+        <v>0.0003695999231442171</v>
       </c>
       <c r="F95">
-        <v>0.0001878738141705563</v>
+        <v>0.0001522170818034745</v>
       </c>
       <c r="G95">
-        <v>5.353604388547623e-07</v>
+        <v>5.879237727856384e-07</v>
       </c>
       <c r="H95">
-        <v>0.002205175735562003</v>
+        <v>0.001476543762348116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0004938102008657958</v>
+        <v>0.000386676963460654</v>
       </c>
       <c r="C96">
-        <v>0.0007035264313984687</v>
+        <v>0.000469143641318496</v>
       </c>
       <c r="D96">
-        <v>4.016551686816171e-06</v>
+        <v>4.023773793527933e-06</v>
       </c>
       <c r="E96">
-        <v>0.000434612095582407</v>
+        <v>0.0003495437770786193</v>
       </c>
       <c r="F96">
-        <v>0.0001577600654383069</v>
+        <v>0.0001797205277589518</v>
       </c>
       <c r="G96">
-        <v>4.955922427957427e-07</v>
+        <v>5.230978618231623e-07</v>
       </c>
       <c r="H96">
-        <v>0.001714239909618595</v>
+        <v>0.001934039541318679</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0004146596789649795</v>
+        <v>0.0004166122675381443</v>
       </c>
       <c r="C97">
-        <v>0.000784364917492667</v>
+        <v>0.0004715119002409589</v>
       </c>
       <c r="D97">
-        <v>5.080410631885518e-06</v>
+        <v>3.695638729725624e-06</v>
       </c>
       <c r="E97">
-        <v>0.0003947692870922372</v>
+        <v>0.0003351395604991639</v>
       </c>
       <c r="F97">
-        <v>0.0001380258574093852</v>
+        <v>0.0001079401254051314</v>
       </c>
       <c r="G97">
-        <v>6.440810656947128e-07</v>
+        <v>4.715150392892662e-07</v>
       </c>
       <c r="H97">
-        <v>0.001554265476932547</v>
+        <v>0.001326967974132903</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0004056272872158165</v>
+        <v>0.0004351335603999012</v>
       </c>
       <c r="C98">
-        <v>0.000663358963801825</v>
+        <v>0.0005220315997708594</v>
       </c>
       <c r="D98">
-        <v>5.040945895705134e-06</v>
+        <v>4.868520962658719e-06</v>
       </c>
       <c r="E98">
-        <v>0.0003945732329852489</v>
+        <v>0.000366428670246016</v>
       </c>
       <c r="F98">
-        <v>0.0001436344807610688</v>
+        <v>0.0001593775927614425</v>
       </c>
       <c r="G98">
-        <v>5.905721546911091e-07</v>
+        <v>5.736090505912671e-07</v>
       </c>
       <c r="H98">
-        <v>0.001529175137088356</v>
+        <v>0.001729523286409887</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.000427432374709267</v>
+        <v>0.0004217064752206056</v>
       </c>
       <c r="C99">
-        <v>0.000918017867885918</v>
+        <v>0.0005359834344439046</v>
       </c>
       <c r="D99">
-        <v>4.614225732667063e-06</v>
+        <v>6.775404996599975e-06</v>
       </c>
       <c r="E99">
-        <v>0.0003954544527826263</v>
+        <v>0.0003099074824673245</v>
       </c>
       <c r="F99">
-        <v>0.0001450796663145629</v>
+        <v>0.0001668897824569369</v>
       </c>
       <c r="G99">
-        <v>5.658104908054588e-07</v>
+        <v>6.04407267526902e-07</v>
       </c>
       <c r="H99">
-        <v>0.001699803878341031</v>
+        <v>0.001676004606994927</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0003555651001469601</v>
+        <v>0.0003767658495333445</v>
       </c>
       <c r="C100">
-        <v>0.0009273866900584598</v>
+        <v>0.0005270470886446926</v>
       </c>
       <c r="D100">
-        <v>3.956258476352416e-06</v>
+        <v>5.904024670129608e-06</v>
       </c>
       <c r="E100">
-        <v>0.0003113209601150318</v>
+        <v>0.0003680920446047945</v>
       </c>
       <c r="F100">
-        <v>0.0001229450721947183</v>
+        <v>0.0001391787817258929</v>
       </c>
       <c r="G100">
-        <v>5.643273043293304e-07</v>
+        <v>4.737566958774273e-07</v>
       </c>
       <c r="H100">
-        <v>0.001496585466854836</v>
+        <v>0.001578937596307153</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0003920508993217728</v>
+        <v>0.0004826695553722992</v>
       </c>
       <c r="C101">
-        <v>0.0007622099047732131</v>
+        <v>0.0006479409105551012</v>
       </c>
       <c r="D101">
-        <v>4.640394747522624e-06</v>
+        <v>4.746491436899585e-06</v>
       </c>
       <c r="E101">
-        <v>0.0003251491092824305</v>
+        <v>0.0002899798630572495</v>
       </c>
       <c r="F101">
-        <v>0.000145145203942508</v>
+        <v>0.0001513580369090166</v>
       </c>
       <c r="G101">
-        <v>5.276911812582958e-07</v>
+        <v>5.243807136705544e-07</v>
       </c>
       <c r="H101">
-        <v>0.001814414689327604</v>
+        <v>0.001624772263935655</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0004589868246051754</v>
+        <v>0.0004804040821244214</v>
       </c>
       <c r="C102">
-        <v>0.0006049448470500132</v>
+        <v>0.0004586566364958578</v>
       </c>
       <c r="D102">
-        <v>5.957653134164941e-06</v>
+        <v>5.777351661290752e-06</v>
       </c>
       <c r="E102">
-        <v>0.0003314624935778979</v>
+        <v>0.0002865519904422295</v>
       </c>
       <c r="F102">
-        <v>0.0002101815658829434</v>
+        <v>0.0001871318538702912</v>
       </c>
       <c r="G102">
-        <v>4.498787308984224e-07</v>
+        <v>6.511184814180023e-07</v>
       </c>
       <c r="H102">
-        <v>0.002309409513429925</v>
+        <v>0.001999805985456586</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0005524080603376087</v>
+        <v>0.0006197378307147379</v>
       </c>
       <c r="C103">
-        <v>0.0004409724875543325</v>
+        <v>0.0006270670544826435</v>
       </c>
       <c r="D103">
-        <v>6.624257326297064e-06</v>
+        <v>5.430282548852753e-06</v>
       </c>
       <c r="E103">
-        <v>0.000473575914300521</v>
+        <v>0.0003793274913193086</v>
       </c>
       <c r="F103">
-        <v>0.0001445815942689904</v>
+        <v>0.000156718230291355</v>
       </c>
       <c r="G103">
-        <v>4.934923371157942e-07</v>
+        <v>6.064565857827904e-07</v>
       </c>
       <c r="H103">
-        <v>0.001742517240465584</v>
+        <v>0.001884100599977909</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0004882546144883951</v>
+        <v>0.0005156695221050603</v>
       </c>
       <c r="C104">
-        <v>0.0004481399337858853</v>
+        <v>0.0004721769780612648</v>
       </c>
       <c r="D104">
-        <v>4.597499650566279e-06</v>
+        <v>5.974716172122309e-06</v>
       </c>
       <c r="E104">
-        <v>0.0002893190287715464</v>
+        <v>0.0002988252310282149</v>
       </c>
       <c r="F104">
-        <v>0.0001477003590365472</v>
+        <v>0.0001377396827506941</v>
       </c>
       <c r="G104">
-        <v>6.271001526157799e-07</v>
+        <v>6.795110243746612e-07</v>
       </c>
       <c r="H104">
-        <v>0.001803150795935436</v>
+        <v>0.001527241646081304</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0005616651031236772</v>
+        <v>0.0004377452345337518</v>
       </c>
       <c r="C105">
-        <v>0.0004516781966231687</v>
+        <v>0.000395403573140643</v>
       </c>
       <c r="D105">
-        <v>4.734810571151353e-06</v>
+        <v>5.081589657954254e-06</v>
       </c>
       <c r="E105">
-        <v>0.00036717996876414</v>
+        <v>0.0005191910470126867</v>
       </c>
       <c r="F105">
-        <v>0.0001684939353265951</v>
+        <v>0.0001741471162304067</v>
       </c>
       <c r="G105">
-        <v>7.318865520937586e-07</v>
+        <v>7.753584957651447e-07</v>
       </c>
       <c r="H105">
-        <v>0.002037157456553544</v>
+        <v>0.002042646660085931</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0003032132759727015</v>
+        <v>0.0004384495037088918</v>
       </c>
       <c r="C106">
-        <v>0.0004865252922775222</v>
+        <v>0.0005791313811114844</v>
       </c>
       <c r="D106">
-        <v>4.649808985814255e-06</v>
+        <v>6.127645260557166e-06</v>
       </c>
       <c r="E106">
-        <v>0.000301209773636672</v>
+        <v>0.0003348157810487785</v>
       </c>
       <c r="F106">
-        <v>0.0001343001484577828</v>
+        <v>0.0001255986105939746</v>
       </c>
       <c r="G106">
-        <v>4.254974665753622e-07</v>
+        <v>5.547667910529043e-07</v>
       </c>
       <c r="H106">
-        <v>0.001544542184683186</v>
+        <v>0.001479805219675183</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0004374053185046228</v>
+        <v>0.0003594479553012573</v>
       </c>
       <c r="C107">
-        <v>0.0003801788187248728</v>
+        <v>0.0005103340082458043</v>
       </c>
       <c r="D107">
-        <v>4.323796555153554e-06</v>
+        <v>3.931022307701535e-06</v>
       </c>
       <c r="E107">
-        <v>0.0003541976268817329</v>
+        <v>0.000340738545232224</v>
       </c>
       <c r="F107">
-        <v>0.0001313008236178546</v>
+        <v>0.000139254091043171</v>
       </c>
       <c r="G107">
-        <v>4.370504077787102e-07</v>
+        <v>4.574871423634372e-07</v>
       </c>
       <c r="H107">
-        <v>0.001579713922193154</v>
+        <v>0.001523383458642044</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0004857715234372852</v>
+        <v>0.000471903471315001</v>
       </c>
       <c r="C108">
-        <v>0.0004563499408707083</v>
+        <v>0.0004249635171283246</v>
       </c>
       <c r="D108">
-        <v>6.005210613840613e-06</v>
+        <v>4.958370261318657e-06</v>
       </c>
       <c r="E108">
-        <v>0.0003525148235995556</v>
+        <v>0.0003492367272356255</v>
       </c>
       <c r="F108">
-        <v>0.0001629216690504629</v>
+        <v>0.0001585948036888643</v>
       </c>
       <c r="G108">
-        <v>6.433536076297412e-07</v>
+        <v>5.044226673960665e-07</v>
       </c>
       <c r="H108">
-        <v>0.002018066570305858</v>
+        <v>0.001771591941048082</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0004767711898906305</v>
+        <v>0.0004398276991875091</v>
       </c>
       <c r="C109">
-        <v>0.001191950308897319</v>
+        <v>0.0004467441996336525</v>
       </c>
       <c r="D109">
-        <v>5.145585838188546e-06</v>
+        <v>4.331595657749936e-06</v>
       </c>
       <c r="E109">
-        <v>0.0004436796835977015</v>
+        <v>0.0003563175328541053</v>
       </c>
       <c r="F109">
-        <v>0.0001696017629972004</v>
+        <v>0.0001683188469173098</v>
       </c>
       <c r="G109">
-        <v>6.390731668987833e-07</v>
+        <v>4.485338614298392e-07</v>
       </c>
       <c r="H109">
-        <v>0.002005184728556294</v>
+        <v>0.00185568166348161</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004891215758896575</v>
+        <v>0.0004834752727425904</v>
       </c>
       <c r="C110">
-        <v>0.0004452653811988443</v>
+        <v>0.00043104375801858</v>
       </c>
       <c r="D110">
-        <v>4.805564858424732e-06</v>
+        <v>5.792637920792623e-06</v>
       </c>
       <c r="E110">
-        <v>0.0003613939416433095</v>
+        <v>0.000316477054154773</v>
       </c>
       <c r="F110">
-        <v>0.0001615573134216285</v>
+        <v>0.0001600594373043779</v>
       </c>
       <c r="G110">
-        <v>5.677230957714506e-07</v>
+        <v>5.810225748242869e-07</v>
       </c>
       <c r="H110">
-        <v>0.001732633316482555</v>
+        <v>0.001639201321548382</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0005150487909908991</v>
+        <v>0.0004412115020808121</v>
       </c>
       <c r="C111">
-        <v>0.0006989730246953465</v>
+        <v>0.0008029432945366357</v>
       </c>
       <c r="D111">
-        <v>5.078728834755125e-06</v>
+        <v>4.623529339008188e-06</v>
       </c>
       <c r="E111">
-        <v>0.0004211133995733082</v>
+        <v>0.0003118020390916544</v>
       </c>
       <c r="F111">
-        <v>0.0001261369118823623</v>
+        <v>0.0001502284905257064</v>
       </c>
       <c r="G111">
-        <v>5.964281068312387e-07</v>
+        <v>5.044848688125391e-07</v>
       </c>
       <c r="H111">
-        <v>0.001427730199039982</v>
+        <v>0.001660870454360789</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0003752956393511656</v>
+        <v>0.0005237356373052579</v>
       </c>
       <c r="C112">
-        <v>0.000511407587310484</v>
+        <v>0.0004381303428982252</v>
       </c>
       <c r="D112">
-        <v>4.462861939179226e-06</v>
+        <v>5.359780846728059e-06</v>
       </c>
       <c r="E112">
-        <v>0.000380762668687204</v>
+        <v>0.0003543159357274458</v>
       </c>
       <c r="F112">
-        <v>0.0001562429943650766</v>
+        <v>0.0001640156980968154</v>
       </c>
       <c r="G112">
-        <v>5.494423781401124e-07</v>
+        <v>5.855711580331342e-07</v>
       </c>
       <c r="H112">
-        <v>0.001631102030534226</v>
+        <v>0.001859247796508362</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0004880301389228736</v>
+        <v>0.0003919102063853325</v>
       </c>
       <c r="C113">
-        <v>0.000622549741933523</v>
+        <v>0.0004543207797214349</v>
       </c>
       <c r="D113">
-        <v>5.550648562053198e-06</v>
+        <v>5.496762138502021e-06</v>
       </c>
       <c r="E113">
-        <v>0.0003600043281690525</v>
+        <v>0.0003098445032279205</v>
       </c>
       <c r="F113">
-        <v>0.0001646051583703592</v>
+        <v>0.0001542117281922946</v>
       </c>
       <c r="G113">
-        <v>6.262566324915048e-07</v>
+        <v>5.001325824305549e-07</v>
       </c>
       <c r="H113">
-        <v>0.001765279578637993</v>
+        <v>0.001607051201967568</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0003599380477258367</v>
+        <v>0.0005662992406180797</v>
       </c>
       <c r="C114">
-        <v>0.0006547489874682181</v>
+        <v>0.0003704328356758418</v>
       </c>
       <c r="D114">
-        <v>4.400743597129082e-06</v>
+        <v>4.963686863829214e-06</v>
       </c>
       <c r="E114">
-        <v>0.000383790369190555</v>
+        <v>0.0003149189945388548</v>
       </c>
       <c r="F114">
-        <v>0.0001463201265512876</v>
+        <v>0.0001793092128762105</v>
       </c>
       <c r="G114">
-        <v>4.647866864965768e-07</v>
+        <v>5.666380882865299e-07</v>
       </c>
       <c r="H114">
-        <v>0.001687918826676362</v>
+        <v>0.002099215297192801</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0005859987337526243</v>
+        <v>0.0004027984129341665</v>
       </c>
       <c r="C115">
-        <v>0.0005554429694780145</v>
+        <v>0.0004207650073944248</v>
       </c>
       <c r="D115">
-        <v>4.922121477351448e-06</v>
+        <v>4.561555430719344e-06</v>
       </c>
       <c r="E115">
-        <v>0.0004515431653487979</v>
+        <v>0.0003257406448395911</v>
       </c>
       <c r="F115">
-        <v>0.0001647011678515967</v>
+        <v>0.0001334322574695126</v>
       </c>
       <c r="G115">
-        <v>7.062643940335077e-07</v>
+        <v>5.33685967633783e-07</v>
       </c>
       <c r="H115">
-        <v>0.002004882920748608</v>
+        <v>0.001441104157321542</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0004950800918930786</v>
+        <v>0.0004041631467850352</v>
       </c>
       <c r="C116">
-        <v>0.0004038007988116416</v>
+        <v>0.0004838635633816738</v>
       </c>
       <c r="D116">
-        <v>4.323311587767424e-06</v>
+        <v>5.1721172318804e-06</v>
       </c>
       <c r="E116">
-        <v>0.0003552913397729447</v>
+        <v>0.0003768651199689624</v>
       </c>
       <c r="F116">
-        <v>0.0001517536948999683</v>
+        <v>0.0001675295012649829</v>
       </c>
       <c r="G116">
-        <v>6.870201728585583e-07</v>
+        <v>6.392731613004534e-07</v>
       </c>
       <c r="H116">
-        <v>0.001626782103341835</v>
+        <v>0.001858576394114057</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0004202227705205606</v>
+        <v>0.0004724687467862964</v>
       </c>
       <c r="C117">
-        <v>0.0005979304858351227</v>
+        <v>0.0005047188253703925</v>
       </c>
       <c r="D117">
-        <v>4.52660905838533e-06</v>
+        <v>5.311313122483714e-06</v>
       </c>
       <c r="E117">
-        <v>0.0003265275443779433</v>
+        <v>0.000422644374991337</v>
       </c>
       <c r="F117">
-        <v>0.0001440079249352414</v>
+        <v>0.0001662582207671915</v>
       </c>
       <c r="G117">
-        <v>5.722018783046858e-07</v>
+        <v>7.125726222207903e-07</v>
       </c>
       <c r="H117">
-        <v>0.001595617710487097</v>
+        <v>0.001725307172205063</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004389097794474801</v>
+        <v>0.0004946169500123771</v>
       </c>
       <c r="C118">
-        <v>0.0003782532355005898</v>
+        <v>0.0004615728039319853</v>
       </c>
       <c r="D118">
-        <v>4.696292916830228e-06</v>
+        <v>6.40973003880187e-06</v>
       </c>
       <c r="E118">
-        <v>0.000293765828513888</v>
+        <v>0.0004101732958917096</v>
       </c>
       <c r="F118">
-        <v>0.0001799244600307163</v>
+        <v>0.0001511111971457525</v>
       </c>
       <c r="G118">
-        <v>4.26200651199099e-07</v>
+        <v>5.780701303457615e-07</v>
       </c>
       <c r="H118">
-        <v>0.002043459170297287</v>
+        <v>0.001823625437102091</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0005359245702251681</v>
+        <v>0.0005228765240872447</v>
       </c>
       <c r="C119">
-        <v>0.000511412635990592</v>
+        <v>0.0004126307812724622</v>
       </c>
       <c r="D119">
-        <v>4.772400105596259e-06</v>
+        <v>4.060406576502495e-06</v>
       </c>
       <c r="E119">
-        <v>0.0003939159810300282</v>
+        <v>0.0002942866463379774</v>
       </c>
       <c r="F119">
-        <v>0.000212778898192971</v>
+        <v>0.000173950691311731</v>
       </c>
       <c r="G119">
-        <v>7.334270425747802e-07</v>
+        <v>6.588671894663155e-07</v>
       </c>
       <c r="H119">
-        <v>0.002254277998547664</v>
+        <v>0.001958186963961831</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004476376556305828</v>
+        <v>0.0004771791923392143</v>
       </c>
       <c r="C120">
-        <v>0.0006635972573761404</v>
+        <v>0.0005397441207745405</v>
       </c>
       <c r="D120">
-        <v>5.54883292231692e-06</v>
+        <v>5.045587958368124e-06</v>
       </c>
       <c r="E120">
-        <v>0.0004353795468127452</v>
+        <v>0.0002880608405568137</v>
       </c>
       <c r="F120">
-        <v>0.0001601516114235881</v>
+        <v>0.0001715611154615473</v>
       </c>
       <c r="G120">
-        <v>6.513105187018729e-07</v>
+        <v>6.042417009798896e-07</v>
       </c>
       <c r="H120">
-        <v>0.001894671536816716</v>
+        <v>0.001978477315623375</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0006094679262308575</v>
+        <v>0.000407148785869516</v>
       </c>
       <c r="C121">
-        <v>0.0008204657317658604</v>
+        <v>0.0005464621965785036</v>
       </c>
       <c r="D121">
-        <v>6.109325678507993e-06</v>
+        <v>4.997061864866867e-06</v>
       </c>
       <c r="E121">
-        <v>0.0003673062111489993</v>
+        <v>0.0005081488010560319</v>
       </c>
       <c r="F121">
-        <v>0.0001876941123054058</v>
+        <v>0.0001353871044570852</v>
       </c>
       <c r="G121">
-        <v>5.758665124310546e-07</v>
+        <v>4.6873986724311e-07</v>
       </c>
       <c r="H121">
-        <v>0.002143258301846356</v>
+        <v>0.001314000653525833</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_bse.xlsx
+++ b/FOMC1_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004584306812678286</v>
+        <v>0.006598627813926427</v>
       </c>
       <c r="C2">
-        <v>0.0007453611384166696</v>
+        <v>0.003877996505535535</v>
       </c>
       <c r="D2">
-        <v>3.601799477657799e-06</v>
+        <v>5.3937134934465e-05</v>
       </c>
       <c r="E2">
-        <v>0.0003606115335966238</v>
+        <v>0.003488863352990481</v>
       </c>
       <c r="F2">
-        <v>0.0001588352674506466</v>
+        <v>0.001528304686323664</v>
       </c>
       <c r="G2">
-        <v>6.496152950080003e-07</v>
+        <v>2.778739160693653e-06</v>
       </c>
       <c r="H2">
-        <v>0.001878767630491592</v>
+        <v>0.01640802561092625</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0004602316620969922</v>
+        <v>0.009322946936949543</v>
       </c>
       <c r="C3">
-        <v>0.0005830335558639192</v>
+        <v>0.0064001101109265</v>
       </c>
       <c r="D3">
-        <v>5.903307972425549e-06</v>
+        <v>7.320165137843136e-05</v>
       </c>
       <c r="E3">
-        <v>0.0002977364463293697</v>
+        <v>0.003834196372029334</v>
       </c>
       <c r="F3">
-        <v>0.0001512398829429841</v>
+        <v>0.001628218739132079</v>
       </c>
       <c r="G3">
-        <v>6.110484385546463e-07</v>
+        <v>2.693303077122159e-06</v>
       </c>
       <c r="H3">
-        <v>0.001539167920767613</v>
+        <v>0.01842455521026725</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0004977728111447627</v>
+        <v>0.007118264972926673</v>
       </c>
       <c r="C4">
-        <v>0.0008391827703404089</v>
+        <v>0.004833934953371188</v>
       </c>
       <c r="D4">
-        <v>7.743644753054611e-06</v>
+        <v>6.36157036938391e-05</v>
       </c>
       <c r="E4">
-        <v>0.0004039226527836899</v>
+        <v>0.00313088998046874</v>
       </c>
       <c r="F4">
-        <v>0.0001120288449629615</v>
+        <v>0.001638923475819724</v>
       </c>
       <c r="G4">
-        <v>4.780222854971025e-07</v>
+        <v>2.615147760572868e-06</v>
       </c>
       <c r="H4">
-        <v>0.00114332042402652</v>
+        <v>0.0185237414752938</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004649358281501784</v>
+        <v>0.008067201392567594</v>
       </c>
       <c r="C5">
-        <v>0.0007031183897779323</v>
+        <v>0.005490822151255367</v>
       </c>
       <c r="D5">
-        <v>5.874883319832971e-06</v>
+        <v>8.429933491990937e-05</v>
       </c>
       <c r="E5">
-        <v>0.0003651121491717866</v>
+        <v>0.005504041496025222</v>
       </c>
       <c r="F5">
-        <v>0.0002222025231742086</v>
+        <v>0.0015857661754113</v>
       </c>
       <c r="G5">
-        <v>4.594940907489856e-07</v>
+        <v>2.187196333947552e-06</v>
       </c>
       <c r="H5">
-        <v>0.002348374710788982</v>
+        <v>0.01828987477585718</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0004490796340165827</v>
+        <v>0.007268740733079709</v>
       </c>
       <c r="C6">
-        <v>0.000448988353638087</v>
+        <v>0.006137553156708933</v>
       </c>
       <c r="D6">
-        <v>5.245709268451435e-06</v>
+        <v>6.885226550463696e-05</v>
       </c>
       <c r="E6">
-        <v>0.0003620338648280242</v>
+        <v>0.003612469396858488</v>
       </c>
       <c r="F6">
-        <v>0.0001445120257231271</v>
+        <v>0.0016935739569408</v>
       </c>
       <c r="G6">
-        <v>5.394090801900241e-07</v>
+        <v>2.375693541833269e-06</v>
       </c>
       <c r="H6">
-        <v>0.001557792560881087</v>
+        <v>0.01971596025899606</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004658393073929673</v>
+        <v>0.006405945819602593</v>
       </c>
       <c r="C7">
-        <v>0.000593052116961216</v>
+        <v>0.004868857706434322</v>
       </c>
       <c r="D7">
-        <v>4.448997427676146e-06</v>
+        <v>6.139632916144347e-05</v>
       </c>
       <c r="E7">
-        <v>0.0003705323774591257</v>
+        <v>0.003345979704697023</v>
       </c>
       <c r="F7">
-        <v>0.0001889271277151352</v>
+        <v>0.001507350362748218</v>
       </c>
       <c r="G7">
-        <v>6.167350655576593e-07</v>
+        <v>2.335666688401791e-06</v>
       </c>
       <c r="H7">
-        <v>0.002164841094048366</v>
+        <v>0.01682081169456934</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0003854379154984629</v>
+        <v>0.005676321930069526</v>
       </c>
       <c r="C8">
-        <v>0.0004387162921115578</v>
+        <v>0.005095019285593527</v>
       </c>
       <c r="D8">
-        <v>4.096567926928772e-06</v>
+        <v>6.564894424723373e-05</v>
       </c>
       <c r="E8">
-        <v>0.0003067583812969471</v>
+        <v>0.003567106907113196</v>
       </c>
       <c r="F8">
-        <v>0.0001254176245218871</v>
+        <v>0.001540176153685937</v>
       </c>
       <c r="G8">
-        <v>5.189044119074758e-07</v>
+        <v>2.568694907189377e-06</v>
       </c>
       <c r="H8">
-        <v>0.001612144325928802</v>
+        <v>0.01542986634920187</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003973041304425301</v>
+        <v>0.007041127685673809</v>
       </c>
       <c r="C9">
-        <v>0.0004043638278069232</v>
+        <v>0.004738669863752</v>
       </c>
       <c r="D9">
-        <v>4.409947405240877e-06</v>
+        <v>7.170329372164451e-05</v>
       </c>
       <c r="E9">
-        <v>0.000403714580234347</v>
+        <v>0.003726967327292638</v>
       </c>
       <c r="F9">
-        <v>0.0001264640861465681</v>
+        <v>0.001459897930673346</v>
       </c>
       <c r="G9">
-        <v>6.26526840885529e-07</v>
+        <v>2.405508714764885e-06</v>
       </c>
       <c r="H9">
-        <v>0.001531141003098299</v>
+        <v>0.01609926934311282</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0004363575582341993</v>
+        <v>0.007002811941816108</v>
       </c>
       <c r="C10">
-        <v>0.0004620916402119894</v>
+        <v>0.006413484274480179</v>
       </c>
       <c r="D10">
-        <v>5.276572982114781e-06</v>
+        <v>6.094482358405428e-05</v>
       </c>
       <c r="E10">
-        <v>0.0003444025347927136</v>
+        <v>0.004000304376732639</v>
       </c>
       <c r="F10">
-        <v>0.0001619084988991117</v>
+        <v>0.001534656057541524</v>
       </c>
       <c r="G10">
-        <v>5.04945663772531e-07</v>
+        <v>2.653872931646739e-06</v>
       </c>
       <c r="H10">
-        <v>0.001981976155696533</v>
+        <v>0.01763087386206696</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.000520622542587606</v>
+        <v>0.005944964944837702</v>
       </c>
       <c r="C11">
-        <v>0.0004189226537688858</v>
+        <v>0.004409401921073281</v>
       </c>
       <c r="D11">
-        <v>5.034611021053066e-06</v>
+        <v>7.322084487517435e-05</v>
       </c>
       <c r="E11">
-        <v>0.0003948334007599052</v>
+        <v>0.003166407309783084</v>
       </c>
       <c r="F11">
-        <v>0.00019489997941229</v>
+        <v>0.001467353203421037</v>
       </c>
       <c r="G11">
-        <v>8.978000468546844e-07</v>
+        <v>2.288808021620401e-06</v>
       </c>
       <c r="H11">
-        <v>0.002059357310304782</v>
+        <v>0.01523376664369352</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0004311779018706855</v>
+        <v>0.006678066226250736</v>
       </c>
       <c r="C12">
-        <v>0.000543713020289437</v>
+        <v>0.005248952536851651</v>
       </c>
       <c r="D12">
-        <v>5.496574587601893e-06</v>
+        <v>6.596991345612327e-05</v>
       </c>
       <c r="E12">
-        <v>0.000314029275702369</v>
+        <v>0.003426838541486912</v>
       </c>
       <c r="F12">
-        <v>0.0001753312261797778</v>
+        <v>0.001577298018177348</v>
       </c>
       <c r="G12">
-        <v>5.734814102645085e-07</v>
+        <v>2.567951754046156e-06</v>
       </c>
       <c r="H12">
-        <v>0.001842319986576628</v>
+        <v>0.01725709066540041</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0005675213625996992</v>
+        <v>0.006775015288467712</v>
       </c>
       <c r="C13">
-        <v>0.0003425609639099354</v>
+        <v>0.008222632455479328</v>
       </c>
       <c r="D13">
-        <v>4.207456404522276e-06</v>
+        <v>7.381795773692006e-05</v>
       </c>
       <c r="E13">
-        <v>0.000384124034714634</v>
+        <v>0.004300991044882534</v>
       </c>
       <c r="F13">
-        <v>0.0001618876931795362</v>
+        <v>0.001857329470015968</v>
       </c>
       <c r="G13">
-        <v>4.566341773409485e-07</v>
+        <v>3.072015402968732e-06</v>
       </c>
       <c r="H13">
-        <v>0.001768759284215335</v>
+        <v>0.02006696128080938</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0004253470235233859</v>
+        <v>0.00644658417225049</v>
       </c>
       <c r="C14">
-        <v>0.0004260758095636375</v>
+        <v>0.005847106838582116</v>
       </c>
       <c r="D14">
-        <v>5.50769365829119e-06</v>
+        <v>5.352383116044223e-05</v>
       </c>
       <c r="E14">
-        <v>0.0004200649127487343</v>
+        <v>0.003868849070934175</v>
       </c>
       <c r="F14">
-        <v>0.0001382000118800635</v>
+        <v>0.001625864198028569</v>
       </c>
       <c r="G14">
-        <v>6.013254753175884e-07</v>
+        <v>2.231084378632263e-06</v>
       </c>
       <c r="H14">
-        <v>0.001627887061655732</v>
+        <v>0.01874621468934483</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0004744233035406893</v>
+        <v>0.006919738643903232</v>
       </c>
       <c r="C15">
-        <v>0.0004315314381983089</v>
+        <v>0.005505635039152803</v>
       </c>
       <c r="D15">
-        <v>5.442965415664332e-06</v>
+        <v>6.117773927555264e-05</v>
       </c>
       <c r="E15">
-        <v>0.0003373318332645573</v>
+        <v>0.00324353604640957</v>
       </c>
       <c r="F15">
-        <v>0.0001616644894506785</v>
+        <v>0.001452286229856082</v>
       </c>
       <c r="G15">
-        <v>6.18304749720929e-07</v>
+        <v>1.943132622413498e-06</v>
       </c>
       <c r="H15">
-        <v>0.001667814148627263</v>
+        <v>0.01873867351390217</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0005822399528460855</v>
+        <v>0.00808864117696147</v>
       </c>
       <c r="C16">
-        <v>0.0006837794088664846</v>
+        <v>0.00528038304456941</v>
       </c>
       <c r="D16">
-        <v>5.002702538216806e-06</v>
+        <v>6.196115025966717e-05</v>
       </c>
       <c r="E16">
-        <v>0.0004001004421990944</v>
+        <v>0.003708849528272289</v>
       </c>
       <c r="F16">
-        <v>0.0002552424533020736</v>
+        <v>0.001657070976254443</v>
       </c>
       <c r="G16">
-        <v>1.068989161899359e-06</v>
+        <v>2.602060537911755e-06</v>
       </c>
       <c r="H16">
-        <v>0.002647969479401599</v>
+        <v>0.01974113738935731</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004249516064416896</v>
+        <v>0.005808086559523877</v>
       </c>
       <c r="C17">
-        <v>0.0005716365302429634</v>
+        <v>0.004680743689230209</v>
       </c>
       <c r="D17">
-        <v>4.889666923419936e-06</v>
+        <v>6.334574049718505e-05</v>
       </c>
       <c r="E17">
-        <v>0.0002684281293874045</v>
+        <v>0.003112701045037173</v>
       </c>
       <c r="F17">
-        <v>0.000127424064335088</v>
+        <v>0.001471920575907538</v>
       </c>
       <c r="G17">
-        <v>3.97977442901795e-07</v>
+        <v>2.174969525636597e-06</v>
       </c>
       <c r="H17">
-        <v>0.00136927590260386</v>
+        <v>0.01614787191559844</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003919871858797127</v>
+        <v>0.006742636317651514</v>
       </c>
       <c r="C18">
-        <v>0.001166683622805948</v>
+        <v>0.005266327428079542</v>
       </c>
       <c r="D18">
-        <v>5.200215831309953e-06</v>
+        <v>6.255903856415757e-05</v>
       </c>
       <c r="E18">
-        <v>0.0004278328343057571</v>
+        <v>0.003808964428268076</v>
       </c>
       <c r="F18">
-        <v>0.0001789606193301155</v>
+        <v>0.001494759262056104</v>
       </c>
       <c r="G18">
-        <v>5.646756477080072e-07</v>
+        <v>2.564563655526817e-06</v>
       </c>
       <c r="H18">
-        <v>0.001932754647558373</v>
+        <v>0.01579615409164995</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0004998194960634594</v>
+        <v>0.006601091672568453</v>
       </c>
       <c r="C19">
-        <v>0.0007628256454668736</v>
+        <v>0.004460913419710401</v>
       </c>
       <c r="D19">
-        <v>5.596511436713497e-06</v>
+        <v>6.259988170460507e-05</v>
       </c>
       <c r="E19">
-        <v>0.000353807687460722</v>
+        <v>0.003468423867020155</v>
       </c>
       <c r="F19">
-        <v>0.0001436496920649401</v>
+        <v>0.001653287429040827</v>
       </c>
       <c r="G19">
-        <v>5.253884278380065e-07</v>
+        <v>2.468775067061119e-06</v>
       </c>
       <c r="H19">
-        <v>0.001641805555300029</v>
+        <v>0.01849205935439131</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000439073422988207</v>
+        <v>0.006220774505646781</v>
       </c>
       <c r="C20">
-        <v>0.0005501714763502382</v>
+        <v>0.01275226743732971</v>
       </c>
       <c r="D20">
-        <v>4.352086691670335e-06</v>
+        <v>7.087878595235893e-05</v>
       </c>
       <c r="E20">
-        <v>0.0004146421710223583</v>
+        <v>0.004879350317430295</v>
       </c>
       <c r="F20">
-        <v>0.0001299031650605685</v>
+        <v>0.001637169235907554</v>
       </c>
       <c r="G20">
-        <v>6.39987149254477e-07</v>
+        <v>2.368008175714512e-06</v>
       </c>
       <c r="H20">
-        <v>0.001337279781078984</v>
+        <v>0.01719002698760183</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0004250009288484349</v>
+        <v>0.007626022807700364</v>
       </c>
       <c r="C21">
-        <v>0.00039372528211927</v>
+        <v>0.006250600695640186</v>
       </c>
       <c r="D21">
-        <v>5.299266558972027e-06</v>
+        <v>6.305415519730159e-05</v>
       </c>
       <c r="E21">
-        <v>0.0003714973052376755</v>
+        <v>0.003392922114493343</v>
       </c>
       <c r="F21">
-        <v>0.0001514802882880033</v>
+        <v>0.001733501339015731</v>
       </c>
       <c r="G21">
-        <v>5.24329996178752e-07</v>
+        <v>2.241158634802071e-06</v>
       </c>
       <c r="H21">
-        <v>0.001775365523162549</v>
+        <v>0.01977971108889265</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0004697098963472451</v>
+        <v>0.006855513548270586</v>
       </c>
       <c r="C22">
-        <v>0.0005970688674357538</v>
+        <v>0.004505012518409662</v>
       </c>
       <c r="D22">
-        <v>4.768290507818101e-06</v>
+        <v>6.023076413242985e-05</v>
       </c>
       <c r="E22">
-        <v>0.0003361591843402609</v>
+        <v>0.003883009827904575</v>
       </c>
       <c r="F22">
-        <v>0.0001502244765892164</v>
+        <v>0.001736355562945185</v>
       </c>
       <c r="G22">
-        <v>5.714505233589665e-07</v>
+        <v>3.137325450389668e-06</v>
       </c>
       <c r="H22">
-        <v>0.001625561381566282</v>
+        <v>0.01829711484515944</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003704603835412333</v>
+        <v>0.007097864325018914</v>
       </c>
       <c r="C23">
-        <v>0.0004520997815466961</v>
+        <v>0.004412343979989111</v>
       </c>
       <c r="D23">
-        <v>3.958144379207295e-06</v>
+        <v>7.52153431021791e-05</v>
       </c>
       <c r="E23">
-        <v>0.0003699954835974817</v>
+        <v>0.003706632994364059</v>
       </c>
       <c r="F23">
-        <v>0.0001460183277981508</v>
+        <v>0.001584041416265937</v>
       </c>
       <c r="G23">
-        <v>4.652649523661742e-07</v>
+        <v>2.695647686893602e-06</v>
       </c>
       <c r="H23">
-        <v>0.0016762905345485</v>
+        <v>0.01646269645685316</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0004891704076033734</v>
+        <v>0.008708220934678677</v>
       </c>
       <c r="C24">
-        <v>0.0003552987912105793</v>
+        <v>0.005923651001529981</v>
       </c>
       <c r="D24">
-        <v>4.124048835501096e-06</v>
+        <v>6.326031313580606e-05</v>
       </c>
       <c r="E24">
-        <v>0.0002987737313183167</v>
+        <v>0.004613413378012723</v>
       </c>
       <c r="F24">
-        <v>0.0001555065997894831</v>
+        <v>0.001586688026078141</v>
       </c>
       <c r="G24">
-        <v>6.412315599274924e-07</v>
+        <v>2.7871544065083e-06</v>
       </c>
       <c r="H24">
-        <v>0.001689055527283375</v>
+        <v>0.01808884575166774</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0004140389188963074</v>
+        <v>0.006396037957056814</v>
       </c>
       <c r="C25">
-        <v>0.0003306420596464281</v>
+        <v>0.00518810848331116</v>
       </c>
       <c r="D25">
-        <v>4.662047837200564e-06</v>
+        <v>6.429017750365504e-05</v>
       </c>
       <c r="E25">
-        <v>0.0002951336536012815</v>
+        <v>0.003254465789853041</v>
       </c>
       <c r="F25">
-        <v>0.0001119642134873412</v>
+        <v>0.001418538995544199</v>
       </c>
       <c r="G25">
-        <v>4.827315937165553e-07</v>
+        <v>2.346368426859994e-06</v>
       </c>
       <c r="H25">
-        <v>0.001269242280526751</v>
+        <v>0.01579155299092889</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0005001794082115365</v>
+        <v>0.007076236445484481</v>
       </c>
       <c r="C26">
-        <v>0.0005764203235045327</v>
+        <v>0.005048219384468389</v>
       </c>
       <c r="D26">
-        <v>4.517832894921769e-06</v>
+        <v>6.08029187650978e-05</v>
       </c>
       <c r="E26">
-        <v>0.0003537007355264587</v>
+        <v>0.00313397108440972</v>
       </c>
       <c r="F26">
-        <v>0.0001592640888508069</v>
+        <v>0.001593192822055468</v>
       </c>
       <c r="G26">
-        <v>5.738326572710582e-07</v>
+        <v>2.468824404562564e-06</v>
       </c>
       <c r="H26">
-        <v>0.001714355412751286</v>
+        <v>0.01772593651920305</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0004602419260638791</v>
+        <v>0.007470903768964923</v>
       </c>
       <c r="C27">
-        <v>0.0005883703852740322</v>
+        <v>0.005339207664550817</v>
       </c>
       <c r="D27">
-        <v>3.879238566540062e-06</v>
+        <v>5.729701828656795e-05</v>
       </c>
       <c r="E27">
-        <v>0.000292822399976626</v>
+        <v>0.003723743436859817</v>
       </c>
       <c r="F27">
-        <v>0.0001222006982904115</v>
+        <v>0.001642558834134377</v>
       </c>
       <c r="G27">
-        <v>5.042740835719952e-07</v>
+        <v>2.831450426772739e-06</v>
       </c>
       <c r="H27">
-        <v>0.001500052335310131</v>
+        <v>0.01863717756802747</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0005178192138800496</v>
+        <v>0.007739067380536753</v>
       </c>
       <c r="C28">
-        <v>0.0006152939610744316</v>
+        <v>0.004869582699993435</v>
       </c>
       <c r="D28">
-        <v>4.902967165256604e-06</v>
+        <v>6.61439298458809e-05</v>
       </c>
       <c r="E28">
-        <v>0.0003293557973404883</v>
+        <v>0.003703016405711951</v>
       </c>
       <c r="F28">
-        <v>0.0001654859371223645</v>
+        <v>0.001691654464380077</v>
       </c>
       <c r="G28">
-        <v>4.371499115056406e-07</v>
+        <v>2.745418266229265e-06</v>
       </c>
       <c r="H28">
-        <v>0.001963458436884294</v>
+        <v>0.01852858808642712</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.000375519989893701</v>
+        <v>0.006211261118673294</v>
       </c>
       <c r="C29">
-        <v>0.0004271016605090632</v>
+        <v>0.004787757918540174</v>
       </c>
       <c r="D29">
-        <v>5.34865496465458e-06</v>
+        <v>5.718121692949249e-05</v>
       </c>
       <c r="E29">
-        <v>0.0003203302340827016</v>
+        <v>0.003046429781311208</v>
       </c>
       <c r="F29">
-        <v>0.0001916971656565408</v>
+        <v>0.001542589117534346</v>
       </c>
       <c r="G29">
-        <v>4.191563962620785e-07</v>
+        <v>2.462497928556546e-06</v>
       </c>
       <c r="H29">
-        <v>0.002201204010857001</v>
+        <v>0.01708897709414916</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004521779471181519</v>
+        <v>0.006245361766451894</v>
       </c>
       <c r="C30">
-        <v>0.0007990543274336715</v>
+        <v>0.005559178717289947</v>
       </c>
       <c r="D30">
-        <v>5.290235144228539e-06</v>
+        <v>7.195949518982706e-05</v>
       </c>
       <c r="E30">
-        <v>0.0003156449169118358</v>
+        <v>0.003670918708845829</v>
       </c>
       <c r="F30">
-        <v>0.0001584527379804501</v>
+        <v>0.001406217424182136</v>
       </c>
       <c r="G30">
-        <v>4.417527623839792e-07</v>
+        <v>2.299596251512571e-06</v>
       </c>
       <c r="H30">
-        <v>0.001795524544212995</v>
+        <v>0.01514456477171922</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0004468692233816904</v>
+        <v>0.007613866753241585</v>
       </c>
       <c r="C31">
-        <v>0.000492905234663112</v>
+        <v>0.007360486630758568</v>
       </c>
       <c r="D31">
-        <v>5.679578749690389e-06</v>
+        <v>6.164450673186877e-05</v>
       </c>
       <c r="E31">
-        <v>0.0003842281249073933</v>
+        <v>0.003938600767602681</v>
       </c>
       <c r="F31">
-        <v>0.0001569795080825558</v>
+        <v>0.001777874068396953</v>
       </c>
       <c r="G31">
-        <v>4.40539444902438e-07</v>
+        <v>2.657649676694689e-06</v>
       </c>
       <c r="H31">
-        <v>0.001911545008133366</v>
+        <v>0.02028627391076841</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.000474704529246345</v>
+        <v>0.007083147021626596</v>
       </c>
       <c r="C32">
-        <v>0.0005875505908807365</v>
+        <v>0.005411822491201511</v>
       </c>
       <c r="D32">
-        <v>6.568405351953423e-06</v>
+        <v>6.753413922331581e-05</v>
       </c>
       <c r="E32">
-        <v>0.0004195008005605518</v>
+        <v>0.003973791596140541</v>
       </c>
       <c r="F32">
-        <v>0.0001450384471217292</v>
+        <v>0.001534596838805665</v>
       </c>
       <c r="G32">
-        <v>6.181924094038865e-07</v>
+        <v>2.387488014156639e-06</v>
       </c>
       <c r="H32">
-        <v>0.001689227331341955</v>
+        <v>0.01604991779327344</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0005191409798589239</v>
+        <v>0.00606241382383437</v>
       </c>
       <c r="C33">
-        <v>0.000767819485356283</v>
+        <v>0.007432257854941613</v>
       </c>
       <c r="D33">
-        <v>5.424761835060324e-06</v>
+        <v>5.834685616320966e-05</v>
       </c>
       <c r="E33">
-        <v>0.0003193120759958462</v>
+        <v>0.003609747342699688</v>
       </c>
       <c r="F33">
-        <v>0.0001307019088875994</v>
+        <v>0.001625397089490505</v>
       </c>
       <c r="G33">
-        <v>5.340942937000828e-07</v>
+        <v>2.659911015651508e-06</v>
       </c>
       <c r="H33">
-        <v>0.001444945030908068</v>
+        <v>0.01655008901635933</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0005369398566328012</v>
+        <v>0.005568902242959925</v>
       </c>
       <c r="C34">
-        <v>0.0003504091316888854</v>
+        <v>0.004693770959790787</v>
       </c>
       <c r="D34">
-        <v>4.657286013296314e-06</v>
+        <v>6.403820710319948e-05</v>
       </c>
       <c r="E34">
-        <v>0.000344508753055067</v>
+        <v>0.0031751863134045</v>
       </c>
       <c r="F34">
-        <v>0.0001560739824870935</v>
+        <v>0.001360074390761674</v>
       </c>
       <c r="G34">
-        <v>5.075204582431318e-07</v>
+        <v>2.037197644768211e-06</v>
       </c>
       <c r="H34">
-        <v>0.001918218687048842</v>
+        <v>0.01492403121958798</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0003612684995887925</v>
+        <v>0.007357740247345924</v>
       </c>
       <c r="C35">
-        <v>0.0003118348330261772</v>
+        <v>0.004317690951115822</v>
       </c>
       <c r="D35">
-        <v>4.043495298713494e-06</v>
+        <v>6.744246657963925e-05</v>
       </c>
       <c r="E35">
-        <v>0.0003692018320697151</v>
+        <v>0.003481553496400743</v>
       </c>
       <c r="F35">
-        <v>0.0001385339664440797</v>
+        <v>0.001644254684328278</v>
       </c>
       <c r="G35">
-        <v>4.807960340455846e-07</v>
+        <v>2.50023408857236e-06</v>
       </c>
       <c r="H35">
-        <v>0.001461668728984082</v>
+        <v>0.01825724071150686</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0005181790494510126</v>
+        <v>0.006478888344574412</v>
       </c>
       <c r="C36">
-        <v>0.0005214310393953815</v>
+        <v>0.006285098889358124</v>
       </c>
       <c r="D36">
-        <v>5.324659330697047e-06</v>
+        <v>5.819825879948397e-05</v>
       </c>
       <c r="E36">
-        <v>0.0004225717180609767</v>
+        <v>0.004425637103943542</v>
       </c>
       <c r="F36">
-        <v>0.0002369043858482699</v>
+        <v>0.001713952106916065</v>
       </c>
       <c r="G36">
-        <v>8.730556468091281e-07</v>
+        <v>2.862105474102389e-06</v>
       </c>
       <c r="H36">
-        <v>0.002350757793576126</v>
+        <v>0.01854763631530637</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0004625638267196526</v>
+        <v>0.005799247096555602</v>
       </c>
       <c r="C37">
-        <v>0.0004522943746551606</v>
+        <v>0.004315052029110756</v>
       </c>
       <c r="D37">
-        <v>4.745040157531817e-06</v>
+        <v>4.810279337219539e-05</v>
       </c>
       <c r="E37">
-        <v>0.000377690585909264</v>
+        <v>0.003072571991131067</v>
       </c>
       <c r="F37">
-        <v>0.0001343113437802216</v>
+        <v>0.001853000267322652</v>
       </c>
       <c r="G37">
-        <v>5.833307253058235e-07</v>
+        <v>3.105211023951264e-06</v>
       </c>
       <c r="H37">
-        <v>0.001662849823836866</v>
+        <v>0.01965200223795589</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0004488339962394349</v>
+        <v>0.006557480665729385</v>
       </c>
       <c r="C38">
-        <v>0.0006263573947758093</v>
+        <v>0.005966497962696628</v>
       </c>
       <c r="D38">
-        <v>5.980756566018636e-06</v>
+        <v>5.224563052108204e-05</v>
       </c>
       <c r="E38">
-        <v>0.0003946172422385671</v>
+        <v>0.003392886270336638</v>
       </c>
       <c r="F38">
-        <v>0.0001588542930644675</v>
+        <v>0.001569145966327028</v>
       </c>
       <c r="G38">
-        <v>5.852219502217648e-07</v>
+        <v>2.543069000877411e-06</v>
       </c>
       <c r="H38">
-        <v>0.001629214012294277</v>
+        <v>0.01730224354861146</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0003486815965853534</v>
+        <v>0.007999068383857531</v>
       </c>
       <c r="C39">
-        <v>0.0005653174352591669</v>
+        <v>0.004895368220164689</v>
       </c>
       <c r="D39">
-        <v>4.423440923860507e-06</v>
+        <v>7.96440851890627e-05</v>
       </c>
       <c r="E39">
-        <v>0.0003745290835367757</v>
+        <v>0.003920655434825706</v>
       </c>
       <c r="F39">
-        <v>0.0001414550627864193</v>
+        <v>0.001629178603406511</v>
       </c>
       <c r="G39">
-        <v>5.580959768592082e-07</v>
+        <v>2.583361774776979e-06</v>
       </c>
       <c r="H39">
-        <v>0.00149479102326523</v>
+        <v>0.0190721239069263</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0005571061386552312</v>
+        <v>0.005257846167422173</v>
       </c>
       <c r="C40">
-        <v>0.0005579757400255908</v>
+        <v>0.006168855468188292</v>
       </c>
       <c r="D40">
-        <v>6.128780481461964e-06</v>
+        <v>5.993423877464775e-05</v>
       </c>
       <c r="E40">
-        <v>0.0003748013821465801</v>
+        <v>0.002990139925416239</v>
       </c>
       <c r="F40">
-        <v>0.0001866143980126336</v>
+        <v>0.001307233168486027</v>
       </c>
       <c r="G40">
-        <v>5.475423363565161e-07</v>
+        <v>2.31001704144121e-06</v>
       </c>
       <c r="H40">
-        <v>0.00221688292310874</v>
+        <v>0.0140372442188852</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0005642252079848455</v>
+        <v>0.008584276914987407</v>
       </c>
       <c r="C41">
-        <v>0.0005422667788888369</v>
+        <v>0.005682950909476501</v>
       </c>
       <c r="D41">
-        <v>6.509559518137327e-06</v>
+        <v>6.787760813098265e-05</v>
       </c>
       <c r="E41">
-        <v>0.0003703563907826945</v>
+        <v>0.004450274999483269</v>
       </c>
       <c r="F41">
-        <v>0.00017127750311433</v>
+        <v>0.00158939135662838</v>
       </c>
       <c r="G41">
-        <v>5.037778099396796e-07</v>
+        <v>2.506396640176041e-06</v>
       </c>
       <c r="H41">
-        <v>0.001867579438424068</v>
+        <v>0.01868240425032123</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0004900198003944056</v>
+        <v>0.007207016830690294</v>
       </c>
       <c r="C42">
-        <v>0.0007593054584784277</v>
+        <v>0.005705317242084512</v>
       </c>
       <c r="D42">
-        <v>5.772481467315494e-06</v>
+        <v>5.860523370707246e-05</v>
       </c>
       <c r="E42">
-        <v>0.0003321329251131711</v>
+        <v>0.004362253777742681</v>
       </c>
       <c r="F42">
-        <v>0.0001571297011687908</v>
+        <v>0.001729998176711146</v>
       </c>
       <c r="G42">
-        <v>6.341844357434474e-07</v>
+        <v>2.791729020461972e-06</v>
       </c>
       <c r="H42">
-        <v>0.001623933650364747</v>
+        <v>0.01864551834445006</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.000414311726400956</v>
+        <v>0.006487922519527556</v>
       </c>
       <c r="C43">
-        <v>0.0005274217487966556</v>
+        <v>0.005130880477689261</v>
       </c>
       <c r="D43">
-        <v>5.575705696395991e-06</v>
+        <v>5.981102347500397e-05</v>
       </c>
       <c r="E43">
-        <v>0.000417996780622622</v>
+        <v>0.003278347003345101</v>
       </c>
       <c r="F43">
-        <v>0.0001518929401364857</v>
+        <v>0.001534876408474067</v>
       </c>
       <c r="G43">
-        <v>5.511375366576239e-07</v>
+        <v>2.602487126078917e-06</v>
       </c>
       <c r="H43">
-        <v>0.001712980666499665</v>
+        <v>0.01640807661299193</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.000470312422846236</v>
+        <v>0.007271771623906549</v>
       </c>
       <c r="C44">
-        <v>0.0005723655447193948</v>
+        <v>0.004505504683204373</v>
       </c>
       <c r="D44">
-        <v>4.783069713446366e-06</v>
+        <v>6.662842835946537e-05</v>
       </c>
       <c r="E44">
-        <v>0.0003897385389797696</v>
+        <v>0.003871627354301604</v>
       </c>
       <c r="F44">
-        <v>0.0001523944718394436</v>
+        <v>0.001570538678010946</v>
       </c>
       <c r="G44">
-        <v>5.9560585870496e-07</v>
+        <v>2.289966302724293e-06</v>
       </c>
       <c r="H44">
-        <v>0.001624788951144415</v>
+        <v>0.01721402799656972</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0003865931705414426</v>
+        <v>0.006190569144013266</v>
       </c>
       <c r="C45">
-        <v>0.0009622280325967637</v>
+        <v>0.007608132133116384</v>
       </c>
       <c r="D45">
-        <v>5.413562735821325e-06</v>
+        <v>8.313064829364811e-05</v>
       </c>
       <c r="E45">
-        <v>0.0003246703340854221</v>
+        <v>0.004020179876304788</v>
       </c>
       <c r="F45">
-        <v>0.0001278646069294889</v>
+        <v>0.001435675916717356</v>
       </c>
       <c r="G45">
-        <v>5.052899545468172e-07</v>
+        <v>2.421449948928657e-06</v>
       </c>
       <c r="H45">
-        <v>0.001440999094480535</v>
+        <v>0.01516078813066327</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0003151365011038439</v>
+        <v>0.007101178262841693</v>
       </c>
       <c r="C46">
-        <v>0.000446939321581393</v>
+        <v>0.004385382172069081</v>
       </c>
       <c r="D46">
-        <v>3.814050401771491e-06</v>
+        <v>6.675688215876106e-05</v>
       </c>
       <c r="E46">
-        <v>0.0003033734575003205</v>
+        <v>0.003129012624322459</v>
       </c>
       <c r="F46">
-        <v>0.000115324998391746</v>
+        <v>0.001755489974478339</v>
       </c>
       <c r="G46">
-        <v>3.804425116677524e-07</v>
+        <v>3.015256322208439e-06</v>
       </c>
       <c r="H46">
-        <v>0.001419974167902045</v>
+        <v>0.01958098172024488</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0004922714466249136</v>
+        <v>0.007065036622471754</v>
       </c>
       <c r="C47">
-        <v>0.0008406978565870377</v>
+        <v>0.005571761619958947</v>
       </c>
       <c r="D47">
-        <v>4.64410988248556e-06</v>
+        <v>7.000407125951572e-05</v>
       </c>
       <c r="E47">
-        <v>0.0003683517869282058</v>
+        <v>0.003886447865985293</v>
       </c>
       <c r="F47">
-        <v>0.0001510378886292248</v>
+        <v>0.00156922930617613</v>
       </c>
       <c r="G47">
-        <v>5.320459269185994e-07</v>
+        <v>2.599659733101384e-06</v>
       </c>
       <c r="H47">
-        <v>0.001520469114246474</v>
+        <v>0.01692763733180697</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0004407752282857974</v>
+        <v>0.007514065055150852</v>
       </c>
       <c r="C48">
-        <v>0.0008092184925381224</v>
+        <v>0.00475962608425535</v>
       </c>
       <c r="D48">
-        <v>6.324983528503404e-06</v>
+        <v>6.942048987237778e-05</v>
       </c>
       <c r="E48">
-        <v>0.0003466822902240312</v>
+        <v>0.004084583657486452</v>
       </c>
       <c r="F48">
-        <v>0.0001759159823422957</v>
+        <v>0.001591580891100075</v>
       </c>
       <c r="G48">
-        <v>5.829198002621618e-07</v>
+        <v>2.481992980860043e-06</v>
       </c>
       <c r="H48">
-        <v>0.00205894703812772</v>
+        <v>0.01808337342984878</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0005563223267239933</v>
+        <v>0.01218559991834068</v>
       </c>
       <c r="C49">
-        <v>0.000445550418514187</v>
+        <v>0.005329879517643832</v>
       </c>
       <c r="D49">
-        <v>4.648523019459353e-06</v>
+        <v>6.728659995967473e-05</v>
       </c>
       <c r="E49">
-        <v>0.000329180754384593</v>
+        <v>0.004857976542506702</v>
       </c>
       <c r="F49">
-        <v>0.0001630053716079285</v>
+        <v>0.001935643454478484</v>
       </c>
       <c r="G49">
-        <v>4.507995795658893e-07</v>
+        <v>7.917762987811322e-06</v>
       </c>
       <c r="H49">
-        <v>0.001798111197770245</v>
+        <v>0.02107087581567014</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0004112874263548252</v>
+        <v>0.006630444531873675</v>
       </c>
       <c r="C50">
-        <v>0.000529771282958258</v>
+        <v>0.005162134812369424</v>
       </c>
       <c r="D50">
-        <v>5.246312420419503e-06</v>
+        <v>7.744258552936261e-05</v>
       </c>
       <c r="E50">
-        <v>0.0002901418258735436</v>
+        <v>0.003052237962733767</v>
       </c>
       <c r="F50">
-        <v>0.0001180733322128241</v>
+        <v>0.001602899526406107</v>
       </c>
       <c r="G50">
-        <v>4.61014256535732e-07</v>
+        <v>2.651770823935734e-06</v>
       </c>
       <c r="H50">
-        <v>0.001257872043583131</v>
+        <v>0.01811599305023153</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0005025882202534775</v>
+        <v>0.006702975991447859</v>
       </c>
       <c r="C51">
-        <v>0.0005974243749937929</v>
+        <v>0.005426485484627935</v>
       </c>
       <c r="D51">
-        <v>4.569097286030428e-06</v>
+        <v>5.972650736894883e-05</v>
       </c>
       <c r="E51">
-        <v>0.0003288567079180718</v>
+        <v>0.003471524607473756</v>
       </c>
       <c r="F51">
-        <v>0.0001547640442932289</v>
+        <v>0.001818738946496014</v>
       </c>
       <c r="G51">
-        <v>4.789193031296676e-07</v>
+        <v>2.931771750136725e-06</v>
       </c>
       <c r="H51">
-        <v>0.001786170449301971</v>
+        <v>0.01990922519129997</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0004311956013892845</v>
+        <v>0.007114195437340132</v>
       </c>
       <c r="C52">
-        <v>0.0009516186625469617</v>
+        <v>0.005216434957635158</v>
       </c>
       <c r="D52">
-        <v>5.043606539226971e-06</v>
+        <v>7.425855544716846e-05</v>
       </c>
       <c r="E52">
-        <v>0.0003313448762319931</v>
+        <v>0.003460342318850336</v>
       </c>
       <c r="F52">
-        <v>0.0001804098176631764</v>
+        <v>0.001803814185668604</v>
       </c>
       <c r="G52">
-        <v>5.76396619410141e-07</v>
+        <v>2.62714620499932e-06</v>
       </c>
       <c r="H52">
-        <v>0.002058681372253766</v>
+        <v>0.02086508670864159</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0004527697054264578</v>
+        <v>0.007876673175107089</v>
       </c>
       <c r="C53">
-        <v>0.0007110956490566404</v>
+        <v>0.005045702774384455</v>
       </c>
       <c r="D53">
-        <v>5.543392003249345e-06</v>
+        <v>5.61975088764884e-05</v>
       </c>
       <c r="E53">
-        <v>0.0003538530425252114</v>
+        <v>0.004022667201729083</v>
       </c>
       <c r="F53">
-        <v>0.0001433198848836399</v>
+        <v>0.001842786072667841</v>
       </c>
       <c r="G53">
-        <v>6.025272964774901e-07</v>
+        <v>2.923192440511913e-06</v>
       </c>
       <c r="H53">
-        <v>0.001677731266086899</v>
+        <v>0.02109675800175666</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0004629475223486102</v>
+        <v>0.005732424832246321</v>
       </c>
       <c r="C54">
-        <v>0.0004534964107215853</v>
+        <v>0.004487390015650886</v>
       </c>
       <c r="D54">
-        <v>4.666501049210186e-06</v>
+        <v>5.153025888013809e-05</v>
       </c>
       <c r="E54">
-        <v>0.0003903934408428911</v>
+        <v>0.003151152982276787</v>
       </c>
       <c r="F54">
-        <v>0.0001618130256039626</v>
+        <v>0.001271027838997191</v>
       </c>
       <c r="G54">
-        <v>6.134399714452574e-07</v>
+        <v>2.131963244745936e-06</v>
       </c>
       <c r="H54">
-        <v>0.001910923195397351</v>
+        <v>0.01533821333078384</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0004335512691216046</v>
+        <v>0.006977225810534471</v>
       </c>
       <c r="C55">
-        <v>0.0005426855433500944</v>
+        <v>0.005209275935208764</v>
       </c>
       <c r="D55">
-        <v>4.222714009066062e-06</v>
+        <v>6.040145433239832e-05</v>
       </c>
       <c r="E55">
-        <v>0.0003761333472297486</v>
+        <v>0.003564898015403354</v>
       </c>
       <c r="F55">
-        <v>0.0001440820798551025</v>
+        <v>0.001786342758486153</v>
       </c>
       <c r="G55">
-        <v>4.714246604323561e-07</v>
+        <v>3.351495604778694e-06</v>
       </c>
       <c r="H55">
-        <v>0.001644958976274724</v>
+        <v>0.01835212777121649</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0004961375482868354</v>
+        <v>0.006469681842026904</v>
       </c>
       <c r="C56">
-        <v>0.0004027816330424279</v>
+        <v>0.005866092581405087</v>
       </c>
       <c r="D56">
-        <v>5.052200392974099e-06</v>
+        <v>6.020336818613886e-05</v>
       </c>
       <c r="E56">
-        <v>0.0003547383011443329</v>
+        <v>0.003892970813676729</v>
       </c>
       <c r="F56">
-        <v>0.000149999414816942</v>
+        <v>0.001520355235774778</v>
       </c>
       <c r="G56">
-        <v>5.52518410786396e-07</v>
+        <v>2.056774199033118e-06</v>
       </c>
       <c r="H56">
-        <v>0.001683290966676619</v>
+        <v>0.01835684521779223</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0005187487894656478</v>
+        <v>0.006828669038607928</v>
       </c>
       <c r="C57">
-        <v>0.0005900325775782074</v>
+        <v>0.004616796922447711</v>
       </c>
       <c r="D57">
-        <v>5.319507969340162e-06</v>
+        <v>6.595718067952607e-05</v>
       </c>
       <c r="E57">
-        <v>0.0004350331189920949</v>
+        <v>0.003649652161052749</v>
       </c>
       <c r="F57">
-        <v>0.0001870393968306044</v>
+        <v>0.001627844952127305</v>
       </c>
       <c r="G57">
-        <v>6.372655190630282e-07</v>
+        <v>2.658268885351173e-06</v>
       </c>
       <c r="H57">
-        <v>0.002170997971284931</v>
+        <v>0.01741522522384265</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0004537598506558446</v>
+        <v>0.00553299659922534</v>
       </c>
       <c r="C58">
-        <v>0.0004853067643166996</v>
+        <v>0.005033766575786702</v>
       </c>
       <c r="D58">
-        <v>4.715024166447287e-06</v>
+        <v>5.934716570782109e-05</v>
       </c>
       <c r="E58">
-        <v>0.0004005949212221586</v>
+        <v>0.003288838213386725</v>
       </c>
       <c r="F58">
-        <v>0.0001453554852539791</v>
+        <v>0.001657015711474516</v>
       </c>
       <c r="G58">
-        <v>5.423450015237498e-07</v>
+        <v>2.737981251572082e-06</v>
       </c>
       <c r="H58">
-        <v>0.001736253521823225</v>
+        <v>0.01721446693654441</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0003592677207195472</v>
+        <v>0.007484752130217654</v>
       </c>
       <c r="C59">
-        <v>0.0005420586056614111</v>
+        <v>0.00532029096086683</v>
       </c>
       <c r="D59">
-        <v>5.1654513182791e-06</v>
+        <v>5.348856504757189e-05</v>
       </c>
       <c r="E59">
-        <v>0.0002626279813345465</v>
+        <v>0.004487190384391675</v>
       </c>
       <c r="F59">
-        <v>0.0001717834149168552</v>
+        <v>0.001904126362549884</v>
       </c>
       <c r="G59">
-        <v>4.468144338997783e-07</v>
+        <v>2.807275936957789e-06</v>
       </c>
       <c r="H59">
-        <v>0.001806722841830688</v>
+        <v>0.02250507844636165</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0005790314442754456</v>
+        <v>0.007597158422131753</v>
       </c>
       <c r="C60">
-        <v>0.0004790737520294587</v>
+        <v>0.00484745081991078</v>
       </c>
       <c r="D60">
-        <v>6.095609067150521e-06</v>
+        <v>6.199464619353022e-05</v>
       </c>
       <c r="E60">
-        <v>0.0004458117676648919</v>
+        <v>0.003372401575851719</v>
       </c>
       <c r="F60">
-        <v>0.0002164859946069558</v>
+        <v>0.001607165425685789</v>
       </c>
       <c r="G60">
-        <v>6.550867677386577e-07</v>
+        <v>2.720098381661838e-06</v>
       </c>
       <c r="H60">
-        <v>0.002380369746835342</v>
+        <v>0.01781188616349567</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0005059534860299315</v>
+        <v>0.00649231020017476</v>
       </c>
       <c r="C61">
-        <v>0.0006134167323341543</v>
+        <v>0.004651309530595978</v>
       </c>
       <c r="D61">
-        <v>5.880918613125991e-06</v>
+        <v>5.93935625779794e-05</v>
       </c>
       <c r="E61">
-        <v>0.0004181111241885128</v>
+        <v>0.003371742691065188</v>
       </c>
       <c r="F61">
-        <v>0.0001838892182600686</v>
+        <v>0.001415441181486409</v>
       </c>
       <c r="G61">
-        <v>6.530251627135531e-07</v>
+        <v>2.379605229297126e-06</v>
       </c>
       <c r="H61">
-        <v>0.001991532611497652</v>
+        <v>0.01624474872118348</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0003392340435233688</v>
+        <v>0.007349724145290578</v>
       </c>
       <c r="C62">
-        <v>0.0006225504817992593</v>
+        <v>0.006068394366393488</v>
       </c>
       <c r="D62">
-        <v>4.410720888755566e-06</v>
+        <v>5.919530381430438e-05</v>
       </c>
       <c r="E62">
-        <v>0.0003304383881044868</v>
+        <v>0.002973432774156608</v>
       </c>
       <c r="F62">
-        <v>0.0001421157540060974</v>
+        <v>0.001564546527604893</v>
       </c>
       <c r="G62">
-        <v>4.364745931247189e-07</v>
+        <v>2.562182439821475e-06</v>
       </c>
       <c r="H62">
-        <v>0.001605804475078263</v>
+        <v>0.01833517924148642</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.000410688987963029</v>
+        <v>0.008058894195513068</v>
       </c>
       <c r="C63">
-        <v>0.0006005796673913955</v>
+        <v>0.005334288441004058</v>
       </c>
       <c r="D63">
-        <v>4.278489948893731e-06</v>
+        <v>5.53862068688723e-05</v>
       </c>
       <c r="E63">
-        <v>0.0003020023410820126</v>
+        <v>0.005215114183975084</v>
       </c>
       <c r="F63">
-        <v>0.0001321258547749564</v>
+        <v>0.001613166831678034</v>
       </c>
       <c r="G63">
-        <v>3.609886164163494e-07</v>
+        <v>2.870247819349435e-06</v>
       </c>
       <c r="H63">
-        <v>0.001524476614327534</v>
+        <v>0.02113011716368897</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0003823285817732349</v>
+        <v>0.00671366467182723</v>
       </c>
       <c r="C64">
-        <v>0.0004221802992362773</v>
+        <v>0.006457652683942111</v>
       </c>
       <c r="D64">
-        <v>5.205466905039986e-06</v>
+        <v>8.153158215172906e-05</v>
       </c>
       <c r="E64">
-        <v>0.0003406016872937324</v>
+        <v>0.003503166554865961</v>
       </c>
       <c r="F64">
-        <v>0.0001524685307377124</v>
+        <v>0.001502389136358189</v>
       </c>
       <c r="G64">
-        <v>4.071906370349529e-07</v>
+        <v>2.42075830496031e-06</v>
       </c>
       <c r="H64">
-        <v>0.001920859328751427</v>
+        <v>0.01726609480787675</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0004132706562343275</v>
+        <v>0.008397593651383557</v>
       </c>
       <c r="C65">
-        <v>0.0003644055452777253</v>
+        <v>0.004481088135365009</v>
       </c>
       <c r="D65">
-        <v>4.599712409623586e-06</v>
+        <v>6.142226442408274e-05</v>
       </c>
       <c r="E65">
-        <v>0.0003398103772082814</v>
+        <v>0.004658142651660455</v>
       </c>
       <c r="F65">
-        <v>0.0001542556188375237</v>
+        <v>0.001522412099900389</v>
       </c>
       <c r="G65">
-        <v>5.43596079191012e-07</v>
+        <v>2.689410425763483e-06</v>
       </c>
       <c r="H65">
-        <v>0.001649025048008388</v>
+        <v>0.01693762541472594</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0003983162359252568</v>
+        <v>0.005705941237302352</v>
       </c>
       <c r="C66">
-        <v>0.001077222654581702</v>
+        <v>0.005436005706974067</v>
       </c>
       <c r="D66">
-        <v>4.312220806442227e-06</v>
+        <v>5.620841044192583e-05</v>
       </c>
       <c r="E66">
-        <v>0.0002843475558169713</v>
+        <v>0.003596717683160761</v>
       </c>
       <c r="F66">
-        <v>0.0001478668699173758</v>
+        <v>0.001338733542250932</v>
       </c>
       <c r="G66">
-        <v>5.345521453542941e-07</v>
+        <v>2.239439075835489e-06</v>
       </c>
       <c r="H66">
-        <v>0.001805666619524501</v>
+        <v>0.01377056384933092</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0004047749307100086</v>
+        <v>0.00546387072098457</v>
       </c>
       <c r="C67">
-        <v>0.000373565454477449</v>
+        <v>0.009536947423093085</v>
       </c>
       <c r="D67">
-        <v>4.442310730071443e-06</v>
+        <v>4.428096812476228e-05</v>
       </c>
       <c r="E67">
-        <v>0.0003638257339828833</v>
+        <v>0.004433440149447988</v>
       </c>
       <c r="F67">
-        <v>0.0001664010988285233</v>
+        <v>0.001573486626035931</v>
       </c>
       <c r="G67">
-        <v>5.770701311422911e-07</v>
+        <v>2.244135464466614e-06</v>
       </c>
       <c r="H67">
-        <v>0.001860795722132298</v>
+        <v>0.01726249565038644</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.00048337802067038</v>
+        <v>0.006560960633642383</v>
       </c>
       <c r="C68">
-        <v>0.001201179151995602</v>
+        <v>0.004390638846107406</v>
       </c>
       <c r="D68">
-        <v>6.209287010653825e-06</v>
+        <v>4.617328014879823e-05</v>
       </c>
       <c r="E68">
-        <v>0.000287690276210421</v>
+        <v>0.004516178977149576</v>
       </c>
       <c r="F68">
-        <v>0.00016139756904995</v>
+        <v>0.001556475702636486</v>
       </c>
       <c r="G68">
-        <v>5.674484682809073e-07</v>
+        <v>2.33975782860266e-06</v>
       </c>
       <c r="H68">
-        <v>0.001906638382100041</v>
+        <v>0.01852080992325497</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0005648399524920118</v>
+        <v>0.006760088678347128</v>
       </c>
       <c r="C69">
-        <v>0.0004614682915632635</v>
+        <v>0.004400875020385809</v>
       </c>
       <c r="D69">
-        <v>7.216396901876023e-06</v>
+        <v>7.172509068901521e-05</v>
       </c>
       <c r="E69">
-        <v>0.0004498412786561613</v>
+        <v>0.003569484733497529</v>
       </c>
       <c r="F69">
-        <v>0.0001552588891251939</v>
+        <v>0.00137895055971173</v>
       </c>
       <c r="G69">
-        <v>7.521681663069953e-07</v>
+        <v>2.416120793138529e-06</v>
       </c>
       <c r="H69">
-        <v>0.001906510009669119</v>
+        <v>0.0148596438315643</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0004215380194121785</v>
+        <v>0.006820121996687282</v>
       </c>
       <c r="C70">
-        <v>0.0003206700074032188</v>
+        <v>0.005117055132813232</v>
       </c>
       <c r="D70">
-        <v>4.557449942737399e-06</v>
+        <v>5.614441075283114e-05</v>
       </c>
       <c r="E70">
-        <v>0.0003814495919710789</v>
+        <v>0.004016124768260411</v>
       </c>
       <c r="F70">
-        <v>0.0001410516528329544</v>
+        <v>0.001598577202628533</v>
       </c>
       <c r="G70">
-        <v>4.854418903576125e-07</v>
+        <v>2.63962613815915e-06</v>
       </c>
       <c r="H70">
-        <v>0.001637688324201392</v>
+        <v>0.01868912048333492</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.000504618985818842</v>
+        <v>0.006959061865676693</v>
       </c>
       <c r="C71">
-        <v>0.0005869430728006941</v>
+        <v>0.006181615603296687</v>
       </c>
       <c r="D71">
-        <v>4.289782137730155e-06</v>
+        <v>4.986137238217529e-05</v>
       </c>
       <c r="E71">
-        <v>0.0003487803678535391</v>
+        <v>0.003866448991851886</v>
       </c>
       <c r="F71">
-        <v>0.0001682558703308825</v>
+        <v>0.001680134498240864</v>
       </c>
       <c r="G71">
-        <v>5.440756580947746e-07</v>
+        <v>2.441914496462157e-06</v>
       </c>
       <c r="H71">
-        <v>0.002153377736047884</v>
+        <v>0.01927622607619412</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0003985176245047274</v>
+        <v>0.00851882452447752</v>
       </c>
       <c r="C72">
-        <v>0.0007067288634314237</v>
+        <v>0.003963288819612358</v>
       </c>
       <c r="D72">
-        <v>4.731949004629965e-06</v>
+        <v>4.980880295940959e-05</v>
       </c>
       <c r="E72">
-        <v>0.0004168912378081471</v>
+        <v>0.004013033913195717</v>
       </c>
       <c r="F72">
-        <v>0.0001747215464368882</v>
+        <v>0.001670984694815799</v>
       </c>
       <c r="G72">
-        <v>6.320584226101889e-07</v>
+        <v>4.605696700114517e-06</v>
       </c>
       <c r="H72">
-        <v>0.00187191875296988</v>
+        <v>0.01844307029472019</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0004682344766696002</v>
+        <v>0.00864392843236159</v>
       </c>
       <c r="C73">
-        <v>0.000661219281085754</v>
+        <v>0.006161874041629057</v>
       </c>
       <c r="D73">
-        <v>5.967763723746843e-06</v>
+        <v>6.879418163255648e-05</v>
       </c>
       <c r="E73">
-        <v>0.0004125675565611248</v>
+        <v>0.003857951013347994</v>
       </c>
       <c r="F73">
-        <v>0.0001662078744400796</v>
+        <v>0.001515249028203149</v>
       </c>
       <c r="G73">
-        <v>5.900258441785706e-07</v>
+        <v>3.026278580811796e-06</v>
       </c>
       <c r="H73">
-        <v>0.002040790175919861</v>
+        <v>0.01844592336603649</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0003535632355573551</v>
+        <v>0.007289776927994866</v>
       </c>
       <c r="C74">
-        <v>0.0005144249155998931</v>
+        <v>0.005722882060830731</v>
       </c>
       <c r="D74">
-        <v>5.519524510042117e-06</v>
+        <v>6.184724299201252e-05</v>
       </c>
       <c r="E74">
-        <v>0.0003830250834749488</v>
+        <v>0.003407916186144866</v>
       </c>
       <c r="F74">
-        <v>0.0001624610044705109</v>
+        <v>0.001812746167095278</v>
       </c>
       <c r="G74">
-        <v>4.805275068935391e-07</v>
+        <v>3.308239397216921e-06</v>
       </c>
       <c r="H74">
-        <v>0.001686118867281864</v>
+        <v>0.02023340870034883</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0004145115626528958</v>
+        <v>0.006045755150590249</v>
       </c>
       <c r="C75">
-        <v>0.0007354487709334712</v>
+        <v>0.006886968467471897</v>
       </c>
       <c r="D75">
-        <v>4.477758101596686e-06</v>
+        <v>5.942011807729384e-05</v>
       </c>
       <c r="E75">
-        <v>0.0003291120738356063</v>
+        <v>0.003293143366265841</v>
       </c>
       <c r="F75">
-        <v>0.0001193038727185976</v>
+        <v>0.001539726043452342</v>
       </c>
       <c r="G75">
-        <v>5.138383555149127e-07</v>
+        <v>2.233627938774672e-06</v>
       </c>
       <c r="H75">
-        <v>0.001515093451444736</v>
+        <v>0.01736117506158497</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.000522996274008144</v>
+        <v>0.008493368442225344</v>
       </c>
       <c r="C76">
-        <v>0.0003954189049467287</v>
+        <v>0.005009895975447354</v>
       </c>
       <c r="D76">
-        <v>5.902989026994134e-06</v>
+        <v>7.6285548014428e-05</v>
       </c>
       <c r="E76">
-        <v>0.0003983969378798616</v>
+        <v>0.00338363773494996</v>
       </c>
       <c r="F76">
-        <v>0.0001607137872820795</v>
+        <v>0.002202050182032023</v>
       </c>
       <c r="G76">
-        <v>4.871113848313855e-07</v>
+        <v>3.481105332212004e-06</v>
       </c>
       <c r="H76">
-        <v>0.001822839868103411</v>
+        <v>0.02314229000857908</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0004655552183976898</v>
+        <v>0.00675278524015299</v>
       </c>
       <c r="C77">
-        <v>0.0005645697051076333</v>
+        <v>0.004880000430847682</v>
       </c>
       <c r="D77">
-        <v>4.537327105678919e-06</v>
+        <v>5.098298525481482e-05</v>
       </c>
       <c r="E77">
-        <v>0.000326438639262647</v>
+        <v>0.003883252831622501</v>
       </c>
       <c r="F77">
-        <v>0.000147557049767955</v>
+        <v>0.0015527430650491</v>
       </c>
       <c r="G77">
-        <v>4.958126248855492e-07</v>
+        <v>3.085431375716479e-06</v>
       </c>
       <c r="H77">
-        <v>0.001860266473509962</v>
+        <v>0.01726751208662927</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0004835333037424473</v>
+        <v>0.007833115308140126</v>
       </c>
       <c r="C78">
-        <v>0.0004067751790801319</v>
+        <v>0.006718457698258191</v>
       </c>
       <c r="D78">
-        <v>4.446517930656418e-06</v>
+        <v>6.036959991083842e-05</v>
       </c>
       <c r="E78">
-        <v>0.0004177757774368651</v>
+        <v>0.005206565554895065</v>
       </c>
       <c r="F78">
-        <v>0.0001584348142081795</v>
+        <v>0.001903372763951846</v>
       </c>
       <c r="G78">
-        <v>5.171498248726289e-07</v>
+        <v>3.297503093485144e-06</v>
       </c>
       <c r="H78">
-        <v>0.001779200072331589</v>
+        <v>0.0207238863754352</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0003675332608985368</v>
+        <v>0.007199861136624922</v>
       </c>
       <c r="C79">
-        <v>0.0004329926214814441</v>
+        <v>0.004822828876214259</v>
       </c>
       <c r="D79">
-        <v>3.645172926307336e-06</v>
+        <v>7.19562706168627e-05</v>
       </c>
       <c r="E79">
-        <v>0.0003378579262262007</v>
+        <v>0.003501865106088513</v>
       </c>
       <c r="F79">
-        <v>0.0001576178725192983</v>
+        <v>0.001391098619195431</v>
       </c>
       <c r="G79">
-        <v>4.925658231321267e-07</v>
+        <v>2.019008484036473e-06</v>
       </c>
       <c r="H79">
-        <v>0.001649737383607264</v>
+        <v>0.01612334554450237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0005099663320466306</v>
+        <v>0.007055403835613634</v>
       </c>
       <c r="C80">
-        <v>0.0005261765552787246</v>
+        <v>0.006829215825083402</v>
       </c>
       <c r="D80">
-        <v>6.03082550774553e-06</v>
+        <v>5.858959354469513e-05</v>
       </c>
       <c r="E80">
-        <v>0.0003976910109739679</v>
+        <v>0.003247960309130435</v>
       </c>
       <c r="F80">
-        <v>0.0001701107828022341</v>
+        <v>0.002227359167129981</v>
       </c>
       <c r="G80">
-        <v>6.175368831937066e-07</v>
+        <v>3.451660698837649e-06</v>
       </c>
       <c r="H80">
-        <v>0.001965699239795855</v>
+        <v>0.02350443984438422</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0004795630309177175</v>
+        <v>0.005820251326175244</v>
       </c>
       <c r="C81">
-        <v>0.0004834243805787268</v>
+        <v>0.00508020511641211</v>
       </c>
       <c r="D81">
-        <v>5.773046256378191e-06</v>
+        <v>6.778046838010356e-05</v>
       </c>
       <c r="E81">
-        <v>0.0004190136243429671</v>
+        <v>0.002968525035384588</v>
       </c>
       <c r="F81">
-        <v>0.0001783383836648882</v>
+        <v>0.001431765813326998</v>
       </c>
       <c r="G81">
-        <v>6.542800183356521e-07</v>
+        <v>2.384449766279267e-06</v>
       </c>
       <c r="H81">
-        <v>0.001828274291796568</v>
+        <v>0.01574065715971855</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0004936464479491581</v>
+        <v>0.006572939371993888</v>
       </c>
       <c r="C82">
-        <v>0.0008858841433643328</v>
+        <v>0.00351123151166257</v>
       </c>
       <c r="D82">
-        <v>8.536391601383886e-06</v>
+        <v>5.972876604835036e-05</v>
       </c>
       <c r="E82">
-        <v>0.000423827347828764</v>
+        <v>0.003300239308623305</v>
       </c>
       <c r="F82">
-        <v>0.0001471696029652331</v>
+        <v>0.001519953561804344</v>
       </c>
       <c r="G82">
-        <v>4.222766207616204e-07</v>
+        <v>2.249482134181459e-06</v>
       </c>
       <c r="H82">
-        <v>0.001510093168315923</v>
+        <v>0.01659394968942894</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.000432753111570369</v>
+        <v>0.006451030621910344</v>
       </c>
       <c r="C83">
-        <v>0.0004262439415754814</v>
+        <v>0.007286994245829679</v>
       </c>
       <c r="D83">
-        <v>4.228670116455886e-06</v>
+        <v>7.217975614560694e-05</v>
       </c>
       <c r="E83">
-        <v>0.0003777228211600774</v>
+        <v>0.003863106489959392</v>
       </c>
       <c r="F83">
-        <v>0.0001566646087412327</v>
+        <v>0.001663481567538973</v>
       </c>
       <c r="G83">
-        <v>5.168739786940906e-07</v>
+        <v>2.78794532315264e-06</v>
       </c>
       <c r="H83">
-        <v>0.001948420943281012</v>
+        <v>0.0174750476381876</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0005126701073776328</v>
+        <v>0.006527182544829108</v>
       </c>
       <c r="C84">
-        <v>0.000436770169012</v>
+        <v>0.004656851897466109</v>
       </c>
       <c r="D84">
-        <v>4.860531580207492e-06</v>
+        <v>7.77067376952912e-05</v>
       </c>
       <c r="E84">
-        <v>0.0003930744288803137</v>
+        <v>0.003779506593356589</v>
       </c>
       <c r="F84">
-        <v>0.0001774997676956815</v>
+        <v>0.001458337715358868</v>
       </c>
       <c r="G84">
-        <v>6.162017488988242e-07</v>
+        <v>2.378676931613301e-06</v>
       </c>
       <c r="H84">
-        <v>0.001934411838309737</v>
+        <v>0.01602731496734838</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0004099615262736334</v>
+        <v>0.00592060063319322</v>
       </c>
       <c r="C85">
-        <v>0.0006957983127640155</v>
+        <v>0.004655642221472845</v>
       </c>
       <c r="D85">
-        <v>4.948858466014397e-06</v>
+        <v>5.347101907578758e-05</v>
       </c>
       <c r="E85">
-        <v>0.0003072323682036497</v>
+        <v>0.003187324739084202</v>
       </c>
       <c r="F85">
-        <v>0.000154688152576105</v>
+        <v>0.001465618517289672</v>
       </c>
       <c r="G85">
-        <v>6.712592865972715e-07</v>
+        <v>2.153595635057068e-06</v>
       </c>
       <c r="H85">
-        <v>0.001599759698245694</v>
+        <v>0.01585781047509004</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.000540304434918415</v>
+        <v>0.007191525541910728</v>
       </c>
       <c r="C86">
-        <v>0.0005037804028395945</v>
+        <v>0.005903187856504768</v>
       </c>
       <c r="D86">
-        <v>5.82011249824638e-06</v>
+        <v>6.080479369394197e-05</v>
       </c>
       <c r="E86">
-        <v>0.0004225889683875781</v>
+        <v>0.003881192326874905</v>
       </c>
       <c r="F86">
-        <v>0.0002113947857990242</v>
+        <v>0.001851538350348037</v>
       </c>
       <c r="G86">
-        <v>6.005305428570444e-07</v>
+        <v>3.280268771681201e-06</v>
       </c>
       <c r="H86">
-        <v>0.002206705844994786</v>
+        <v>0.01944415921966859</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.000337166541600519</v>
+        <v>0.006334452943650663</v>
       </c>
       <c r="C87">
-        <v>0.0007804330747624508</v>
+        <v>0.004140615967998197</v>
       </c>
       <c r="D87">
-        <v>5.327992929725748e-06</v>
+        <v>5.848021492276929e-05</v>
       </c>
       <c r="E87">
-        <v>0.0002990097993388775</v>
+        <v>0.00319628054051272</v>
       </c>
       <c r="F87">
-        <v>0.0001271234432020442</v>
+        <v>0.001326903428121143</v>
       </c>
       <c r="G87">
-        <v>4.574114337142561e-07</v>
+        <v>2.445718214389359e-06</v>
       </c>
       <c r="H87">
-        <v>0.001243158252973414</v>
+        <v>0.0153671926753339</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0004471696216226012</v>
+        <v>0.005718448666035877</v>
       </c>
       <c r="C88">
-        <v>0.0004961701676105941</v>
+        <v>0.005494157381457357</v>
       </c>
       <c r="D88">
-        <v>5.188082385274702e-06</v>
+        <v>5.999340893919511e-05</v>
       </c>
       <c r="E88">
-        <v>0.0003645951796674823</v>
+        <v>0.00301781719403285</v>
       </c>
       <c r="F88">
-        <v>0.0001410701782341143</v>
+        <v>0.001464716306511431</v>
       </c>
       <c r="G88">
-        <v>5.679183092578717e-07</v>
+        <v>2.586039357558383e-06</v>
       </c>
       <c r="H88">
-        <v>0.001749029788761756</v>
+        <v>0.01590784673255196</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0004762465861443757</v>
+        <v>0.006659452567668837</v>
       </c>
       <c r="C89">
-        <v>0.0005958422902280263</v>
+        <v>0.005822042565237187</v>
       </c>
       <c r="D89">
-        <v>5.913646096341375e-06</v>
+        <v>5.997233529889172e-05</v>
       </c>
       <c r="E89">
-        <v>0.0003543244990338931</v>
+        <v>0.003478653679108751</v>
       </c>
       <c r="F89">
-        <v>0.0001755894042062896</v>
+        <v>0.002174824646581518</v>
       </c>
       <c r="G89">
-        <v>5.655826020186044e-07</v>
+        <v>3.68339213615605e-06</v>
       </c>
       <c r="H89">
-        <v>0.002206068996857176</v>
+        <v>0.02121487478380614</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004310598314579808</v>
+        <v>0.007114025659220497</v>
       </c>
       <c r="C90">
-        <v>0.0007995353883215832</v>
+        <v>0.006078689041967155</v>
       </c>
       <c r="D90">
-        <v>5.249110074922114e-06</v>
+        <v>5.810391422817444e-05</v>
       </c>
       <c r="E90">
-        <v>0.0003905807997092933</v>
+        <v>0.004019657560082311</v>
       </c>
       <c r="F90">
-        <v>0.0001604377971656712</v>
+        <v>0.001754251494885556</v>
       </c>
       <c r="G90">
-        <v>4.908598477224948e-07</v>
+        <v>2.824643462843366e-06</v>
       </c>
       <c r="H90">
-        <v>0.001857638978425741</v>
+        <v>0.01963403493900283</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0004345455677265378</v>
+        <v>0.005888075280754823</v>
       </c>
       <c r="C91">
-        <v>0.0004334872507647719</v>
+        <v>0.003404782736284978</v>
       </c>
       <c r="D91">
-        <v>5.28201570046697e-06</v>
+        <v>4.69630095770945e-05</v>
       </c>
       <c r="E91">
-        <v>0.0004573894860435541</v>
+        <v>0.003233364224873692</v>
       </c>
       <c r="F91">
-        <v>0.0001383238720841102</v>
+        <v>0.001230645279889738</v>
       </c>
       <c r="G91">
-        <v>4.690855120968629e-07</v>
+        <v>2.221970072381153e-06</v>
       </c>
       <c r="H91">
-        <v>0.001668018008211174</v>
+        <v>0.01370801806518659</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0004929580478397747</v>
+        <v>0.006603544810649594</v>
       </c>
       <c r="C92">
-        <v>0.0007713305412035416</v>
+        <v>0.004477465663775111</v>
       </c>
       <c r="D92">
-        <v>5.174523594822014e-06</v>
+        <v>6.850813305715107e-05</v>
       </c>
       <c r="E92">
-        <v>0.0003741819441832634</v>
+        <v>0.003212956320747056</v>
       </c>
       <c r="F92">
-        <v>0.0001420200736214285</v>
+        <v>0.00170502364930642</v>
       </c>
       <c r="G92">
-        <v>5.585135243552686e-07</v>
+        <v>2.631459353831062e-06</v>
       </c>
       <c r="H92">
-        <v>0.001644862366563288</v>
+        <v>0.01797746975714288</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0004118597963258512</v>
+        <v>0.009333610871674183</v>
       </c>
       <c r="C93">
-        <v>0.0005945356990335046</v>
+        <v>0.005154936817347585</v>
       </c>
       <c r="D93">
-        <v>4.696550766491097e-06</v>
+        <v>7.931399583846704e-05</v>
       </c>
       <c r="E93">
-        <v>0.0003601944841128885</v>
+        <v>0.004258558746557186</v>
       </c>
       <c r="F93">
-        <v>0.0001287699760389162</v>
+        <v>0.001753360111209153</v>
       </c>
       <c r="G93">
-        <v>4.877594073866137e-07</v>
+        <v>3.097489978765693e-06</v>
       </c>
       <c r="H93">
-        <v>0.001374958715939216</v>
+        <v>0.01940573293288305</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0004675755429770062</v>
+        <v>0.007533292346006341</v>
       </c>
       <c r="C94">
-        <v>0.0004865244739109817</v>
+        <v>0.005215912778807052</v>
       </c>
       <c r="D94">
-        <v>5.061565297504669e-06</v>
+        <v>6.991732014044887e-05</v>
       </c>
       <c r="E94">
-        <v>0.0003927668351104649</v>
+        <v>0.003816954922955789</v>
       </c>
       <c r="F94">
-        <v>0.0001768990494271715</v>
+        <v>0.001803378553911265</v>
       </c>
       <c r="G94">
-        <v>5.895528349805186e-07</v>
+        <v>2.84051870726945e-06</v>
       </c>
       <c r="H94">
-        <v>0.001948712167883383</v>
+        <v>0.01937378543694181</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.000440314067129247</v>
+        <v>0.006253105052240072</v>
       </c>
       <c r="C95">
-        <v>0.0006584422262789125</v>
+        <v>0.004445042218629732</v>
       </c>
       <c r="D95">
-        <v>5.703163792579637e-06</v>
+        <v>6.413300993512166e-05</v>
       </c>
       <c r="E95">
-        <v>0.0003695999231442171</v>
+        <v>0.003612276951129601</v>
       </c>
       <c r="F95">
-        <v>0.0001522170818034745</v>
+        <v>0.001510689308024127</v>
       </c>
       <c r="G95">
-        <v>5.879237727856384e-07</v>
+        <v>2.708914754958687e-06</v>
       </c>
       <c r="H95">
-        <v>0.001476543762348116</v>
+        <v>0.01652138389120042</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.000386676963460654</v>
+        <v>0.005577207513716973</v>
       </c>
       <c r="C96">
-        <v>0.000469143641318496</v>
+        <v>0.005172513333887521</v>
       </c>
       <c r="D96">
-        <v>4.023773793527933e-06</v>
+        <v>4.373737623599981e-05</v>
       </c>
       <c r="E96">
-        <v>0.0003495437770786193</v>
+        <v>0.002796053942495812</v>
       </c>
       <c r="F96">
-        <v>0.0001797205277589518</v>
+        <v>0.001391607313187378</v>
       </c>
       <c r="G96">
-        <v>5.230978618231623e-07</v>
+        <v>2.209289036514548e-06</v>
       </c>
       <c r="H96">
-        <v>0.001934039541318679</v>
+        <v>0.01525059045323078</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0004166122675381443</v>
+        <v>0.005212467648624733</v>
       </c>
       <c r="C97">
-        <v>0.0004715119002409589</v>
+        <v>0.003938845248751581</v>
       </c>
       <c r="D97">
-        <v>3.695638729725624e-06</v>
+        <v>5.344033775815091e-05</v>
       </c>
       <c r="E97">
-        <v>0.0003351395604991639</v>
+        <v>0.003055794023954823</v>
       </c>
       <c r="F97">
-        <v>0.0001079401254051314</v>
+        <v>0.001374567686510234</v>
       </c>
       <c r="G97">
-        <v>4.715150392892662e-07</v>
+        <v>2.295993357823754e-06</v>
       </c>
       <c r="H97">
-        <v>0.001326967974132903</v>
+        <v>0.01496075461082949</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0004351335603999012</v>
+        <v>0.007003190433808038</v>
       </c>
       <c r="C98">
-        <v>0.0005220315997708594</v>
+        <v>0.005042784649638104</v>
       </c>
       <c r="D98">
-        <v>4.868520962658719e-06</v>
+        <v>6.729615752519393e-05</v>
       </c>
       <c r="E98">
-        <v>0.000366428670246016</v>
+        <v>0.003851887934819585</v>
       </c>
       <c r="F98">
-        <v>0.0001593775927614425</v>
+        <v>0.001423481084774287</v>
       </c>
       <c r="G98">
-        <v>5.736090505912671e-07</v>
+        <v>2.288753800498073e-06</v>
       </c>
       <c r="H98">
-        <v>0.001729523286409887</v>
+        <v>0.01691787688519742</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0004217064752206056</v>
+        <v>0.008173360856752149</v>
       </c>
       <c r="C99">
-        <v>0.0005359834344439046</v>
+        <v>0.005856430936679892</v>
       </c>
       <c r="D99">
-        <v>6.775404996599975e-06</v>
+        <v>6.999626075981356e-05</v>
       </c>
       <c r="E99">
-        <v>0.0003099074824673245</v>
+        <v>0.003445044131029279</v>
       </c>
       <c r="F99">
-        <v>0.0001668897824569369</v>
+        <v>0.001884479735342359</v>
       </c>
       <c r="G99">
-        <v>6.04407267526902e-07</v>
+        <v>3.286916242494011e-06</v>
       </c>
       <c r="H99">
-        <v>0.001676004606994927</v>
+        <v>0.01983338533907313</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0003767658495333445</v>
+        <v>0.007748651416370021</v>
       </c>
       <c r="C100">
-        <v>0.0005270470886446926</v>
+        <v>0.005961002364241266</v>
       </c>
       <c r="D100">
-        <v>5.904024670129608e-06</v>
+        <v>6.801036225182161e-05</v>
       </c>
       <c r="E100">
-        <v>0.0003680920446047945</v>
+        <v>0.003362614322394012</v>
       </c>
       <c r="F100">
-        <v>0.0001391787817258929</v>
+        <v>0.001526432654442597</v>
       </c>
       <c r="G100">
-        <v>4.737566958774273e-07</v>
+        <v>2.67242840823422e-06</v>
       </c>
       <c r="H100">
-        <v>0.001578937596307153</v>
+        <v>0.0163907965168126</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0004826695553722992</v>
+        <v>0.006500749358811004</v>
       </c>
       <c r="C101">
-        <v>0.0006479409105551012</v>
+        <v>0.005321041792709879</v>
       </c>
       <c r="D101">
-        <v>4.746491436899585e-06</v>
+        <v>5.317978196667925e-05</v>
       </c>
       <c r="E101">
-        <v>0.0002899798630572495</v>
+        <v>0.003424051853819803</v>
       </c>
       <c r="F101">
-        <v>0.0001513580369090166</v>
+        <v>0.00154402925827547</v>
       </c>
       <c r="G101">
-        <v>5.243807136705544e-07</v>
+        <v>2.491351603412871e-06</v>
       </c>
       <c r="H101">
-        <v>0.001624772263935655</v>
+        <v>0.01691583107733601</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0004804040821244214</v>
+        <v>0.006023718594156227</v>
       </c>
       <c r="C102">
-        <v>0.0004586566364958578</v>
+        <v>0.003958008726840791</v>
       </c>
       <c r="D102">
-        <v>5.777351661290752e-06</v>
+        <v>4.85136563228428e-05</v>
       </c>
       <c r="E102">
-        <v>0.0002865519904422295</v>
+        <v>0.00342682652409963</v>
       </c>
       <c r="F102">
-        <v>0.0001871318538702912</v>
+        <v>0.001457490868247974</v>
       </c>
       <c r="G102">
-        <v>6.511184814180023e-07</v>
+        <v>2.188450536057046e-06</v>
       </c>
       <c r="H102">
-        <v>0.001999805985456586</v>
+        <v>0.01644880989496573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0006197378307147379</v>
+        <v>0.007413540153959217</v>
       </c>
       <c r="C103">
-        <v>0.0006270670544826435</v>
+        <v>0.004188369407590091</v>
       </c>
       <c r="D103">
-        <v>5.430282548852753e-06</v>
+        <v>6.036930177154967e-05</v>
       </c>
       <c r="E103">
-        <v>0.0003793274913193086</v>
+        <v>0.003753116767027855</v>
       </c>
       <c r="F103">
-        <v>0.000156718230291355</v>
+        <v>0.001609192060275172</v>
       </c>
       <c r="G103">
-        <v>6.064565857827904e-07</v>
+        <v>2.301773495916264e-06</v>
       </c>
       <c r="H103">
-        <v>0.001884100599977909</v>
+        <v>0.01829319072296688</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0005156695221050603</v>
+        <v>0.00653875488245362</v>
       </c>
       <c r="C104">
-        <v>0.0004721769780612648</v>
+        <v>0.007877620066584575</v>
       </c>
       <c r="D104">
-        <v>5.974716172122309e-06</v>
+        <v>5.711620770003997e-05</v>
       </c>
       <c r="E104">
-        <v>0.0002988252310282149</v>
+        <v>0.003969850597688108</v>
       </c>
       <c r="F104">
-        <v>0.0001377396827506941</v>
+        <v>0.002120870881782162</v>
       </c>
       <c r="G104">
-        <v>6.795110243746612e-07</v>
+        <v>3.258803755870548e-06</v>
       </c>
       <c r="H104">
-        <v>0.001527241646081304</v>
+        <v>0.02204568965449077</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0004377452345337518</v>
+        <v>0.007057263275671928</v>
       </c>
       <c r="C105">
-        <v>0.000395403573140643</v>
+        <v>0.005281859489740868</v>
       </c>
       <c r="D105">
-        <v>5.081589657954254e-06</v>
+        <v>7.653025523103322e-05</v>
       </c>
       <c r="E105">
-        <v>0.0005191910470126867</v>
+        <v>0.002915064135493443</v>
       </c>
       <c r="F105">
-        <v>0.0001741471162304067</v>
+        <v>0.001886098443629622</v>
       </c>
       <c r="G105">
-        <v>7.753584957651447e-07</v>
+        <v>3.391846188412408e-06</v>
       </c>
       <c r="H105">
-        <v>0.002042646660085931</v>
+        <v>0.02055279885699578</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0004384495037088918</v>
+        <v>0.006542381134477793</v>
       </c>
       <c r="C106">
-        <v>0.0005791313811114844</v>
+        <v>0.005765787465592326</v>
       </c>
       <c r="D106">
-        <v>6.127645260557166e-06</v>
+        <v>6.402139197893448e-05</v>
       </c>
       <c r="E106">
-        <v>0.0003348157810487785</v>
+        <v>0.003772757469515006</v>
       </c>
       <c r="F106">
-        <v>0.0001255986105939746</v>
+        <v>0.00186681958094211</v>
       </c>
       <c r="G106">
-        <v>5.547667910529043e-07</v>
+        <v>2.978431208411949e-06</v>
       </c>
       <c r="H106">
-        <v>0.001479805219675183</v>
+        <v>0.01956635910710216</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0003594479553012573</v>
+        <v>0.007261855109658388</v>
       </c>
       <c r="C107">
-        <v>0.0005103340082458043</v>
+        <v>0.006290986235449647</v>
       </c>
       <c r="D107">
-        <v>3.931022307701535e-06</v>
+        <v>5.840557486228856e-05</v>
       </c>
       <c r="E107">
-        <v>0.000340738545232224</v>
+        <v>0.004255970513333116</v>
       </c>
       <c r="F107">
-        <v>0.000139254091043171</v>
+        <v>0.001835736404241746</v>
       </c>
       <c r="G107">
-        <v>4.574871423634372e-07</v>
+        <v>2.527893706300993e-06</v>
       </c>
       <c r="H107">
-        <v>0.001523383458642044</v>
+        <v>0.02140232783696948</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.000471903471315001</v>
+        <v>0.007671091009056306</v>
       </c>
       <c r="C108">
-        <v>0.0004249635171283246</v>
+        <v>0.004908070645454056</v>
       </c>
       <c r="D108">
-        <v>4.958370261318657e-06</v>
+        <v>7.89337072424836e-05</v>
       </c>
       <c r="E108">
-        <v>0.0003492367272356255</v>
+        <v>0.003655542463633142</v>
       </c>
       <c r="F108">
-        <v>0.0001585948036888643</v>
+        <v>0.001496543978796923</v>
       </c>
       <c r="G108">
-        <v>5.044226673960665e-07</v>
+        <v>2.562391242284654e-06</v>
       </c>
       <c r="H108">
-        <v>0.001771591941048082</v>
+        <v>0.01792207435184808</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0004398276991875091</v>
+        <v>0.008100165910893201</v>
       </c>
       <c r="C109">
-        <v>0.0004467441996336525</v>
+        <v>0.005586215487217753</v>
       </c>
       <c r="D109">
-        <v>4.331595657749936e-06</v>
+        <v>7.930406988065118e-05</v>
       </c>
       <c r="E109">
-        <v>0.0003563175328541053</v>
+        <v>0.004412557205870702</v>
       </c>
       <c r="F109">
-        <v>0.0001683188469173098</v>
+        <v>0.001674035032240301</v>
       </c>
       <c r="G109">
-        <v>4.485338614298392e-07</v>
+        <v>2.604352802914799e-06</v>
       </c>
       <c r="H109">
-        <v>0.00185568166348161</v>
+        <v>0.0179781619161321</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004834752727425904</v>
+        <v>0.005535210369825022</v>
       </c>
       <c r="C110">
-        <v>0.00043104375801858</v>
+        <v>0.005617808904314008</v>
       </c>
       <c r="D110">
-        <v>5.792637920792623e-06</v>
+        <v>5.445324911835347e-05</v>
       </c>
       <c r="E110">
-        <v>0.000316477054154773</v>
+        <v>0.003446276953098017</v>
       </c>
       <c r="F110">
-        <v>0.0001600594373043779</v>
+        <v>0.001587160348872659</v>
       </c>
       <c r="G110">
-        <v>5.810225748242869e-07</v>
+        <v>2.755300899454535e-06</v>
       </c>
       <c r="H110">
-        <v>0.001639201321548382</v>
+        <v>0.0166939067471166</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0004412115020808121</v>
+        <v>0.009675714562069081</v>
       </c>
       <c r="C111">
-        <v>0.0008029432945366357</v>
+        <v>0.005738034118174896</v>
       </c>
       <c r="D111">
-        <v>4.623529339008188e-06</v>
+        <v>6.249142979514686e-05</v>
       </c>
       <c r="E111">
-        <v>0.0003118020390916544</v>
+        <v>0.005187386673168887</v>
       </c>
       <c r="F111">
-        <v>0.0001502284905257064</v>
+        <v>0.002220156168040783</v>
       </c>
       <c r="G111">
-        <v>5.044848688125391e-07</v>
+        <v>2.912912638264307e-06</v>
       </c>
       <c r="H111">
-        <v>0.001660870454360789</v>
+        <v>0.02617972878204501</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0005237356373052579</v>
+        <v>0.006232474408747</v>
       </c>
       <c r="C112">
-        <v>0.0004381303428982252</v>
+        <v>0.006006451614370483</v>
       </c>
       <c r="D112">
-        <v>5.359780846728059e-06</v>
+        <v>6.756945770068856e-05</v>
       </c>
       <c r="E112">
-        <v>0.0003543159357274458</v>
+        <v>0.003344084988276996</v>
       </c>
       <c r="F112">
-        <v>0.0001640156980968154</v>
+        <v>0.001842136932961328</v>
       </c>
       <c r="G112">
-        <v>5.855711580331342e-07</v>
+        <v>3.092085254165382e-06</v>
       </c>
       <c r="H112">
-        <v>0.001859247796508362</v>
+        <v>0.01955818988459675</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0003919102063853325</v>
+        <v>0.007163966743166919</v>
       </c>
       <c r="C113">
-        <v>0.0004543207797214349</v>
+        <v>0.005359393897630692</v>
       </c>
       <c r="D113">
-        <v>5.496762138502021e-06</v>
+        <v>5.936111915646827e-05</v>
       </c>
       <c r="E113">
-        <v>0.0003098445032279205</v>
+        <v>0.004067113462535736</v>
       </c>
       <c r="F113">
-        <v>0.0001542117281922946</v>
+        <v>0.001692565945101599</v>
       </c>
       <c r="G113">
-        <v>5.001325824305549e-07</v>
+        <v>2.752211346046799e-06</v>
       </c>
       <c r="H113">
-        <v>0.001607051201967568</v>
+        <v>0.01924816194099402</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0005662992406180797</v>
+        <v>0.007414579996830337</v>
       </c>
       <c r="C114">
-        <v>0.0003704328356758418</v>
+        <v>0.006073884525836877</v>
       </c>
       <c r="D114">
-        <v>4.963686863829214e-06</v>
+        <v>6.848113375812699e-05</v>
       </c>
       <c r="E114">
-        <v>0.0003149189945388548</v>
+        <v>0.00360446173295188</v>
       </c>
       <c r="F114">
-        <v>0.0001793092128762105</v>
+        <v>0.00186922114689677</v>
       </c>
       <c r="G114">
-        <v>5.666380882865299e-07</v>
+        <v>2.880920650609285e-06</v>
       </c>
       <c r="H114">
-        <v>0.002099215297192801</v>
+        <v>0.02028874473334652</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0004027984129341665</v>
+        <v>0.006300240438421538</v>
       </c>
       <c r="C115">
-        <v>0.0004207650073944248</v>
+        <v>0.005376971170822511</v>
       </c>
       <c r="D115">
-        <v>4.561555430719344e-06</v>
+        <v>6.578947373518573e-05</v>
       </c>
       <c r="E115">
-        <v>0.0003257406448395911</v>
+        <v>0.003127806369385185</v>
       </c>
       <c r="F115">
-        <v>0.0001334322574695126</v>
+        <v>0.002014776890290295</v>
       </c>
       <c r="G115">
-        <v>5.33685967633783e-07</v>
+        <v>3.276645075942772e-06</v>
       </c>
       <c r="H115">
-        <v>0.001441104157321542</v>
+        <v>0.02057512564340543</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0004041631467850352</v>
+        <v>0.007025610392662188</v>
       </c>
       <c r="C116">
-        <v>0.0004838635633816738</v>
+        <v>0.005299126744491399</v>
       </c>
       <c r="D116">
-        <v>5.1721172318804e-06</v>
+        <v>6.538280446189222e-05</v>
       </c>
       <c r="E116">
-        <v>0.0003768651199689624</v>
+        <v>0.003305042477581778</v>
       </c>
       <c r="F116">
-        <v>0.0001675295012649829</v>
+        <v>0.001557722940078761</v>
       </c>
       <c r="G116">
-        <v>6.392731613004534e-07</v>
+        <v>2.551986893079686e-06</v>
       </c>
       <c r="H116">
-        <v>0.001858576394114057</v>
+        <v>0.01709020800266009</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0004724687467862964</v>
+        <v>0.006999884284439923</v>
       </c>
       <c r="C117">
-        <v>0.0005047188253703925</v>
+        <v>0.006316162748758023</v>
       </c>
       <c r="D117">
-        <v>5.311313122483714e-06</v>
+        <v>7.288072092877145e-05</v>
       </c>
       <c r="E117">
-        <v>0.000422644374991337</v>
+        <v>0.003235527840527374</v>
       </c>
       <c r="F117">
-        <v>0.0001662582207671915</v>
+        <v>0.001639674828696877</v>
       </c>
       <c r="G117">
-        <v>7.125726222207903e-07</v>
+        <v>2.48206174196728e-06</v>
       </c>
       <c r="H117">
-        <v>0.001725307172205063</v>
+        <v>0.0184896460061301</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004946169500123771</v>
+        <v>0.007079851711031853</v>
       </c>
       <c r="C118">
-        <v>0.0004615728039319853</v>
+        <v>0.005766218928577028</v>
       </c>
       <c r="D118">
-        <v>6.40973003880187e-06</v>
+        <v>5.770311526156329e-05</v>
       </c>
       <c r="E118">
-        <v>0.0004101732958917096</v>
+        <v>0.003896171787947138</v>
       </c>
       <c r="F118">
-        <v>0.0001511111971457525</v>
+        <v>0.001904733847930455</v>
       </c>
       <c r="G118">
-        <v>5.780701303457615e-07</v>
+        <v>3.548644914141335e-06</v>
       </c>
       <c r="H118">
-        <v>0.001823625437102091</v>
+        <v>0.02193100260329634</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0005228765240872447</v>
+        <v>0.007268916165608102</v>
       </c>
       <c r="C119">
-        <v>0.0004126307812724622</v>
+        <v>0.005295728330664805</v>
       </c>
       <c r="D119">
-        <v>4.060406576502495e-06</v>
+        <v>5.544985255593302e-05</v>
       </c>
       <c r="E119">
-        <v>0.0002942866463379774</v>
+        <v>0.003859021566525936</v>
       </c>
       <c r="F119">
-        <v>0.000173950691311731</v>
+        <v>0.001687196806706975</v>
       </c>
       <c r="G119">
-        <v>6.588671894663155e-07</v>
+        <v>2.342713697437585e-06</v>
       </c>
       <c r="H119">
-        <v>0.001958186963961831</v>
+        <v>0.02089237401495473</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004771791923392143</v>
+        <v>0.009190871408286326</v>
       </c>
       <c r="C120">
-        <v>0.0005397441207745405</v>
+        <v>0.004999743594926198</v>
       </c>
       <c r="D120">
-        <v>5.045587958368124e-06</v>
+        <v>8.040375989600895e-05</v>
       </c>
       <c r="E120">
-        <v>0.0002880608405568137</v>
+        <v>0.003524146776689567</v>
       </c>
       <c r="F120">
-        <v>0.0001715611154615473</v>
+        <v>0.002068791532031516</v>
       </c>
       <c r="G120">
-        <v>6.042417009798896e-07</v>
+        <v>3.522821129833696e-06</v>
       </c>
       <c r="H120">
-        <v>0.001978477315623375</v>
+        <v>0.02145898197150925</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.000407148785869516</v>
+        <v>0.007015840569822748</v>
       </c>
       <c r="C121">
-        <v>0.0005464621965785036</v>
+        <v>0.004543563170572393</v>
       </c>
       <c r="D121">
-        <v>4.997061864866867e-06</v>
+        <v>7.063505526924208e-05</v>
       </c>
       <c r="E121">
-        <v>0.0005081488010560319</v>
+        <v>0.003027310034719892</v>
       </c>
       <c r="F121">
-        <v>0.0001353871044570852</v>
+        <v>0.001464969887193891</v>
       </c>
       <c r="G121">
-        <v>4.6873986724311e-07</v>
+        <v>2.614348336960954e-06</v>
       </c>
       <c r="H121">
-        <v>0.001314000653525833</v>
+        <v>0.01704230372572781</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_bse.xlsx
+++ b/FOMC1_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006598627813926427</v>
+        <v>0.004513492269201353</v>
       </c>
       <c r="C2">
-        <v>0.003877996505535535</v>
+        <v>0.005471801825642927</v>
       </c>
       <c r="D2">
-        <v>5.3937134934465e-05</v>
+        <v>5.915779065633815e-05</v>
       </c>
       <c r="E2">
-        <v>0.003488863352990481</v>
+        <v>0.002851224520368764</v>
       </c>
       <c r="F2">
-        <v>0.001528304686323664</v>
+        <v>0.001289163202941777</v>
       </c>
       <c r="G2">
-        <v>2.778739160693653e-06</v>
+        <v>2.054227854782381e-06</v>
       </c>
       <c r="H2">
-        <v>0.01640802561092625</v>
+        <v>0.01373862230591013</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009322946936949543</v>
+        <v>0.004972050478737625</v>
       </c>
       <c r="C3">
-        <v>0.0064001101109265</v>
+        <v>0.004045359304461895</v>
       </c>
       <c r="D3">
-        <v>7.320165137843136e-05</v>
+        <v>5.629656627995418e-05</v>
       </c>
       <c r="E3">
-        <v>0.003834196372029334</v>
+        <v>0.003074168420395217</v>
       </c>
       <c r="F3">
-        <v>0.001628218739132079</v>
+        <v>0.001223936385400821</v>
       </c>
       <c r="G3">
-        <v>2.693303077122159e-06</v>
+        <v>1.700836048378928e-06</v>
       </c>
       <c r="H3">
-        <v>0.01842455521026725</v>
+        <v>0.01389308072283869</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.007118264972926673</v>
+        <v>0.005158877560438772</v>
       </c>
       <c r="C4">
-        <v>0.004833934953371188</v>
+        <v>0.003751820816176505</v>
       </c>
       <c r="D4">
-        <v>6.36157036938391e-05</v>
+        <v>5.078344786914802e-05</v>
       </c>
       <c r="E4">
-        <v>0.00313088998046874</v>
+        <v>0.00288081275769974</v>
       </c>
       <c r="F4">
-        <v>0.001638923475819724</v>
+        <v>0.001385058579560837</v>
       </c>
       <c r="G4">
-        <v>2.615147760572868e-06</v>
+        <v>2.265190464315958e-06</v>
       </c>
       <c r="H4">
-        <v>0.0185237414752938</v>
+        <v>0.0155689470880594</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008067201392567594</v>
+        <v>0.006567519036818521</v>
       </c>
       <c r="C5">
-        <v>0.005490822151255367</v>
+        <v>0.003958869045650076</v>
       </c>
       <c r="D5">
-        <v>8.429933491990937e-05</v>
+        <v>6.17041381250641e-05</v>
       </c>
       <c r="E5">
-        <v>0.005504041496025222</v>
+        <v>0.003381200178330106</v>
       </c>
       <c r="F5">
-        <v>0.0015857661754113</v>
+        <v>0.001517894972385561</v>
       </c>
       <c r="G5">
-        <v>2.187196333947552e-06</v>
+        <v>2.510064729650629e-06</v>
       </c>
       <c r="H5">
-        <v>0.01828987477585718</v>
+        <v>0.01638889221666253</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.007268740733079709</v>
+        <v>0.005171151604998265</v>
       </c>
       <c r="C6">
-        <v>0.006137553156708933</v>
+        <v>0.004534863125427368</v>
       </c>
       <c r="D6">
-        <v>6.885226550463696e-05</v>
+        <v>5.199135878183657e-05</v>
       </c>
       <c r="E6">
-        <v>0.003612469396858488</v>
+        <v>0.002783780963679775</v>
       </c>
       <c r="F6">
-        <v>0.0016935739569408</v>
+        <v>0.001742414156906348</v>
       </c>
       <c r="G6">
-        <v>2.375693541833269e-06</v>
+        <v>2.645654626887341e-06</v>
       </c>
       <c r="H6">
-        <v>0.01971596025899606</v>
+        <v>0.01784694599367071</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006405945819602593</v>
+        <v>0.005536203267778544</v>
       </c>
       <c r="C7">
-        <v>0.004868857706434322</v>
+        <v>0.004204328629857319</v>
       </c>
       <c r="D7">
-        <v>6.139632916144347e-05</v>
+        <v>6.063507016888274e-05</v>
       </c>
       <c r="E7">
-        <v>0.003345979704697023</v>
+        <v>0.002845655639798433</v>
       </c>
       <c r="F7">
-        <v>0.001507350362748218</v>
+        <v>0.001292599316158164</v>
       </c>
       <c r="G7">
-        <v>2.335666688401791e-06</v>
+        <v>2.165504616938021e-06</v>
       </c>
       <c r="H7">
-        <v>0.01682081169456934</v>
+        <v>0.01440975969715069</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005676321930069526</v>
+        <v>0.005366050564006887</v>
       </c>
       <c r="C8">
-        <v>0.005095019285593527</v>
+        <v>0.004160855380174911</v>
       </c>
       <c r="D8">
-        <v>6.564894424723373e-05</v>
+        <v>5.222805532286641e-05</v>
       </c>
       <c r="E8">
-        <v>0.003567106907113196</v>
+        <v>0.002618537991901636</v>
       </c>
       <c r="F8">
-        <v>0.001540176153685937</v>
+        <v>0.001507967241114772</v>
       </c>
       <c r="G8">
-        <v>2.568694907189377e-06</v>
+        <v>1.993795770226942e-06</v>
       </c>
       <c r="H8">
-        <v>0.01542986634920187</v>
+        <v>0.01633840500928118</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007041127685673809</v>
+        <v>0.004947926159870399</v>
       </c>
       <c r="C9">
-        <v>0.004738669863752</v>
+        <v>0.003884998274309686</v>
       </c>
       <c r="D9">
-        <v>7.170329372164451e-05</v>
+        <v>4.711504349014681e-05</v>
       </c>
       <c r="E9">
-        <v>0.003726967327292638</v>
+        <v>0.002778298260960667</v>
       </c>
       <c r="F9">
-        <v>0.001459897930673346</v>
+        <v>0.001326885771529797</v>
       </c>
       <c r="G9">
-        <v>2.405508714764885e-06</v>
+        <v>2.426615976536666e-06</v>
       </c>
       <c r="H9">
-        <v>0.01609926934311282</v>
+        <v>0.01545297819131836</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007002811941816108</v>
+        <v>0.004526778367556963</v>
       </c>
       <c r="C10">
-        <v>0.006413484274480179</v>
+        <v>0.003670920788667762</v>
       </c>
       <c r="D10">
-        <v>6.094482358405428e-05</v>
+        <v>4.938112746493479e-05</v>
       </c>
       <c r="E10">
-        <v>0.004000304376732639</v>
+        <v>0.002658140465895532</v>
       </c>
       <c r="F10">
-        <v>0.001534656057541524</v>
+        <v>0.001215234837134816</v>
       </c>
       <c r="G10">
-        <v>2.653872931646739e-06</v>
+        <v>1.951855743419801e-06</v>
       </c>
       <c r="H10">
-        <v>0.01763087386206696</v>
+        <v>0.01259993148825777</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.005944964944837702</v>
+        <v>0.005092160071053263</v>
       </c>
       <c r="C11">
-        <v>0.004409401921073281</v>
+        <v>0.003837200645301598</v>
       </c>
       <c r="D11">
-        <v>7.322084487517435e-05</v>
+        <v>4.178980697601639e-05</v>
       </c>
       <c r="E11">
-        <v>0.003166407309783084</v>
+        <v>0.00313997499394162</v>
       </c>
       <c r="F11">
-        <v>0.001467353203421037</v>
+        <v>0.001263619856023703</v>
       </c>
       <c r="G11">
-        <v>2.288808021620401e-06</v>
+        <v>2.356872572929247e-06</v>
       </c>
       <c r="H11">
-        <v>0.01523376664369352</v>
+        <v>0.01416115134138247</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.006678066226250736</v>
+        <v>0.005263514725316471</v>
       </c>
       <c r="C12">
-        <v>0.005248952536851651</v>
+        <v>0.004314324994617303</v>
       </c>
       <c r="D12">
-        <v>6.596991345612327e-05</v>
+        <v>4.774746049601073e-05</v>
       </c>
       <c r="E12">
-        <v>0.003426838541486912</v>
+        <v>0.002664052515399682</v>
       </c>
       <c r="F12">
-        <v>0.001577298018177348</v>
+        <v>0.001344715102005817</v>
       </c>
       <c r="G12">
-        <v>2.567951754046156e-06</v>
+        <v>2.295925303540048e-06</v>
       </c>
       <c r="H12">
-        <v>0.01725709066540041</v>
+        <v>0.01425085597578751</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.006775015288467712</v>
+        <v>0.005284173702788328</v>
       </c>
       <c r="C13">
-        <v>0.008222632455479328</v>
+        <v>0.004476263047735729</v>
       </c>
       <c r="D13">
-        <v>7.381795773692006e-05</v>
+        <v>6.731266469750816e-05</v>
       </c>
       <c r="E13">
-        <v>0.004300991044882534</v>
+        <v>0.002528306774335123</v>
       </c>
       <c r="F13">
-        <v>0.001857329470015968</v>
+        <v>0.001350922868934259</v>
       </c>
       <c r="G13">
-        <v>3.072015402968732e-06</v>
+        <v>2.649248805108531e-06</v>
       </c>
       <c r="H13">
-        <v>0.02006696128080938</v>
+        <v>0.01493691294945608</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.00644658417225049</v>
+        <v>0.005079751160660503</v>
       </c>
       <c r="C14">
-        <v>0.005847106838582116</v>
+        <v>0.004135260725126235</v>
       </c>
       <c r="D14">
-        <v>5.352383116044223e-05</v>
+        <v>5.242085134201293e-05</v>
       </c>
       <c r="E14">
-        <v>0.003868849070934175</v>
+        <v>0.003050312532518384</v>
       </c>
       <c r="F14">
-        <v>0.001625864198028569</v>
+        <v>0.001278450304092646</v>
       </c>
       <c r="G14">
-        <v>2.231084378632263e-06</v>
+        <v>2.364274905177512e-06</v>
       </c>
       <c r="H14">
-        <v>0.01874621468934483</v>
+        <v>0.01359239604444369</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006919738643903232</v>
+        <v>0.004282643556136357</v>
       </c>
       <c r="C15">
-        <v>0.005505635039152803</v>
+        <v>0.004347942732588705</v>
       </c>
       <c r="D15">
-        <v>6.117773927555264e-05</v>
+        <v>4.423101276401062e-05</v>
       </c>
       <c r="E15">
-        <v>0.00324353604640957</v>
+        <v>0.002458130418122059</v>
       </c>
       <c r="F15">
-        <v>0.001452286229856082</v>
+        <v>0.001086775263152736</v>
       </c>
       <c r="G15">
-        <v>1.943132622413498e-06</v>
+        <v>2.263393778419132e-06</v>
       </c>
       <c r="H15">
-        <v>0.01873867351390217</v>
+        <v>0.01236244694309382</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00808864117696147</v>
+        <v>0.005441104731368105</v>
       </c>
       <c r="C16">
-        <v>0.00528038304456941</v>
+        <v>0.004584978942063934</v>
       </c>
       <c r="D16">
-        <v>6.196115025966717e-05</v>
+        <v>5.637753884806027e-05</v>
       </c>
       <c r="E16">
-        <v>0.003708849528272289</v>
+        <v>0.002823439782000219</v>
       </c>
       <c r="F16">
-        <v>0.001657070976254443</v>
+        <v>0.001291926180155953</v>
       </c>
       <c r="G16">
-        <v>2.602060537911755e-06</v>
+        <v>2.342403702694991e-06</v>
       </c>
       <c r="H16">
-        <v>0.01974113738935731</v>
+        <v>0.01409535185106026</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.005808086559523877</v>
+        <v>0.004824497137228873</v>
       </c>
       <c r="C17">
-        <v>0.004680743689230209</v>
+        <v>0.006870217250638635</v>
       </c>
       <c r="D17">
-        <v>6.334574049718505e-05</v>
+        <v>4.325379647300809e-05</v>
       </c>
       <c r="E17">
-        <v>0.003112701045037173</v>
+        <v>0.00324993927275153</v>
       </c>
       <c r="F17">
-        <v>0.001471920575907538</v>
+        <v>0.001363537782388164</v>
       </c>
       <c r="G17">
-        <v>2.174969525636597e-06</v>
+        <v>2.489873561537533e-06</v>
       </c>
       <c r="H17">
-        <v>0.01614787191559844</v>
+        <v>0.01522299427838958</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.006742636317651514</v>
+        <v>0.00548324383104075</v>
       </c>
       <c r="C18">
-        <v>0.005266327428079542</v>
+        <v>0.004098095633008213</v>
       </c>
       <c r="D18">
-        <v>6.255903856415757e-05</v>
+        <v>5.012194793088208e-05</v>
       </c>
       <c r="E18">
-        <v>0.003808964428268076</v>
+        <v>0.002776564387104772</v>
       </c>
       <c r="F18">
-        <v>0.001494759262056104</v>
+        <v>0.00131841893111586</v>
       </c>
       <c r="G18">
-        <v>2.564563655526817e-06</v>
+        <v>1.815100032857313e-06</v>
       </c>
       <c r="H18">
-        <v>0.01579615409164995</v>
+        <v>0.01458112877532493</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.006601091672568453</v>
+        <v>0.006104744427510388</v>
       </c>
       <c r="C19">
-        <v>0.004460913419710401</v>
+        <v>0.004298365449466089</v>
       </c>
       <c r="D19">
-        <v>6.259988170460507e-05</v>
+        <v>6.290633844704441e-05</v>
       </c>
       <c r="E19">
-        <v>0.003468423867020155</v>
+        <v>0.003501814844109512</v>
       </c>
       <c r="F19">
-        <v>0.001653287429040827</v>
+        <v>0.001611447086062184</v>
       </c>
       <c r="G19">
-        <v>2.468775067061119e-06</v>
+        <v>2.414682239398868e-06</v>
       </c>
       <c r="H19">
-        <v>0.01849205935439131</v>
+        <v>0.01746732117985056</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.006220774505646781</v>
+        <v>0.006309329564174035</v>
       </c>
       <c r="C20">
-        <v>0.01275226743732971</v>
+        <v>0.005619901055543232</v>
       </c>
       <c r="D20">
-        <v>7.087878595235893e-05</v>
+        <v>5.386423798433392e-05</v>
       </c>
       <c r="E20">
-        <v>0.004879350317430295</v>
+        <v>0.003591909668764327</v>
       </c>
       <c r="F20">
-        <v>0.001637169235907554</v>
+        <v>0.001677246506596661</v>
       </c>
       <c r="G20">
-        <v>2.368008175714512e-06</v>
+        <v>2.766135931156122e-06</v>
       </c>
       <c r="H20">
-        <v>0.01719002698760183</v>
+        <v>0.01804810719787934</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.007626022807700364</v>
+        <v>0.005606158156429683</v>
       </c>
       <c r="C21">
-        <v>0.006250600695640186</v>
+        <v>0.003810301839932464</v>
       </c>
       <c r="D21">
-        <v>6.305415519730159e-05</v>
+        <v>4.890323171687303e-05</v>
       </c>
       <c r="E21">
-        <v>0.003392922114493343</v>
+        <v>0.00303898921588082</v>
       </c>
       <c r="F21">
-        <v>0.001733501339015731</v>
+        <v>0.001194998738263241</v>
       </c>
       <c r="G21">
-        <v>2.241158634802071e-06</v>
+        <v>2.159642672301221e-06</v>
       </c>
       <c r="H21">
-        <v>0.01977971108889265</v>
+        <v>0.01370795435522705</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.006855513548270586</v>
+        <v>0.005046581334044534</v>
       </c>
       <c r="C22">
-        <v>0.004505012518409662</v>
+        <v>0.006406987377953252</v>
       </c>
       <c r="D22">
-        <v>6.023076413242985e-05</v>
+        <v>4.464602022461456e-05</v>
       </c>
       <c r="E22">
-        <v>0.003883009827904575</v>
+        <v>0.002771956942971188</v>
       </c>
       <c r="F22">
-        <v>0.001736355562945185</v>
+        <v>0.001521508408047201</v>
       </c>
       <c r="G22">
-        <v>3.137325450389668e-06</v>
+        <v>2.324639293607372e-06</v>
       </c>
       <c r="H22">
-        <v>0.01829711484515944</v>
+        <v>0.01637978576036843</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.007097864325018914</v>
+        <v>0.005010644902774303</v>
       </c>
       <c r="C23">
-        <v>0.004412343979989111</v>
+        <v>0.00471931362068269</v>
       </c>
       <c r="D23">
-        <v>7.52153431021791e-05</v>
+        <v>5.164275936802121e-05</v>
       </c>
       <c r="E23">
-        <v>0.003706632994364059</v>
+        <v>0.002664978905453702</v>
       </c>
       <c r="F23">
-        <v>0.001584041416265937</v>
+        <v>0.001278850685161634</v>
       </c>
       <c r="G23">
-        <v>2.695647686893602e-06</v>
+        <v>1.803766955950484e-06</v>
       </c>
       <c r="H23">
-        <v>0.01646269645685316</v>
+        <v>0.01440849487940786</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008708220934678677</v>
+        <v>0.004950591067895307</v>
       </c>
       <c r="C24">
-        <v>0.005923651001529981</v>
+        <v>0.004161195548177157</v>
       </c>
       <c r="D24">
-        <v>6.326031313580606e-05</v>
+        <v>5.096724095633586e-05</v>
       </c>
       <c r="E24">
-        <v>0.004613413378012723</v>
+        <v>0.002678411734949495</v>
       </c>
       <c r="F24">
-        <v>0.001586688026078141</v>
+        <v>0.001180473023174779</v>
       </c>
       <c r="G24">
-        <v>2.7871544065083e-06</v>
+        <v>1.859958280620733e-06</v>
       </c>
       <c r="H24">
-        <v>0.01808884575166774</v>
+        <v>0.01270315779878305</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.006396037957056814</v>
+        <v>0.004347424297747854</v>
       </c>
       <c r="C25">
-        <v>0.00518810848331116</v>
+        <v>0.00457132459903596</v>
       </c>
       <c r="D25">
-        <v>6.429017750365504e-05</v>
+        <v>5.416008535989971e-05</v>
       </c>
       <c r="E25">
-        <v>0.003254465789853041</v>
+        <v>0.002794015471043847</v>
       </c>
       <c r="F25">
-        <v>0.001418538995544199</v>
+        <v>0.001192154901677071</v>
       </c>
       <c r="G25">
-        <v>2.346368426859994e-06</v>
+        <v>1.909257547591982e-06</v>
       </c>
       <c r="H25">
-        <v>0.01579155299092889</v>
+        <v>0.01311232324355307</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.007076236445484481</v>
+        <v>0.004973993255738353</v>
       </c>
       <c r="C26">
-        <v>0.005048219384468389</v>
+        <v>0.005832223727827132</v>
       </c>
       <c r="D26">
-        <v>6.08029187650978e-05</v>
+        <v>5.930214999146e-05</v>
       </c>
       <c r="E26">
-        <v>0.00313397108440972</v>
+        <v>0.002940843509423771</v>
       </c>
       <c r="F26">
-        <v>0.001593192822055468</v>
+        <v>0.00146257281527009</v>
       </c>
       <c r="G26">
-        <v>2.468824404562564e-06</v>
+        <v>2.261806453275521e-06</v>
       </c>
       <c r="H26">
-        <v>0.01772593651920305</v>
+        <v>0.01541806022731204</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.007470903768964923</v>
+        <v>0.005660427053565301</v>
       </c>
       <c r="C27">
-        <v>0.005339207664550817</v>
+        <v>0.003937161984836255</v>
       </c>
       <c r="D27">
-        <v>5.729701828656795e-05</v>
+        <v>5.739409453890114e-05</v>
       </c>
       <c r="E27">
-        <v>0.003723743436859817</v>
+        <v>0.003023058967012728</v>
       </c>
       <c r="F27">
-        <v>0.001642558834134377</v>
+        <v>0.001060914174012024</v>
       </c>
       <c r="G27">
-        <v>2.831450426772739e-06</v>
+        <v>1.989493748306141e-06</v>
       </c>
       <c r="H27">
-        <v>0.01863717756802747</v>
+        <v>0.01251064961977032</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.007739067380536753</v>
+        <v>0.004445607203940449</v>
       </c>
       <c r="C28">
-        <v>0.004869582699993435</v>
+        <v>0.00430540235594513</v>
       </c>
       <c r="D28">
-        <v>6.61439298458809e-05</v>
+        <v>4.321671764874262e-05</v>
       </c>
       <c r="E28">
-        <v>0.003703016405711951</v>
+        <v>0.003043326955150808</v>
       </c>
       <c r="F28">
-        <v>0.001691654464380077</v>
+        <v>0.001045059040763215</v>
       </c>
       <c r="G28">
-        <v>2.745418266229265e-06</v>
+        <v>2.086853559611012e-06</v>
       </c>
       <c r="H28">
-        <v>0.01852858808642712</v>
+        <v>0.01161759942664217</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.006211261118673294</v>
+        <v>0.004897868206559705</v>
       </c>
       <c r="C29">
-        <v>0.004787757918540174</v>
+        <v>0.00362668204677602</v>
       </c>
       <c r="D29">
-        <v>5.718121692949249e-05</v>
+        <v>4.625492293289661e-05</v>
       </c>
       <c r="E29">
-        <v>0.003046429781311208</v>
+        <v>0.002862838738166518</v>
       </c>
       <c r="F29">
-        <v>0.001542589117534346</v>
+        <v>0.00127787105127575</v>
       </c>
       <c r="G29">
-        <v>2.462497928556546e-06</v>
+        <v>2.181163284729169e-06</v>
       </c>
       <c r="H29">
-        <v>0.01708897709414916</v>
+        <v>0.01366042181013852</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006245361766451894</v>
+        <v>0.005078485634725397</v>
       </c>
       <c r="C30">
-        <v>0.005559178717289947</v>
+        <v>0.004972574694709503</v>
       </c>
       <c r="D30">
-        <v>7.195949518982706e-05</v>
+        <v>4.575595958349608e-05</v>
       </c>
       <c r="E30">
-        <v>0.003670918708845829</v>
+        <v>0.003356405931275996</v>
       </c>
       <c r="F30">
-        <v>0.001406217424182136</v>
+        <v>0.00134743251675143</v>
       </c>
       <c r="G30">
-        <v>2.299596251512571e-06</v>
+        <v>2.637804521597858e-06</v>
       </c>
       <c r="H30">
-        <v>0.01514456477171922</v>
+        <v>0.01465986359234507</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007613866753241585</v>
+        <v>0.004655104149941595</v>
       </c>
       <c r="C31">
-        <v>0.007360486630758568</v>
+        <v>0.003839295623986742</v>
       </c>
       <c r="D31">
-        <v>6.164450673186877e-05</v>
+        <v>4.782160552286721e-05</v>
       </c>
       <c r="E31">
-        <v>0.003938600767602681</v>
+        <v>0.002579310610344202</v>
       </c>
       <c r="F31">
-        <v>0.001777874068396953</v>
+        <v>0.001230102345656545</v>
       </c>
       <c r="G31">
-        <v>2.657649676694689e-06</v>
+        <v>1.860246159012823e-06</v>
       </c>
       <c r="H31">
-        <v>0.02028627391076841</v>
+        <v>0.01343162677534232</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007083147021626596</v>
+        <v>0.00435370747655615</v>
       </c>
       <c r="C32">
-        <v>0.005411822491201511</v>
+        <v>0.003856579733189619</v>
       </c>
       <c r="D32">
-        <v>6.753413922331581e-05</v>
+        <v>4.887988439977773e-05</v>
       </c>
       <c r="E32">
-        <v>0.003973791596140541</v>
+        <v>0.003244730141288163</v>
       </c>
       <c r="F32">
-        <v>0.001534596838805665</v>
+        <v>0.001258388575536505</v>
       </c>
       <c r="G32">
-        <v>2.387488014156639e-06</v>
+        <v>2.123461378901076e-06</v>
       </c>
       <c r="H32">
-        <v>0.01604991779327344</v>
+        <v>0.01407287266598419</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00606241382383437</v>
+        <v>0.005928381791626954</v>
       </c>
       <c r="C33">
-        <v>0.007432257854941613</v>
+        <v>0.00339271708185918</v>
       </c>
       <c r="D33">
-        <v>5.834685616320966e-05</v>
+        <v>5.551349085233436e-05</v>
       </c>
       <c r="E33">
-        <v>0.003609747342699688</v>
+        <v>0.003135616096347966</v>
       </c>
       <c r="F33">
-        <v>0.001625397089490505</v>
+        <v>0.001360686671515657</v>
       </c>
       <c r="G33">
-        <v>2.659911015651508e-06</v>
+        <v>1.96428494096374e-06</v>
       </c>
       <c r="H33">
-        <v>0.01655008901635933</v>
+        <v>0.01529336300587821</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.005568902242959925</v>
+        <v>0.005375119074951977</v>
       </c>
       <c r="C34">
-        <v>0.004693770959790787</v>
+        <v>0.003462582804970822</v>
       </c>
       <c r="D34">
-        <v>6.403820710319948e-05</v>
+        <v>5.149855453587557e-05</v>
       </c>
       <c r="E34">
-        <v>0.0031751863134045</v>
+        <v>0.002710468534394415</v>
       </c>
       <c r="F34">
-        <v>0.001360074390761674</v>
+        <v>0.001327505657650176</v>
       </c>
       <c r="G34">
-        <v>2.037197644768211e-06</v>
+        <v>2.063272094658835e-06</v>
       </c>
       <c r="H34">
-        <v>0.01492403121958798</v>
+        <v>0.01524519167500204</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007357740247345924</v>
+        <v>0.005439054237424657</v>
       </c>
       <c r="C35">
-        <v>0.004317690951115822</v>
+        <v>0.004275724582917719</v>
       </c>
       <c r="D35">
-        <v>6.744246657963925e-05</v>
+        <v>5.569742760221824e-05</v>
       </c>
       <c r="E35">
-        <v>0.003481553496400743</v>
+        <v>0.002366401065249055</v>
       </c>
       <c r="F35">
-        <v>0.001644254684328278</v>
+        <v>0.001507733787832883</v>
       </c>
       <c r="G35">
-        <v>2.50023408857236e-06</v>
+        <v>2.403108176968761e-06</v>
       </c>
       <c r="H35">
-        <v>0.01825724071150686</v>
+        <v>0.0163036134849079</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006478888344574412</v>
+        <v>0.005598245217429988</v>
       </c>
       <c r="C36">
-        <v>0.006285098889358124</v>
+        <v>0.005748490108379569</v>
       </c>
       <c r="D36">
-        <v>5.819825879948397e-05</v>
+        <v>5.930856422465546e-05</v>
       </c>
       <c r="E36">
-        <v>0.004425637103943542</v>
+        <v>0.002987908574056368</v>
       </c>
       <c r="F36">
-        <v>0.001713952106916065</v>
+        <v>0.001388751654890946</v>
       </c>
       <c r="G36">
-        <v>2.862105474102389e-06</v>
+        <v>2.18674608058286e-06</v>
       </c>
       <c r="H36">
-        <v>0.01854763631530637</v>
+        <v>0.01533477935679076</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.005799247096555602</v>
+        <v>0.005376986536196738</v>
       </c>
       <c r="C37">
-        <v>0.004315052029110756</v>
+        <v>0.004166797696068866</v>
       </c>
       <c r="D37">
-        <v>4.810279337219539e-05</v>
+        <v>6.3392488569872e-05</v>
       </c>
       <c r="E37">
-        <v>0.003072571991131067</v>
+        <v>0.002868623881075241</v>
       </c>
       <c r="F37">
-        <v>0.001853000267322652</v>
+        <v>0.001240447610631503</v>
       </c>
       <c r="G37">
-        <v>3.105211023951264e-06</v>
+        <v>1.880079453413251e-06</v>
       </c>
       <c r="H37">
-        <v>0.01965200223795589</v>
+        <v>0.01412867062242403</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006557480665729385</v>
+        <v>0.005077752291839707</v>
       </c>
       <c r="C38">
-        <v>0.005966497962696628</v>
+        <v>0.00374408914598331</v>
       </c>
       <c r="D38">
-        <v>5.224563052108204e-05</v>
+        <v>5.119961703337083e-05</v>
       </c>
       <c r="E38">
-        <v>0.003392886270336638</v>
+        <v>0.002295566552178988</v>
       </c>
       <c r="F38">
-        <v>0.001569145966327028</v>
+        <v>0.001121174213041452</v>
       </c>
       <c r="G38">
-        <v>2.543069000877411e-06</v>
+        <v>1.835553614774465e-06</v>
       </c>
       <c r="H38">
-        <v>0.01730224354861146</v>
+        <v>0.01312522812994893</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.007999068383857531</v>
+        <v>0.005488376150645104</v>
       </c>
       <c r="C39">
-        <v>0.004895368220164689</v>
+        <v>0.005371829131220991</v>
       </c>
       <c r="D39">
-        <v>7.96440851890627e-05</v>
+        <v>6.145896825523503e-05</v>
       </c>
       <c r="E39">
-        <v>0.003920655434825706</v>
+        <v>0.00331813004887463</v>
       </c>
       <c r="F39">
-        <v>0.001629178603406511</v>
+        <v>0.001500996858359238</v>
       </c>
       <c r="G39">
-        <v>2.583361774776979e-06</v>
+        <v>2.332568152859503e-06</v>
       </c>
       <c r="H39">
-        <v>0.0190721239069263</v>
+        <v>0.01660878216277929</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.005257846167422173</v>
+        <v>0.00507855554561964</v>
       </c>
       <c r="C40">
-        <v>0.006168855468188292</v>
+        <v>0.004567229823310996</v>
       </c>
       <c r="D40">
-        <v>5.993423877464775e-05</v>
+        <v>5.67144921729207e-05</v>
       </c>
       <c r="E40">
-        <v>0.002990139925416239</v>
+        <v>0.002797968011186379</v>
       </c>
       <c r="F40">
-        <v>0.001307233168486027</v>
+        <v>0.001454492871209555</v>
       </c>
       <c r="G40">
-        <v>2.31001704144121e-06</v>
+        <v>2.297387898434418e-06</v>
       </c>
       <c r="H40">
-        <v>0.0140372442188852</v>
+        <v>0.01554768905047979</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.008584276914987407</v>
+        <v>0.00529596501832447</v>
       </c>
       <c r="C41">
-        <v>0.005682950909476501</v>
+        <v>0.003730038032806527</v>
       </c>
       <c r="D41">
-        <v>6.787760813098265e-05</v>
+        <v>4.541070808616116e-05</v>
       </c>
       <c r="E41">
-        <v>0.004450274999483269</v>
+        <v>0.003002131101656849</v>
       </c>
       <c r="F41">
-        <v>0.00158939135662838</v>
+        <v>0.001240801177082361</v>
       </c>
       <c r="G41">
-        <v>2.506396640176041e-06</v>
+        <v>1.910945693367129e-06</v>
       </c>
       <c r="H41">
-        <v>0.01868240425032123</v>
+        <v>0.01438971787026135</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.007207016830690294</v>
+        <v>0.004277647078974833</v>
       </c>
       <c r="C42">
-        <v>0.005705317242084512</v>
+        <v>0.003257653142775249</v>
       </c>
       <c r="D42">
-        <v>5.860523370707246e-05</v>
+        <v>4.246708472822988e-05</v>
       </c>
       <c r="E42">
-        <v>0.004362253777742681</v>
+        <v>0.002969326051572602</v>
       </c>
       <c r="F42">
-        <v>0.001729998176711146</v>
+        <v>0.001166153832445267</v>
       </c>
       <c r="G42">
-        <v>2.791729020461972e-06</v>
+        <v>1.684569796579323e-06</v>
       </c>
       <c r="H42">
-        <v>0.01864551834445006</v>
+        <v>0.0130501629652919</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.006487922519527556</v>
+        <v>0.00508673513226816</v>
       </c>
       <c r="C43">
-        <v>0.005130880477689261</v>
+        <v>0.005040016580346659</v>
       </c>
       <c r="D43">
-        <v>5.981102347500397e-05</v>
+        <v>5.08412542869043e-05</v>
       </c>
       <c r="E43">
-        <v>0.003278347003345101</v>
+        <v>0.002892399339229845</v>
       </c>
       <c r="F43">
-        <v>0.001534876408474067</v>
+        <v>0.001317667325449517</v>
       </c>
       <c r="G43">
-        <v>2.602487126078917e-06</v>
+        <v>2.489807985032752e-06</v>
       </c>
       <c r="H43">
-        <v>0.01640807661299193</v>
+        <v>0.01461870186447533</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007271771623906549</v>
+        <v>0.005802625935723187</v>
       </c>
       <c r="C44">
-        <v>0.004505504683204373</v>
+        <v>0.003982852813517121</v>
       </c>
       <c r="D44">
-        <v>6.662842835946537e-05</v>
+        <v>4.579368959673579e-05</v>
       </c>
       <c r="E44">
-        <v>0.003871627354301604</v>
+        <v>0.002966804579900292</v>
       </c>
       <c r="F44">
-        <v>0.001570538678010946</v>
+        <v>0.001346898770912332</v>
       </c>
       <c r="G44">
-        <v>2.289966302724293e-06</v>
+        <v>2.053541666646287e-06</v>
       </c>
       <c r="H44">
-        <v>0.01721402799656972</v>
+        <v>0.0153557047807065</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.006190569144013266</v>
+        <v>0.005474906789057044</v>
       </c>
       <c r="C45">
-        <v>0.007608132133116384</v>
+        <v>0.004276421680801089</v>
       </c>
       <c r="D45">
-        <v>8.313064829364811e-05</v>
+        <v>6.398889254356155e-05</v>
       </c>
       <c r="E45">
-        <v>0.004020179876304788</v>
+        <v>0.002739483229427293</v>
       </c>
       <c r="F45">
-        <v>0.001435675916717356</v>
+        <v>0.001467751172794464</v>
       </c>
       <c r="G45">
-        <v>2.421449948928657e-06</v>
+        <v>2.29317416508844e-06</v>
       </c>
       <c r="H45">
-        <v>0.01516078813066327</v>
+        <v>0.01736714402346078</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.007101178262841693</v>
+        <v>0.004761718776650964</v>
       </c>
       <c r="C46">
-        <v>0.004385382172069081</v>
+        <v>0.004557527229347162</v>
       </c>
       <c r="D46">
-        <v>6.675688215876106e-05</v>
+        <v>5.403079127932591e-05</v>
       </c>
       <c r="E46">
-        <v>0.003129012624322459</v>
+        <v>0.002959191303764243</v>
       </c>
       <c r="F46">
-        <v>0.001755489974478339</v>
+        <v>0.001121285110044959</v>
       </c>
       <c r="G46">
-        <v>3.015256322208439e-06</v>
+        <v>1.701767840626053e-06</v>
       </c>
       <c r="H46">
-        <v>0.01958098172024488</v>
+        <v>0.01284926995779142</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.007065036622471754</v>
+        <v>0.005850947900892288</v>
       </c>
       <c r="C47">
-        <v>0.005571761619958947</v>
+        <v>0.00372425126314011</v>
       </c>
       <c r="D47">
-        <v>7.000407125951572e-05</v>
+        <v>4.858424578920464e-05</v>
       </c>
       <c r="E47">
-        <v>0.003886447865985293</v>
+        <v>0.003414843879940492</v>
       </c>
       <c r="F47">
-        <v>0.00156922930617613</v>
+        <v>0.001316428468017959</v>
       </c>
       <c r="G47">
-        <v>2.599659733101384e-06</v>
+        <v>2.314761602141534e-06</v>
       </c>
       <c r="H47">
-        <v>0.01692763733180697</v>
+        <v>0.01499301621940248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.007514065055150852</v>
+        <v>0.005101177848051625</v>
       </c>
       <c r="C48">
-        <v>0.00475962608425535</v>
+        <v>0.004688963345398285</v>
       </c>
       <c r="D48">
-        <v>6.942048987237778e-05</v>
+        <v>5.088684210978319e-05</v>
       </c>
       <c r="E48">
-        <v>0.004084583657486452</v>
+        <v>0.003132581604415165</v>
       </c>
       <c r="F48">
-        <v>0.001591580891100075</v>
+        <v>0.001333224771911962</v>
       </c>
       <c r="G48">
-        <v>2.481992980860043e-06</v>
+        <v>2.139513898424963e-06</v>
       </c>
       <c r="H48">
-        <v>0.01808337342984878</v>
+        <v>0.01491555716276742</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01218559991834068</v>
+        <v>0.005492398580159793</v>
       </c>
       <c r="C49">
-        <v>0.005329879517643832</v>
+        <v>0.004120394947206391</v>
       </c>
       <c r="D49">
-        <v>6.728659995967473e-05</v>
+        <v>5.522344079738993e-05</v>
       </c>
       <c r="E49">
-        <v>0.004857976542506702</v>
+        <v>0.003154797475690186</v>
       </c>
       <c r="F49">
-        <v>0.001935643454478484</v>
+        <v>0.00112494466980744</v>
       </c>
       <c r="G49">
-        <v>7.917762987811322e-06</v>
+        <v>2.040760802991035e-06</v>
       </c>
       <c r="H49">
-        <v>0.02107087581567014</v>
+        <v>0.01362067014055931</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.006630444531873675</v>
+        <v>0.005979968551963799</v>
       </c>
       <c r="C50">
-        <v>0.005162134812369424</v>
+        <v>0.003992779834718184</v>
       </c>
       <c r="D50">
-        <v>7.744258552936261e-05</v>
+        <v>6.087084291878427e-05</v>
       </c>
       <c r="E50">
-        <v>0.003052237962733767</v>
+        <v>0.003174315689657518</v>
       </c>
       <c r="F50">
-        <v>0.001602899526406107</v>
+        <v>0.001287212211163408</v>
       </c>
       <c r="G50">
-        <v>2.651770823935734e-06</v>
+        <v>1.980191905471447e-06</v>
       </c>
       <c r="H50">
-        <v>0.01811599305023153</v>
+        <v>0.01390309381779678</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.006702975991447859</v>
+        <v>0.006698353253953914</v>
       </c>
       <c r="C51">
-        <v>0.005426485484627935</v>
+        <v>0.004662665031807514</v>
       </c>
       <c r="D51">
-        <v>5.972650736894883e-05</v>
+        <v>5.96812235749872e-05</v>
       </c>
       <c r="E51">
-        <v>0.003471524607473756</v>
+        <v>0.00346234517250006</v>
       </c>
       <c r="F51">
-        <v>0.001818738946496014</v>
+        <v>0.001577888271854989</v>
       </c>
       <c r="G51">
-        <v>2.931771750136725e-06</v>
+        <v>2.397015854686872e-06</v>
       </c>
       <c r="H51">
-        <v>0.01990922519129997</v>
+        <v>0.01650112419116028</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.007114195437340132</v>
+        <v>0.005162192864861368</v>
       </c>
       <c r="C52">
-        <v>0.005216434957635158</v>
+        <v>0.003253227709779367</v>
       </c>
       <c r="D52">
-        <v>7.425855544716846e-05</v>
+        <v>5.357813220027469e-05</v>
       </c>
       <c r="E52">
-        <v>0.003460342318850336</v>
+        <v>0.002964525244482505</v>
       </c>
       <c r="F52">
-        <v>0.001803814185668604</v>
+        <v>0.001355980149847741</v>
       </c>
       <c r="G52">
-        <v>2.62714620499932e-06</v>
+        <v>2.07173662086544e-06</v>
       </c>
       <c r="H52">
-        <v>0.02086508670864159</v>
+        <v>0.01462000035708728</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.007876673175107089</v>
+        <v>0.004455804925754874</v>
       </c>
       <c r="C53">
-        <v>0.005045702774384455</v>
+        <v>0.004155587833186163</v>
       </c>
       <c r="D53">
-        <v>5.61975088764884e-05</v>
+        <v>4.036610434103989e-05</v>
       </c>
       <c r="E53">
-        <v>0.004022667201729083</v>
+        <v>0.003110218074057628</v>
       </c>
       <c r="F53">
-        <v>0.001842786072667841</v>
+        <v>0.001453962069021478</v>
       </c>
       <c r="G53">
-        <v>2.923192440511913e-06</v>
+        <v>2.129482573646103e-06</v>
       </c>
       <c r="H53">
-        <v>0.02109675800175666</v>
+        <v>0.01653362831888392</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005732424832246321</v>
+        <v>0.005538922759895148</v>
       </c>
       <c r="C54">
-        <v>0.004487390015650886</v>
+        <v>0.004583756611724073</v>
       </c>
       <c r="D54">
-        <v>5.153025888013809e-05</v>
+        <v>5.810577126360848e-05</v>
       </c>
       <c r="E54">
-        <v>0.003151152982276787</v>
+        <v>0.002912903400557165</v>
       </c>
       <c r="F54">
-        <v>0.001271027838997191</v>
+        <v>0.001417032435782089</v>
       </c>
       <c r="G54">
-        <v>2.131963244745936e-06</v>
+        <v>2.292880273450889e-06</v>
       </c>
       <c r="H54">
-        <v>0.01533821333078384</v>
+        <v>0.01491947748431161</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.006977225810534471</v>
+        <v>0.004448884472264837</v>
       </c>
       <c r="C55">
-        <v>0.005209275935208764</v>
+        <v>0.003942891838333747</v>
       </c>
       <c r="D55">
-        <v>6.040145433239832e-05</v>
+        <v>5.322771823043716e-05</v>
       </c>
       <c r="E55">
-        <v>0.003564898015403354</v>
+        <v>0.002461528507666026</v>
       </c>
       <c r="F55">
-        <v>0.001786342758486153</v>
+        <v>0.001204503726167424</v>
       </c>
       <c r="G55">
-        <v>3.351495604778694e-06</v>
+        <v>1.8553976532818e-06</v>
       </c>
       <c r="H55">
-        <v>0.01835212777121649</v>
+        <v>0.01388148830732112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.006469681842026904</v>
+        <v>0.004498204823740017</v>
       </c>
       <c r="C56">
-        <v>0.005866092581405087</v>
+        <v>0.003653799859531361</v>
       </c>
       <c r="D56">
-        <v>6.020336818613886e-05</v>
+        <v>5.049042249992716e-05</v>
       </c>
       <c r="E56">
-        <v>0.003892970813676729</v>
+        <v>0.002474864840113217</v>
       </c>
       <c r="F56">
-        <v>0.001520355235774778</v>
+        <v>0.001305021092369608</v>
       </c>
       <c r="G56">
-        <v>2.056774199033118e-06</v>
+        <v>1.916576575324116e-06</v>
       </c>
       <c r="H56">
-        <v>0.01835684521779223</v>
+        <v>0.01413591363224865</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.006828669038607928</v>
+        <v>0.00464666519532772</v>
       </c>
       <c r="C57">
-        <v>0.004616796922447711</v>
+        <v>0.003937671270203985</v>
       </c>
       <c r="D57">
-        <v>6.595718067952607e-05</v>
+        <v>4.887186261123883e-05</v>
       </c>
       <c r="E57">
-        <v>0.003649652161052749</v>
+        <v>0.002870838823958126</v>
       </c>
       <c r="F57">
-        <v>0.001627844952127305</v>
+        <v>0.001407084124479563</v>
       </c>
       <c r="G57">
-        <v>2.658268885351173e-06</v>
+        <v>1.865424722753028e-06</v>
       </c>
       <c r="H57">
-        <v>0.01741522522384265</v>
+        <v>0.01558862817974508</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.00553299659922534</v>
+        <v>0.005855855263670266</v>
       </c>
       <c r="C58">
-        <v>0.005033766575786702</v>
+        <v>0.004853160118263013</v>
       </c>
       <c r="D58">
-        <v>5.934716570782109e-05</v>
+        <v>5.524755743517161e-05</v>
       </c>
       <c r="E58">
-        <v>0.003288838213386725</v>
+        <v>0.003730267757985524</v>
       </c>
       <c r="F58">
-        <v>0.001657015711474516</v>
+        <v>0.001220888105350975</v>
       </c>
       <c r="G58">
-        <v>2.737981251572082e-06</v>
+        <v>1.763633013439984e-06</v>
       </c>
       <c r="H58">
-        <v>0.01721446693654441</v>
+        <v>0.01360610655112614</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.007484752130217654</v>
+        <v>0.005450776888381936</v>
       </c>
       <c r="C59">
-        <v>0.00532029096086683</v>
+        <v>0.004610275404456713</v>
       </c>
       <c r="D59">
-        <v>5.348856504757189e-05</v>
+        <v>5.490145283809896e-05</v>
       </c>
       <c r="E59">
-        <v>0.004487190384391675</v>
+        <v>0.002700276494698636</v>
       </c>
       <c r="F59">
-        <v>0.001904126362549884</v>
+        <v>0.001423174713669957</v>
       </c>
       <c r="G59">
-        <v>2.807275936957789e-06</v>
+        <v>2.193913607300093e-06</v>
       </c>
       <c r="H59">
-        <v>0.02250507844636165</v>
+        <v>0.01563633408948413</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.007597158422131753</v>
+        <v>0.005108472059354709</v>
       </c>
       <c r="C60">
-        <v>0.00484745081991078</v>
+        <v>0.005254251339185466</v>
       </c>
       <c r="D60">
-        <v>6.199464619353022e-05</v>
+        <v>5.001092510518895e-05</v>
       </c>
       <c r="E60">
-        <v>0.003372401575851719</v>
+        <v>0.002967193384678767</v>
       </c>
       <c r="F60">
-        <v>0.001607165425685789</v>
+        <v>0.001463424647627204</v>
       </c>
       <c r="G60">
-        <v>2.720098381661838e-06</v>
+        <v>2.208511165497135e-06</v>
       </c>
       <c r="H60">
-        <v>0.01781188616349567</v>
+        <v>0.01678189764487368</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.00649231020017476</v>
+        <v>0.005852900546165059</v>
       </c>
       <c r="C61">
-        <v>0.004651309530595978</v>
+        <v>0.003965632273967908</v>
       </c>
       <c r="D61">
-        <v>5.93935625779794e-05</v>
+        <v>4.470696179995859e-05</v>
       </c>
       <c r="E61">
-        <v>0.003371742691065188</v>
+        <v>0.003071024864128536</v>
       </c>
       <c r="F61">
-        <v>0.001415441181486409</v>
+        <v>0.001379987824660626</v>
       </c>
       <c r="G61">
-        <v>2.379605229297126e-06</v>
+        <v>2.302349127045748e-06</v>
       </c>
       <c r="H61">
-        <v>0.01624474872118348</v>
+        <v>0.0164349015929308</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.007349724145290578</v>
+        <v>0.00522474656119238</v>
       </c>
       <c r="C62">
-        <v>0.006068394366393488</v>
+        <v>0.003965389677226043</v>
       </c>
       <c r="D62">
-        <v>5.919530381430438e-05</v>
+        <v>5.330302962073777e-05</v>
       </c>
       <c r="E62">
-        <v>0.002973432774156608</v>
+        <v>0.002835448924376817</v>
       </c>
       <c r="F62">
-        <v>0.001564546527604893</v>
+        <v>0.001427649119910372</v>
       </c>
       <c r="G62">
-        <v>2.562182439821475e-06</v>
+        <v>2.229255382166669e-06</v>
       </c>
       <c r="H62">
-        <v>0.01833517924148642</v>
+        <v>0.01589438771511667</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.008058894195513068</v>
+        <v>0.005176245157433697</v>
       </c>
       <c r="C63">
-        <v>0.005334288441004058</v>
+        <v>0.004266910655250834</v>
       </c>
       <c r="D63">
-        <v>5.53862068688723e-05</v>
+        <v>4.182971527653972e-05</v>
       </c>
       <c r="E63">
-        <v>0.005215114183975084</v>
+        <v>0.002472976135553966</v>
       </c>
       <c r="F63">
-        <v>0.001613166831678034</v>
+        <v>0.001138892295530854</v>
       </c>
       <c r="G63">
-        <v>2.870247819349435e-06</v>
+        <v>2.065368303287387e-06</v>
       </c>
       <c r="H63">
-        <v>0.02113011716368897</v>
+        <v>0.01354574425213581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.00671366467182723</v>
+        <v>0.005815852700107509</v>
       </c>
       <c r="C64">
-        <v>0.006457652683942111</v>
+        <v>0.004937162293119596</v>
       </c>
       <c r="D64">
-        <v>8.153158215172906e-05</v>
+        <v>5.219732932363125e-05</v>
       </c>
       <c r="E64">
-        <v>0.003503166554865961</v>
+        <v>0.002672211667293092</v>
       </c>
       <c r="F64">
-        <v>0.001502389136358189</v>
+        <v>0.001486506358913192</v>
       </c>
       <c r="G64">
-        <v>2.42075830496031e-06</v>
+        <v>2.175029780805179e-06</v>
       </c>
       <c r="H64">
-        <v>0.01726609480787675</v>
+        <v>0.01731580452580269</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.008397593651383557</v>
+        <v>0.004729785836289699</v>
       </c>
       <c r="C65">
-        <v>0.004481088135365009</v>
+        <v>0.004469190257329711</v>
       </c>
       <c r="D65">
-        <v>6.142226442408274e-05</v>
+        <v>4.600725163237948e-05</v>
       </c>
       <c r="E65">
-        <v>0.004658142651660455</v>
+        <v>0.002823713418986704</v>
       </c>
       <c r="F65">
-        <v>0.001522412099900389</v>
+        <v>0.001135424712313464</v>
       </c>
       <c r="G65">
-        <v>2.689410425763483e-06</v>
+        <v>1.991920924003481e-06</v>
       </c>
       <c r="H65">
-        <v>0.01693762541472594</v>
+        <v>0.01347284804673452</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.005705941237302352</v>
+        <v>0.006250671956431622</v>
       </c>
       <c r="C66">
-        <v>0.005436005706974067</v>
+        <v>0.004360502007782424</v>
       </c>
       <c r="D66">
-        <v>5.620841044192583e-05</v>
+        <v>4.169781618627367e-05</v>
       </c>
       <c r="E66">
-        <v>0.003596717683160761</v>
+        <v>0.003843381820769367</v>
       </c>
       <c r="F66">
-        <v>0.001338733542250932</v>
+        <v>0.001469154721378837</v>
       </c>
       <c r="G66">
-        <v>2.239439075835489e-06</v>
+        <v>2.253832016059908e-06</v>
       </c>
       <c r="H66">
-        <v>0.01377056384933092</v>
+        <v>0.01716865511877711</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.00546387072098457</v>
+        <v>0.005619527908304854</v>
       </c>
       <c r="C67">
-        <v>0.009536947423093085</v>
+        <v>0.004212022648710253</v>
       </c>
       <c r="D67">
-        <v>4.428096812476228e-05</v>
+        <v>6.776525221183264e-05</v>
       </c>
       <c r="E67">
-        <v>0.004433440149447988</v>
+        <v>0.003088947733635361</v>
       </c>
       <c r="F67">
-        <v>0.001573486626035931</v>
+        <v>0.001350428879256357</v>
       </c>
       <c r="G67">
-        <v>2.244135464466614e-06</v>
+        <v>2.002435920984902e-06</v>
       </c>
       <c r="H67">
-        <v>0.01726249565038644</v>
+        <v>0.01500003936343673</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.006560960633642383</v>
+        <v>0.005834654004898962</v>
       </c>
       <c r="C68">
-        <v>0.004390638846107406</v>
+        <v>0.003984673979058514</v>
       </c>
       <c r="D68">
-        <v>4.617328014879823e-05</v>
+        <v>5.497118178257325e-05</v>
       </c>
       <c r="E68">
-        <v>0.004516178977149576</v>
+        <v>0.002797370302843999</v>
       </c>
       <c r="F68">
-        <v>0.001556475702636486</v>
+        <v>0.001305341943790298</v>
       </c>
       <c r="G68">
-        <v>2.33975782860266e-06</v>
+        <v>1.715515021551384e-06</v>
       </c>
       <c r="H68">
-        <v>0.01852080992325497</v>
+        <v>0.01488434559472738</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.006760088678347128</v>
+        <v>0.005686727698297405</v>
       </c>
       <c r="C69">
-        <v>0.004400875020385809</v>
+        <v>0.004785167098588871</v>
       </c>
       <c r="D69">
-        <v>7.172509068901521e-05</v>
+        <v>5.851993710952018e-05</v>
       </c>
       <c r="E69">
-        <v>0.003569484733497529</v>
+        <v>0.002550907048400424</v>
       </c>
       <c r="F69">
-        <v>0.00137895055971173</v>
+        <v>0.001569262973383598</v>
       </c>
       <c r="G69">
-        <v>2.416120793138529e-06</v>
+        <v>2.732047863820973e-06</v>
       </c>
       <c r="H69">
-        <v>0.0148596438315643</v>
+        <v>0.01621112577265814</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.006820121996687282</v>
+        <v>0.004992165197356753</v>
       </c>
       <c r="C70">
-        <v>0.005117055132813232</v>
+        <v>0.003755674351361678</v>
       </c>
       <c r="D70">
-        <v>5.614441075283114e-05</v>
+        <v>6.410442894210663e-05</v>
       </c>
       <c r="E70">
-        <v>0.004016124768260411</v>
+        <v>0.002382347718572169</v>
       </c>
       <c r="F70">
-        <v>0.001598577202628533</v>
+        <v>0.001181336642121927</v>
       </c>
       <c r="G70">
-        <v>2.63962613815915e-06</v>
+        <v>1.999628791496374e-06</v>
       </c>
       <c r="H70">
-        <v>0.01868912048333492</v>
+        <v>0.01324069751897943</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.006959061865676693</v>
+        <v>0.005149379253827482</v>
       </c>
       <c r="C71">
-        <v>0.006181615603296687</v>
+        <v>0.003780870386353319</v>
       </c>
       <c r="D71">
-        <v>4.986137238217529e-05</v>
+        <v>5.134811424841764e-05</v>
       </c>
       <c r="E71">
-        <v>0.003866448991851886</v>
+        <v>0.002922975232141696</v>
       </c>
       <c r="F71">
-        <v>0.001680134498240864</v>
+        <v>0.001340547072265174</v>
       </c>
       <c r="G71">
-        <v>2.441914496462157e-06</v>
+        <v>1.647127199545163e-06</v>
       </c>
       <c r="H71">
-        <v>0.01927622607619412</v>
+        <v>0.01551292487448974</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.00851882452447752</v>
+        <v>0.005012242345298662</v>
       </c>
       <c r="C72">
-        <v>0.003963288819612358</v>
+        <v>0.004640957774719153</v>
       </c>
       <c r="D72">
-        <v>4.980880295940959e-05</v>
+        <v>5.904086141747578e-05</v>
       </c>
       <c r="E72">
-        <v>0.004013033913195717</v>
+        <v>0.002420664543446018</v>
       </c>
       <c r="F72">
-        <v>0.001670984694815799</v>
+        <v>0.001208490387637463</v>
       </c>
       <c r="G72">
-        <v>4.605696700114517e-06</v>
+        <v>1.725336141310463e-06</v>
       </c>
       <c r="H72">
-        <v>0.01844307029472019</v>
+        <v>0.01401998542676254</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.00864392843236159</v>
+        <v>0.006231485355507078</v>
       </c>
       <c r="C73">
-        <v>0.006161874041629057</v>
+        <v>0.004099645426714135</v>
       </c>
       <c r="D73">
-        <v>6.879418163255648e-05</v>
+        <v>5.127528772213733e-05</v>
       </c>
       <c r="E73">
-        <v>0.003857951013347994</v>
+        <v>0.003670026135190441</v>
       </c>
       <c r="F73">
-        <v>0.001515249028203149</v>
+        <v>0.001584142557222827</v>
       </c>
       <c r="G73">
-        <v>3.026278580811796e-06</v>
+        <v>2.500136331864006e-06</v>
       </c>
       <c r="H73">
-        <v>0.01844592336603649</v>
+        <v>0.01711819741559843</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.007289776927994866</v>
+        <v>0.006489174840251155</v>
       </c>
       <c r="C74">
-        <v>0.005722882060830731</v>
+        <v>0.004982482537551238</v>
       </c>
       <c r="D74">
-        <v>6.184724299201252e-05</v>
+        <v>6.316324027082853e-05</v>
       </c>
       <c r="E74">
-        <v>0.003407916186144866</v>
+        <v>0.003287172353675306</v>
       </c>
       <c r="F74">
-        <v>0.001812746167095278</v>
+        <v>0.001455573115668798</v>
       </c>
       <c r="G74">
-        <v>3.308239397216921e-06</v>
+        <v>2.32876263984939e-06</v>
       </c>
       <c r="H74">
-        <v>0.02023340870034883</v>
+        <v>0.01690278832361223</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.006045755150590249</v>
+        <v>0.005204695618870163</v>
       </c>
       <c r="C75">
-        <v>0.006886968467471897</v>
+        <v>0.003643622858487787</v>
       </c>
       <c r="D75">
-        <v>5.942011807729384e-05</v>
+        <v>5.279083079514579e-05</v>
       </c>
       <c r="E75">
-        <v>0.003293143366265841</v>
+        <v>0.002833306507931483</v>
       </c>
       <c r="F75">
-        <v>0.001539726043452342</v>
+        <v>0.001281000466976774</v>
       </c>
       <c r="G75">
-        <v>2.233627938774672e-06</v>
+        <v>2.027827542267776e-06</v>
       </c>
       <c r="H75">
-        <v>0.01736117506158497</v>
+        <v>0.01484358969083938</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.008493368442225344</v>
+        <v>0.00533554987027467</v>
       </c>
       <c r="C76">
-        <v>0.005009895975447354</v>
+        <v>0.005351849425018733</v>
       </c>
       <c r="D76">
-        <v>7.6285548014428e-05</v>
+        <v>7.26975141969706e-05</v>
       </c>
       <c r="E76">
-        <v>0.00338363773494996</v>
+        <v>0.002809755426881677</v>
       </c>
       <c r="F76">
-        <v>0.002202050182032023</v>
+        <v>0.001648685665912108</v>
       </c>
       <c r="G76">
-        <v>3.481105332212004e-06</v>
+        <v>2.662046762013177e-06</v>
       </c>
       <c r="H76">
-        <v>0.02314229000857908</v>
+        <v>0.01652279728616209</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.00675278524015299</v>
+        <v>0.005604026237388287</v>
       </c>
       <c r="C77">
-        <v>0.004880000430847682</v>
+        <v>0.004042854844595791</v>
       </c>
       <c r="D77">
-        <v>5.098298525481482e-05</v>
+        <v>4.723952872121108e-05</v>
       </c>
       <c r="E77">
-        <v>0.003883252831622501</v>
+        <v>0.004076142352748996</v>
       </c>
       <c r="F77">
-        <v>0.0015527430650491</v>
+        <v>0.001189449274099569</v>
       </c>
       <c r="G77">
-        <v>3.085431375716479e-06</v>
+        <v>1.948702771004188e-06</v>
       </c>
       <c r="H77">
-        <v>0.01726751208662927</v>
+        <v>0.01374265399460383</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.007833115308140126</v>
+        <v>0.005244738430707041</v>
       </c>
       <c r="C78">
-        <v>0.006718457698258191</v>
+        <v>0.004151017515005197</v>
       </c>
       <c r="D78">
-        <v>6.036959991083842e-05</v>
+        <v>5.050856327808258e-05</v>
       </c>
       <c r="E78">
-        <v>0.005206565554895065</v>
+        <v>0.003431875747418656</v>
       </c>
       <c r="F78">
-        <v>0.001903372763951846</v>
+        <v>0.001230119886235751</v>
       </c>
       <c r="G78">
-        <v>3.297503093485144e-06</v>
+        <v>1.947323337238419e-06</v>
       </c>
       <c r="H78">
-        <v>0.0207238863754352</v>
+        <v>0.01394412436934217</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.007199861136624922</v>
+        <v>0.005277235858802042</v>
       </c>
       <c r="C79">
-        <v>0.004822828876214259</v>
+        <v>0.003956142918399616</v>
       </c>
       <c r="D79">
-        <v>7.19562706168627e-05</v>
+        <v>4.990781912188214e-05</v>
       </c>
       <c r="E79">
-        <v>0.003501865106088513</v>
+        <v>0.00309136026535389</v>
       </c>
       <c r="F79">
-        <v>0.001391098619195431</v>
+        <v>0.00129857880483307</v>
       </c>
       <c r="G79">
-        <v>2.019008484036473e-06</v>
+        <v>2.232600745834887e-06</v>
       </c>
       <c r="H79">
-        <v>0.01612334554450237</v>
+        <v>0.01494679250671931</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.007055403835613634</v>
+        <v>0.006911026020414501</v>
       </c>
       <c r="C80">
-        <v>0.006829215825083402</v>
+        <v>0.004525386150573839</v>
       </c>
       <c r="D80">
-        <v>5.858959354469513e-05</v>
+        <v>6.217178652908432e-05</v>
       </c>
       <c r="E80">
-        <v>0.003247960309130435</v>
+        <v>0.003053767860383805</v>
       </c>
       <c r="F80">
-        <v>0.002227359167129981</v>
+        <v>0.001371806448524481</v>
       </c>
       <c r="G80">
-        <v>3.451660698837649e-06</v>
+        <v>2.243382371224217e-06</v>
       </c>
       <c r="H80">
-        <v>0.02350443984438422</v>
+        <v>0.01540644302932342</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.005820251326175244</v>
+        <v>0.005087721649636686</v>
       </c>
       <c r="C81">
-        <v>0.00508020511641211</v>
+        <v>0.003989783198189103</v>
       </c>
       <c r="D81">
-        <v>6.778046838010356e-05</v>
+        <v>4.755144486629971e-05</v>
       </c>
       <c r="E81">
-        <v>0.002968525035384588</v>
+        <v>0.002893142018350035</v>
       </c>
       <c r="F81">
-        <v>0.001431765813326998</v>
+        <v>0.001224001119477846</v>
       </c>
       <c r="G81">
-        <v>2.384449766279267e-06</v>
+        <v>1.759671500744103e-06</v>
       </c>
       <c r="H81">
-        <v>0.01574065715971855</v>
+        <v>0.01475291649977021</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.006572939371993888</v>
+        <v>0.005933713018517814</v>
       </c>
       <c r="C82">
-        <v>0.00351123151166257</v>
+        <v>0.004202468302393207</v>
       </c>
       <c r="D82">
-        <v>5.972876604835036e-05</v>
+        <v>5.639093874752125e-05</v>
       </c>
       <c r="E82">
-        <v>0.003300239308623305</v>
+        <v>0.003387180204893138</v>
       </c>
       <c r="F82">
-        <v>0.001519953561804344</v>
+        <v>0.001392042708522603</v>
       </c>
       <c r="G82">
-        <v>2.249482134181459e-06</v>
+        <v>2.002876271300808e-06</v>
       </c>
       <c r="H82">
-        <v>0.01659394968942894</v>
+        <v>0.01582599788696103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.006451030621910344</v>
+        <v>0.004619708031928326</v>
       </c>
       <c r="C83">
-        <v>0.007286994245829679</v>
+        <v>0.003089787213811182</v>
       </c>
       <c r="D83">
-        <v>7.217975614560694e-05</v>
+        <v>4.916535127343721e-05</v>
       </c>
       <c r="E83">
-        <v>0.003863106489959392</v>
+        <v>0.003048839541350247</v>
       </c>
       <c r="F83">
-        <v>0.001663481567538973</v>
+        <v>0.001209783480510443</v>
       </c>
       <c r="G83">
-        <v>2.78794532315264e-06</v>
+        <v>2.043965524654037e-06</v>
       </c>
       <c r="H83">
-        <v>0.0174750476381876</v>
+        <v>0.01403917125049122</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006527182544829108</v>
+        <v>0.004997051064126738</v>
       </c>
       <c r="C84">
-        <v>0.004656851897466109</v>
+        <v>0.005464830165474606</v>
       </c>
       <c r="D84">
-        <v>7.77067376952912e-05</v>
+        <v>5.216857216406952e-05</v>
       </c>
       <c r="E84">
-        <v>0.003779506593356589</v>
+        <v>0.003167659655241779</v>
       </c>
       <c r="F84">
-        <v>0.001458337715358868</v>
+        <v>0.001342902372749347</v>
       </c>
       <c r="G84">
-        <v>2.378676931613301e-06</v>
+        <v>1.991141734721918e-06</v>
       </c>
       <c r="H84">
-        <v>0.01602731496734838</v>
+        <v>0.01501529321154125</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.00592060063319322</v>
+        <v>0.006448259829595247</v>
       </c>
       <c r="C85">
-        <v>0.004655642221472845</v>
+        <v>0.005672249688982345</v>
       </c>
       <c r="D85">
-        <v>5.347101907578758e-05</v>
+        <v>5.510703091258277e-05</v>
       </c>
       <c r="E85">
-        <v>0.003187324739084202</v>
+        <v>0.004185041104254748</v>
       </c>
       <c r="F85">
-        <v>0.001465618517289672</v>
+        <v>0.001449819723522756</v>
       </c>
       <c r="G85">
-        <v>2.153595635057068e-06</v>
+        <v>2.133232161876437e-06</v>
       </c>
       <c r="H85">
-        <v>0.01585781047509004</v>
+        <v>0.01706662009307757</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.007191525541910728</v>
+        <v>0.004721441717666417</v>
       </c>
       <c r="C86">
-        <v>0.005903187856504768</v>
+        <v>0.003874838097285302</v>
       </c>
       <c r="D86">
-        <v>6.080479369394197e-05</v>
+        <v>5.333722200407286e-05</v>
       </c>
       <c r="E86">
-        <v>0.003881192326874905</v>
+        <v>0.002881469583186146</v>
       </c>
       <c r="F86">
-        <v>0.001851538350348037</v>
+        <v>0.0014466053482843</v>
       </c>
       <c r="G86">
-        <v>3.280268771681201e-06</v>
+        <v>2.067760594684625e-06</v>
       </c>
       <c r="H86">
-        <v>0.01944415921966859</v>
+        <v>0.01557898621667711</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.006334452943650663</v>
+        <v>0.005500366142504409</v>
       </c>
       <c r="C87">
-        <v>0.004140615967998197</v>
+        <v>0.004429279315858104</v>
       </c>
       <c r="D87">
-        <v>5.848021492276929e-05</v>
+        <v>5.652012137566988e-05</v>
       </c>
       <c r="E87">
-        <v>0.00319628054051272</v>
+        <v>0.003167102225044808</v>
       </c>
       <c r="F87">
-        <v>0.001326903428121143</v>
+        <v>0.001377459136598206</v>
       </c>
       <c r="G87">
-        <v>2.445718214389359e-06</v>
+        <v>2.391651364027737e-06</v>
       </c>
       <c r="H87">
-        <v>0.0153671926753339</v>
+        <v>0.01472788178224265</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.005718448666035877</v>
+        <v>0.004450860635476925</v>
       </c>
       <c r="C88">
-        <v>0.005494157381457357</v>
+        <v>0.003192786331458879</v>
       </c>
       <c r="D88">
-        <v>5.999340893919511e-05</v>
+        <v>3.920127361442455e-05</v>
       </c>
       <c r="E88">
-        <v>0.00301781719403285</v>
+        <v>0.002349725094862463</v>
       </c>
       <c r="F88">
-        <v>0.001464716306511431</v>
+        <v>0.001040774567464166</v>
       </c>
       <c r="G88">
-        <v>2.586039357558383e-06</v>
+        <v>2.234473712718332e-06</v>
       </c>
       <c r="H88">
-        <v>0.01590784673255196</v>
+        <v>0.01163181733332056</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.006659452567668837</v>
+        <v>0.004436015310724778</v>
       </c>
       <c r="C89">
-        <v>0.005822042565237187</v>
+        <v>0.003737948397199552</v>
       </c>
       <c r="D89">
-        <v>5.997233529889172e-05</v>
+        <v>5.027348490930607e-05</v>
       </c>
       <c r="E89">
-        <v>0.003478653679108751</v>
+        <v>0.00244495410747959</v>
       </c>
       <c r="F89">
-        <v>0.002174824646581518</v>
+        <v>0.00133435720139462</v>
       </c>
       <c r="G89">
-        <v>3.68339213615605e-06</v>
+        <v>2.269128010168136e-06</v>
       </c>
       <c r="H89">
-        <v>0.02121487478380614</v>
+        <v>0.01346400520190705</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.007114025659220497</v>
+        <v>0.005372707569642473</v>
       </c>
       <c r="C90">
-        <v>0.006078689041967155</v>
+        <v>0.00469575322090638</v>
       </c>
       <c r="D90">
-        <v>5.810391422817444e-05</v>
+        <v>7.086835042156012e-05</v>
       </c>
       <c r="E90">
-        <v>0.004019657560082311</v>
+        <v>0.003095562923122802</v>
       </c>
       <c r="F90">
-        <v>0.001754251494885556</v>
+        <v>0.001473757176543502</v>
       </c>
       <c r="G90">
-        <v>2.824643462843366e-06</v>
+        <v>2.227567742298294e-06</v>
       </c>
       <c r="H90">
-        <v>0.01963403493900283</v>
+        <v>0.01506105628565361</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.005888075280754823</v>
+        <v>0.006862386610127611</v>
       </c>
       <c r="C91">
-        <v>0.003404782736284978</v>
+        <v>0.004204360323385728</v>
       </c>
       <c r="D91">
-        <v>4.69630095770945e-05</v>
+        <v>6.824648163643065e-05</v>
       </c>
       <c r="E91">
-        <v>0.003233364224873692</v>
+        <v>0.00347261088180628</v>
       </c>
       <c r="F91">
-        <v>0.001230645279889738</v>
+        <v>0.001456575923338575</v>
       </c>
       <c r="G91">
-        <v>2.221970072381153e-06</v>
+        <v>2.246957243330688e-06</v>
       </c>
       <c r="H91">
-        <v>0.01370801806518659</v>
+        <v>0.01662746544413604</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.006603544810649594</v>
+        <v>0.005245974315804874</v>
       </c>
       <c r="C92">
-        <v>0.004477465663775111</v>
+        <v>0.004126471370292506</v>
       </c>
       <c r="D92">
-        <v>6.850813305715107e-05</v>
+        <v>5.294261854160819e-05</v>
       </c>
       <c r="E92">
-        <v>0.003212956320747056</v>
+        <v>0.002967577457483758</v>
       </c>
       <c r="F92">
-        <v>0.00170502364930642</v>
+        <v>0.001385754006405576</v>
       </c>
       <c r="G92">
-        <v>2.631459353831062e-06</v>
+        <v>2.235362895128276e-06</v>
       </c>
       <c r="H92">
-        <v>0.01797746975714288</v>
+        <v>0.01506777155781676</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.009333610871674183</v>
+        <v>0.005743166344478773</v>
       </c>
       <c r="C93">
-        <v>0.005154936817347585</v>
+        <v>0.003726124148020549</v>
       </c>
       <c r="D93">
-        <v>7.931399583846704e-05</v>
+        <v>4.536395634586182e-05</v>
       </c>
       <c r="E93">
-        <v>0.004258558746557186</v>
+        <v>0.003416141122416445</v>
       </c>
       <c r="F93">
-        <v>0.001753360111209153</v>
+        <v>0.001263835995121485</v>
       </c>
       <c r="G93">
-        <v>3.097489978765693e-06</v>
+        <v>1.682278427571344e-06</v>
       </c>
       <c r="H93">
-        <v>0.01940573293288305</v>
+        <v>0.0149523036929765</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.007533292346006341</v>
+        <v>0.005704061633879847</v>
       </c>
       <c r="C94">
-        <v>0.005215912778807052</v>
+        <v>0.005309464895514206</v>
       </c>
       <c r="D94">
-        <v>6.991732014044887e-05</v>
+        <v>5.303123358208773e-05</v>
       </c>
       <c r="E94">
-        <v>0.003816954922955789</v>
+        <v>0.003438061092895702</v>
       </c>
       <c r="F94">
-        <v>0.001803378553911265</v>
+        <v>0.001691082032186724</v>
       </c>
       <c r="G94">
-        <v>2.84051870726945e-06</v>
+        <v>2.519009613614674e-06</v>
       </c>
       <c r="H94">
-        <v>0.01937378543694181</v>
+        <v>0.01806985984467197</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.006253105052240072</v>
+        <v>0.005519884871881055</v>
       </c>
       <c r="C95">
-        <v>0.004445042218629732</v>
+        <v>0.003838894035688065</v>
       </c>
       <c r="D95">
-        <v>6.413300993512166e-05</v>
+        <v>6.208272739142604e-05</v>
       </c>
       <c r="E95">
-        <v>0.003612276951129601</v>
+        <v>0.003259391916064292</v>
       </c>
       <c r="F95">
-        <v>0.001510689308024127</v>
+        <v>0.001250415732851306</v>
       </c>
       <c r="G95">
-        <v>2.708914754958687e-06</v>
+        <v>1.974372424379821e-06</v>
       </c>
       <c r="H95">
-        <v>0.01652138389120042</v>
+        <v>0.01363974118366774</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.005577207513716973</v>
+        <v>0.005431847408811529</v>
       </c>
       <c r="C96">
-        <v>0.005172513333887521</v>
+        <v>0.003756605261981936</v>
       </c>
       <c r="D96">
-        <v>4.373737623599981e-05</v>
+        <v>4.519698430858372e-05</v>
       </c>
       <c r="E96">
-        <v>0.002796053942495812</v>
+        <v>0.002945190680763622</v>
       </c>
       <c r="F96">
-        <v>0.001391607313187378</v>
+        <v>0.00133226212979275</v>
       </c>
       <c r="G96">
-        <v>2.209289036514548e-06</v>
+        <v>2.564443411746405e-06</v>
       </c>
       <c r="H96">
-        <v>0.01525059045323078</v>
+        <v>0.0145158080171476</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.005212467648624733</v>
+        <v>0.005825425222957622</v>
       </c>
       <c r="C97">
-        <v>0.003938845248751581</v>
+        <v>0.004238938678430171</v>
       </c>
       <c r="D97">
-        <v>5.344033775815091e-05</v>
+        <v>5.411255126349592e-05</v>
       </c>
       <c r="E97">
-        <v>0.003055794023954823</v>
+        <v>0.002930185908743949</v>
       </c>
       <c r="F97">
-        <v>0.001374567686510234</v>
+        <v>0.001194339961846928</v>
       </c>
       <c r="G97">
-        <v>2.295993357823754e-06</v>
+        <v>2.052082201034743e-06</v>
       </c>
       <c r="H97">
-        <v>0.01496075461082949</v>
+        <v>0.01372516653706111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.007003190433808038</v>
+        <v>0.00505390432193036</v>
       </c>
       <c r="C98">
-        <v>0.005042784649638104</v>
+        <v>0.004560863565498608</v>
       </c>
       <c r="D98">
-        <v>6.729615752519393e-05</v>
+        <v>6.217009545421923e-05</v>
       </c>
       <c r="E98">
-        <v>0.003851887934819585</v>
+        <v>0.002953942180352291</v>
       </c>
       <c r="F98">
-        <v>0.001423481084774287</v>
+        <v>0.001160004292471199</v>
       </c>
       <c r="G98">
-        <v>2.288753800498073e-06</v>
+        <v>1.793262316143289e-06</v>
       </c>
       <c r="H98">
-        <v>0.01691787688519742</v>
+        <v>0.01257435044042157</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.008173360856752149</v>
+        <v>0.004718263672531077</v>
       </c>
       <c r="C99">
-        <v>0.005856430936679892</v>
+        <v>0.003937514768769084</v>
       </c>
       <c r="D99">
-        <v>6.999626075981356e-05</v>
+        <v>5.284517675145759e-05</v>
       </c>
       <c r="E99">
-        <v>0.003445044131029279</v>
+        <v>0.002821740879530388</v>
       </c>
       <c r="F99">
-        <v>0.001884479735342359</v>
+        <v>0.001336805969061478</v>
       </c>
       <c r="G99">
-        <v>3.286916242494011e-06</v>
+        <v>2.017184023769924e-06</v>
       </c>
       <c r="H99">
-        <v>0.01983338533907313</v>
+        <v>0.01432814360622678</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.007748651416370021</v>
+        <v>0.005249576241242169</v>
       </c>
       <c r="C100">
-        <v>0.005961002364241266</v>
+        <v>0.004337822112428938</v>
       </c>
       <c r="D100">
-        <v>6.801036225182161e-05</v>
+        <v>4.638188097696631e-05</v>
       </c>
       <c r="E100">
-        <v>0.003362614322394012</v>
+        <v>0.002802840766470914</v>
       </c>
       <c r="F100">
-        <v>0.001526432654442597</v>
+        <v>0.001478852897833808</v>
       </c>
       <c r="G100">
-        <v>2.67242840823422e-06</v>
+        <v>2.401541811991985e-06</v>
       </c>
       <c r="H100">
-        <v>0.0163907965168126</v>
+        <v>0.01614767528080982</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.006500749358811004</v>
+        <v>0.006184219121186386</v>
       </c>
       <c r="C101">
-        <v>0.005321041792709879</v>
+        <v>0.003822665674521684</v>
       </c>
       <c r="D101">
-        <v>5.317978196667925e-05</v>
+        <v>5.479106490566666e-05</v>
       </c>
       <c r="E101">
-        <v>0.003424051853819803</v>
+        <v>0.003340085976944558</v>
       </c>
       <c r="F101">
-        <v>0.00154402925827547</v>
+        <v>0.001204655157440408</v>
       </c>
       <c r="G101">
-        <v>2.491351603412871e-06</v>
+        <v>2.002766795576937e-06</v>
       </c>
       <c r="H101">
-        <v>0.01691583107733601</v>
+        <v>0.01444706929521851</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.006023718594156227</v>
+        <v>0.006043021535633435</v>
       </c>
       <c r="C102">
-        <v>0.003958008726840791</v>
+        <v>0.004813561769092337</v>
       </c>
       <c r="D102">
-        <v>4.85136563228428e-05</v>
+        <v>5.604637334754121e-05</v>
       </c>
       <c r="E102">
-        <v>0.00342682652409963</v>
+        <v>0.00399658381548932</v>
       </c>
       <c r="F102">
-        <v>0.001457490868247974</v>
+        <v>0.001474238066486794</v>
       </c>
       <c r="G102">
-        <v>2.188450536057046e-06</v>
+        <v>2.145617149344857e-06</v>
       </c>
       <c r="H102">
-        <v>0.01644880989496573</v>
+        <v>0.01724240001455661</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.007413540153959217</v>
+        <v>0.005974612332347908</v>
       </c>
       <c r="C103">
-        <v>0.004188369407590091</v>
+        <v>0.004353471124598124</v>
       </c>
       <c r="D103">
-        <v>6.036930177154967e-05</v>
+        <v>5.264995490061832e-05</v>
       </c>
       <c r="E103">
-        <v>0.003753116767027855</v>
+        <v>0.003071185174342992</v>
       </c>
       <c r="F103">
-        <v>0.001609192060275172</v>
+        <v>0.001407969784365585</v>
       </c>
       <c r="G103">
-        <v>2.301773495916264e-06</v>
+        <v>2.346856629871727e-06</v>
       </c>
       <c r="H103">
-        <v>0.01829319072296688</v>
+        <v>0.01728971523421845</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.00653875488245362</v>
+        <v>0.005299766224394356</v>
       </c>
       <c r="C104">
-        <v>0.007877620066584575</v>
+        <v>0.003921103197260991</v>
       </c>
       <c r="D104">
-        <v>5.711620770003997e-05</v>
+        <v>4.613464060067678e-05</v>
       </c>
       <c r="E104">
-        <v>0.003969850597688108</v>
+        <v>0.00257242489962301</v>
       </c>
       <c r="F104">
-        <v>0.002120870881782162</v>
+        <v>0.001298812717930801</v>
       </c>
       <c r="G104">
-        <v>3.258803755870548e-06</v>
+        <v>2.336836544961231e-06</v>
       </c>
       <c r="H104">
-        <v>0.02204568965449077</v>
+        <v>0.01399434101107131</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.007057263275671928</v>
+        <v>0.005566406547641821</v>
       </c>
       <c r="C105">
-        <v>0.005281859489740868</v>
+        <v>0.004424771996489305</v>
       </c>
       <c r="D105">
-        <v>7.653025523103322e-05</v>
+        <v>5.09706640378466e-05</v>
       </c>
       <c r="E105">
-        <v>0.002915064135493443</v>
+        <v>0.002997701777726655</v>
       </c>
       <c r="F105">
-        <v>0.001886098443629622</v>
+        <v>0.001517209236271822</v>
       </c>
       <c r="G105">
-        <v>3.391846188412408e-06</v>
+        <v>2.434362046219592e-06</v>
       </c>
       <c r="H105">
-        <v>0.02055279885699578</v>
+        <v>0.01699064457224742</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.006542381134477793</v>
+        <v>0.005481831739248376</v>
       </c>
       <c r="C106">
-        <v>0.005765787465592326</v>
+        <v>0.003978041012887864</v>
       </c>
       <c r="D106">
-        <v>6.402139197893448e-05</v>
+        <v>4.732666820258257e-05</v>
       </c>
       <c r="E106">
-        <v>0.003772757469515006</v>
+        <v>0.00271926876187581</v>
       </c>
       <c r="F106">
-        <v>0.00186681958094211</v>
+        <v>0.001815802130168699</v>
       </c>
       <c r="G106">
-        <v>2.978431208411949e-06</v>
+        <v>2.872850364169155e-06</v>
       </c>
       <c r="H106">
-        <v>0.01956635910710216</v>
+        <v>0.01905469222093464</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.007261855109658388</v>
+        <v>0.005415984900382519</v>
       </c>
       <c r="C107">
-        <v>0.006290986235449647</v>
+        <v>0.005482277979108093</v>
       </c>
       <c r="D107">
-        <v>5.840557486228856e-05</v>
+        <v>6.500891362883209e-05</v>
       </c>
       <c r="E107">
-        <v>0.004255970513333116</v>
+        <v>0.003392656915878655</v>
       </c>
       <c r="F107">
-        <v>0.001835736404241746</v>
+        <v>0.001414060260447</v>
       </c>
       <c r="G107">
-        <v>2.527893706300993e-06</v>
+        <v>1.855319446486753e-06</v>
       </c>
       <c r="H107">
-        <v>0.02140232783696948</v>
+        <v>0.01527409509589797</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.007671091009056306</v>
+        <v>0.005438798956306363</v>
       </c>
       <c r="C108">
-        <v>0.004908070645454056</v>
+        <v>0.00409133206543611</v>
       </c>
       <c r="D108">
-        <v>7.89337072424836e-05</v>
+        <v>6.628355321294513e-05</v>
       </c>
       <c r="E108">
-        <v>0.003655542463633142</v>
+        <v>0.002513766977822697</v>
       </c>
       <c r="F108">
-        <v>0.001496543978796923</v>
+        <v>0.001280160100019053</v>
       </c>
       <c r="G108">
-        <v>2.562391242284654e-06</v>
+        <v>1.884281942280574e-06</v>
       </c>
       <c r="H108">
-        <v>0.01792207435184808</v>
+        <v>0.01464399705905711</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.008100165910893201</v>
+        <v>0.005817135013392049</v>
       </c>
       <c r="C109">
-        <v>0.005586215487217753</v>
+        <v>0.005061419041673074</v>
       </c>
       <c r="D109">
-        <v>7.930406988065118e-05</v>
+        <v>4.569267161952875e-05</v>
       </c>
       <c r="E109">
-        <v>0.004412557205870702</v>
+        <v>0.002662855925382115</v>
       </c>
       <c r="F109">
-        <v>0.001674035032240301</v>
+        <v>0.001498711036113332</v>
       </c>
       <c r="G109">
-        <v>2.604352802914799e-06</v>
+        <v>2.319547407884979e-06</v>
       </c>
       <c r="H109">
-        <v>0.0179781619161321</v>
+        <v>0.01614715010617226</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.005535210369825022</v>
+        <v>0.004809879876116861</v>
       </c>
       <c r="C110">
-        <v>0.005617808904314008</v>
+        <v>0.003952221829342144</v>
       </c>
       <c r="D110">
-        <v>5.445324911835347e-05</v>
+        <v>4.767342815485233e-05</v>
       </c>
       <c r="E110">
-        <v>0.003446276953098017</v>
+        <v>0.002945142038502788</v>
       </c>
       <c r="F110">
-        <v>0.001587160348872659</v>
+        <v>0.001141291611003116</v>
       </c>
       <c r="G110">
-        <v>2.755300899454535e-06</v>
+        <v>2.153282437040102e-06</v>
       </c>
       <c r="H110">
-        <v>0.0166939067471166</v>
+        <v>0.01217995493368098</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.009675714562069081</v>
+        <v>0.004363935470084511</v>
       </c>
       <c r="C111">
-        <v>0.005738034118174896</v>
+        <v>0.003592428535507647</v>
       </c>
       <c r="D111">
-        <v>6.249142979514686e-05</v>
+        <v>4.742434385617223e-05</v>
       </c>
       <c r="E111">
-        <v>0.005187386673168887</v>
+        <v>0.002123529876717752</v>
       </c>
       <c r="F111">
-        <v>0.002220156168040783</v>
+        <v>0.001135299418686086</v>
       </c>
       <c r="G111">
-        <v>2.912912638264307e-06</v>
+        <v>1.882105421715739e-06</v>
       </c>
       <c r="H111">
-        <v>0.02617972878204501</v>
+        <v>0.01258506927514766</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.006232474408747</v>
+        <v>0.00509504655072907</v>
       </c>
       <c r="C112">
-        <v>0.006006451614370483</v>
+        <v>0.003088078776484137</v>
       </c>
       <c r="D112">
-        <v>6.756945770068856e-05</v>
+        <v>4.359938017131172e-05</v>
       </c>
       <c r="E112">
-        <v>0.003344084988276996</v>
+        <v>0.003222176354675693</v>
       </c>
       <c r="F112">
-        <v>0.001842136932961328</v>
+        <v>0.001167297548120428</v>
       </c>
       <c r="G112">
-        <v>3.092085254165382e-06</v>
+        <v>1.9762224889728e-06</v>
       </c>
       <c r="H112">
-        <v>0.01955818988459675</v>
+        <v>0.01361025340458885</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.007163966743166919</v>
+        <v>0.004903087476798716</v>
       </c>
       <c r="C113">
-        <v>0.005359393897630692</v>
+        <v>0.005595584570282654</v>
       </c>
       <c r="D113">
-        <v>5.936111915646827e-05</v>
+        <v>5.286905857835703e-05</v>
       </c>
       <c r="E113">
-        <v>0.004067113462535736</v>
+        <v>0.002777185004443538</v>
       </c>
       <c r="F113">
-        <v>0.001692565945101599</v>
+        <v>0.001333300656295954</v>
       </c>
       <c r="G113">
-        <v>2.752211346046799e-06</v>
+        <v>1.851364973430853e-06</v>
       </c>
       <c r="H113">
-        <v>0.01924816194099402</v>
+        <v>0.01472599968593329</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.007414579996830337</v>
+        <v>0.005821670097835905</v>
       </c>
       <c r="C114">
-        <v>0.006073884525836877</v>
+        <v>0.004908739287497013</v>
       </c>
       <c r="D114">
-        <v>6.848113375812699e-05</v>
+        <v>5.834024985688041e-05</v>
       </c>
       <c r="E114">
-        <v>0.00360446173295188</v>
+        <v>0.002940603773703654</v>
       </c>
       <c r="F114">
-        <v>0.00186922114689677</v>
+        <v>0.001399331609502159</v>
       </c>
       <c r="G114">
-        <v>2.880920650609285e-06</v>
+        <v>2.082989458362147e-06</v>
       </c>
       <c r="H114">
-        <v>0.02028874473334652</v>
+        <v>0.01622764400454352</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.006300240438421538</v>
+        <v>0.006147312443998141</v>
       </c>
       <c r="C115">
-        <v>0.005376971170822511</v>
+        <v>0.004544974588259467</v>
       </c>
       <c r="D115">
-        <v>6.578947373518573e-05</v>
+        <v>5.369706289324097e-05</v>
       </c>
       <c r="E115">
-        <v>0.003127806369385185</v>
+        <v>0.003485350368903242</v>
       </c>
       <c r="F115">
-        <v>0.002014776890290295</v>
+        <v>0.001436738005221073</v>
       </c>
       <c r="G115">
-        <v>3.276645075942772e-06</v>
+        <v>2.23277354748204e-06</v>
       </c>
       <c r="H115">
-        <v>0.02057512564340543</v>
+        <v>0.01614833829624467</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.007025610392662188</v>
+        <v>0.005188321890885283</v>
       </c>
       <c r="C116">
-        <v>0.005299126744491399</v>
+        <v>0.003278340540352137</v>
       </c>
       <c r="D116">
-        <v>6.538280446189222e-05</v>
+        <v>4.876950235368979e-05</v>
       </c>
       <c r="E116">
-        <v>0.003305042477581778</v>
+        <v>0.002900125756720585</v>
       </c>
       <c r="F116">
-        <v>0.001557722940078761</v>
+        <v>0.001281621902439634</v>
       </c>
       <c r="G116">
-        <v>2.551986893079686e-06</v>
+        <v>2.080765139675091e-06</v>
       </c>
       <c r="H116">
-        <v>0.01709020800266009</v>
+        <v>0.01409608439803441</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.006999884284439923</v>
+        <v>0.005432542994917171</v>
       </c>
       <c r="C117">
-        <v>0.006316162748758023</v>
+        <v>0.004616709574656314</v>
       </c>
       <c r="D117">
-        <v>7.288072092877145e-05</v>
+        <v>5.459053171153568e-05</v>
       </c>
       <c r="E117">
-        <v>0.003235527840527374</v>
+        <v>0.003215111715067834</v>
       </c>
       <c r="F117">
-        <v>0.001639674828696877</v>
+        <v>0.001382667872960145</v>
       </c>
       <c r="G117">
-        <v>2.48206174196728e-06</v>
+        <v>2.073267280957576e-06</v>
       </c>
       <c r="H117">
-        <v>0.0184896460061301</v>
+        <v>0.01504886840585342</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.007079851711031853</v>
+        <v>0.005643153481067626</v>
       </c>
       <c r="C118">
-        <v>0.005766218928577028</v>
+        <v>0.004506777428077103</v>
       </c>
       <c r="D118">
-        <v>5.770311526156329e-05</v>
+        <v>5.380801257790423e-05</v>
       </c>
       <c r="E118">
-        <v>0.003896171787947138</v>
+        <v>0.002250053730657295</v>
       </c>
       <c r="F118">
-        <v>0.001904733847930455</v>
+        <v>0.001356749094322454</v>
       </c>
       <c r="G118">
-        <v>3.548644914141335e-06</v>
+        <v>2.152707957063758e-06</v>
       </c>
       <c r="H118">
-        <v>0.02193100260329634</v>
+        <v>0.01468910087023178</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.007268916165608102</v>
+        <v>0.006831481238439201</v>
       </c>
       <c r="C119">
-        <v>0.005295728330664805</v>
+        <v>0.004591116778864554</v>
       </c>
       <c r="D119">
-        <v>5.544985255593302e-05</v>
+        <v>6.497864492851318e-05</v>
       </c>
       <c r="E119">
-        <v>0.003859021566525936</v>
+        <v>0.002993746428063051</v>
       </c>
       <c r="F119">
-        <v>0.001687196806706975</v>
+        <v>0.001321718336490637</v>
       </c>
       <c r="G119">
-        <v>2.342713697437585e-06</v>
+        <v>1.930965199348796e-06</v>
       </c>
       <c r="H119">
-        <v>0.02089237401495473</v>
+        <v>0.0150809173181952</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.009190871408286326</v>
+        <v>0.005081781351760774</v>
       </c>
       <c r="C120">
-        <v>0.004999743594926198</v>
+        <v>0.003559978106871203</v>
       </c>
       <c r="D120">
-        <v>8.040375989600895e-05</v>
+        <v>5.769933645977665e-05</v>
       </c>
       <c r="E120">
-        <v>0.003524146776689567</v>
+        <v>0.00292238666049922</v>
       </c>
       <c r="F120">
-        <v>0.002068791532031516</v>
+        <v>0.001198466057612234</v>
       </c>
       <c r="G120">
-        <v>3.522821129833696e-06</v>
+        <v>2.035851685951188e-06</v>
       </c>
       <c r="H120">
-        <v>0.02145898197150925</v>
+        <v>0.01317586190426753</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.007015840569822748</v>
+        <v>0.004796325756989275</v>
       </c>
       <c r="C121">
-        <v>0.004543563170572393</v>
+        <v>0.003676683184647783</v>
       </c>
       <c r="D121">
-        <v>7.063505526924208e-05</v>
+        <v>4.009024672856971e-05</v>
       </c>
       <c r="E121">
-        <v>0.003027310034719892</v>
+        <v>0.002916837622227304</v>
       </c>
       <c r="F121">
-        <v>0.001464969887193891</v>
+        <v>0.001442801840273158</v>
       </c>
       <c r="G121">
-        <v>2.614348336960954e-06</v>
+        <v>2.38265762780591e-06</v>
       </c>
       <c r="H121">
-        <v>0.01704230372572781</v>
+        <v>0.01539003575923525</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC1_bse.xlsx
+++ b/FOMC1_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004513492269201353</v>
+        <v>0.0001353240927979591</v>
       </c>
       <c r="C2">
-        <v>0.005471801825642927</v>
+        <v>0.0001985506480420468</v>
       </c>
       <c r="D2">
-        <v>5.915779065633815e-05</v>
+        <v>1.923003589036812e-06</v>
       </c>
       <c r="E2">
-        <v>0.002851224520368764</v>
+        <v>0.0001287313313329016</v>
       </c>
       <c r="F2">
-        <v>0.001289163202941777</v>
+        <v>5.850870133266001e-05</v>
       </c>
       <c r="G2">
-        <v>2.054227854782381e-06</v>
+        <v>1.061960104410281e-07</v>
       </c>
       <c r="H2">
-        <v>0.01373862230591013</v>
+        <v>0.0006507401799021096</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004972050478737625</v>
+        <v>0.002229631226648994</v>
       </c>
       <c r="C3">
-        <v>0.004045359304461895</v>
+        <v>0.002951366430127784</v>
       </c>
       <c r="D3">
-        <v>5.629656627995418e-05</v>
+        <v>2.505060835653559e-05</v>
       </c>
       <c r="E3">
-        <v>0.003074168420395217</v>
+        <v>0.00191127998770077</v>
       </c>
       <c r="F3">
-        <v>0.001223936385400821</v>
+        <v>0.0007494903199337696</v>
       </c>
       <c r="G3">
-        <v>1.700836048378928e-06</v>
+        <v>1.377234424769955e-06</v>
       </c>
       <c r="H3">
-        <v>0.01389308072283869</v>
+        <v>0.008472879959320837</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.005158877560438772</v>
+        <v>0.002370351769643828</v>
       </c>
       <c r="C4">
-        <v>0.003751820816176505</v>
+        <v>0.004702542955203568</v>
       </c>
       <c r="D4">
-        <v>5.078344786914802e-05</v>
+        <v>2.832384053844678e-05</v>
       </c>
       <c r="E4">
-        <v>0.00288081275769974</v>
+        <v>0.001711419971174837</v>
       </c>
       <c r="F4">
-        <v>0.001385058579560837</v>
+        <v>0.0007999071667104539</v>
       </c>
       <c r="G4">
-        <v>2.265190464315958e-06</v>
+        <v>1.500715421753431e-06</v>
       </c>
       <c r="H4">
-        <v>0.0155689470880594</v>
+        <v>0.008898290731678114</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006567519036818521</v>
+        <v>0.003240609105147424</v>
       </c>
       <c r="C5">
-        <v>0.003958869045650076</v>
+        <v>0.002441337263107304</v>
       </c>
       <c r="D5">
-        <v>6.17041381250641e-05</v>
+        <v>3.532501613166589e-05</v>
       </c>
       <c r="E5">
-        <v>0.003381200178330106</v>
+        <v>0.002413188719079667</v>
       </c>
       <c r="F5">
-        <v>0.001517894972385561</v>
+        <v>0.001122743587495698</v>
       </c>
       <c r="G5">
-        <v>2.510064729650629e-06</v>
+        <v>1.521418535078802e-06</v>
       </c>
       <c r="H5">
-        <v>0.01638889221666253</v>
+        <v>0.01154931160725475</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005171151604998265</v>
+        <v>0.001458701756944357</v>
       </c>
       <c r="C6">
-        <v>0.004534863125427368</v>
+        <v>0.001554408888759535</v>
       </c>
       <c r="D6">
-        <v>5.199135878183657e-05</v>
+        <v>1.107736422929499e-05</v>
       </c>
       <c r="E6">
-        <v>0.002783780963679775</v>
+        <v>0.00093902642697559</v>
       </c>
       <c r="F6">
-        <v>0.001742414156906348</v>
+        <v>0.0003865640227296068</v>
       </c>
       <c r="G6">
-        <v>2.645654626887341e-06</v>
+        <v>8.54515270135414e-07</v>
       </c>
       <c r="H6">
-        <v>0.01784694599367071</v>
+        <v>0.004232741585286641</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005536203267778544</v>
+        <v>0.00250232486202667</v>
       </c>
       <c r="C7">
-        <v>0.004204328629857319</v>
+        <v>0.002692983653996946</v>
       </c>
       <c r="D7">
-        <v>6.063507016888274e-05</v>
+        <v>2.34339139398751e-05</v>
       </c>
       <c r="E7">
-        <v>0.002845655639798433</v>
+        <v>0.002173654483375981</v>
       </c>
       <c r="F7">
-        <v>0.001292599316158164</v>
+        <v>0.001018648692476022</v>
       </c>
       <c r="G7">
-        <v>2.165504616938021e-06</v>
+        <v>1.48086705600586e-06</v>
       </c>
       <c r="H7">
-        <v>0.01440975969715069</v>
+        <v>0.01120809883152707</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005366050564006887</v>
+        <v>0.002286729306115267</v>
       </c>
       <c r="C8">
-        <v>0.004160855380174911</v>
+        <v>0.004043205165582501</v>
       </c>
       <c r="D8">
-        <v>5.222805532286641e-05</v>
+        <v>2.65652117806279e-05</v>
       </c>
       <c r="E8">
-        <v>0.002618537991901636</v>
+        <v>0.001881713709729928</v>
       </c>
       <c r="F8">
-        <v>0.001507967241114772</v>
+        <v>0.0006864479635334685</v>
       </c>
       <c r="G8">
-        <v>1.993795770226942e-06</v>
+        <v>1.76468261818189e-06</v>
       </c>
       <c r="H8">
-        <v>0.01633840500928118</v>
+        <v>0.00771838955563646</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004947926159870399</v>
+        <v>0.002301413199878011</v>
       </c>
       <c r="C9">
-        <v>0.003884998274309686</v>
+        <v>0.00254772266169444</v>
       </c>
       <c r="D9">
-        <v>4.711504349014681e-05</v>
+        <v>2.246156556618624e-05</v>
       </c>
       <c r="E9">
-        <v>0.002778298260960667</v>
+        <v>0.001891161011081292</v>
       </c>
       <c r="F9">
-        <v>0.001326885771529797</v>
+        <v>0.0008625846471968404</v>
       </c>
       <c r="G9">
-        <v>2.426615976536666e-06</v>
+        <v>1.694024914255838e-06</v>
       </c>
       <c r="H9">
-        <v>0.01545297819131836</v>
+        <v>0.009317355790518286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004526778367556963</v>
+        <v>0.002426774450311051</v>
       </c>
       <c r="C10">
-        <v>0.003670920788667762</v>
+        <v>0.003064798438601247</v>
       </c>
       <c r="D10">
-        <v>4.938112746493479e-05</v>
+        <v>3.305648544191483e-05</v>
       </c>
       <c r="E10">
-        <v>0.002658140465895532</v>
+        <v>0.001894984439637128</v>
       </c>
       <c r="F10">
-        <v>0.001215234837134816</v>
+        <v>0.000733706577919035</v>
       </c>
       <c r="G10">
-        <v>1.951855743419801e-06</v>
+        <v>1.320522610047093e-06</v>
       </c>
       <c r="H10">
-        <v>0.01259993148825777</v>
+        <v>0.008102789302741983</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.005092160071053263</v>
+        <v>9.88429270324744e-05</v>
       </c>
       <c r="C11">
-        <v>0.003837200645301598</v>
+        <v>0.0001710837559336177</v>
       </c>
       <c r="D11">
-        <v>4.178980697601639e-05</v>
+        <v>1.265191876631894e-06</v>
       </c>
       <c r="E11">
-        <v>0.00313997499394162</v>
+        <v>9.461343386811325e-05</v>
       </c>
       <c r="F11">
-        <v>0.001263619856023703</v>
+        <v>3.635634710188108e-05</v>
       </c>
       <c r="G11">
-        <v>2.356872572929247e-06</v>
+        <v>8.032583366154109e-08</v>
       </c>
       <c r="H11">
-        <v>0.01416115134138247</v>
+        <v>0.000401050795400045</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.005263514725316471</v>
+        <v>0.0001380220388816361</v>
       </c>
       <c r="C12">
-        <v>0.004314324994617303</v>
+        <v>0.000223726203173924</v>
       </c>
       <c r="D12">
-        <v>4.774746049601073e-05</v>
+        <v>1.306414671622979e-06</v>
       </c>
       <c r="E12">
-        <v>0.002664052515399682</v>
+        <v>9.867258311684652e-05</v>
       </c>
       <c r="F12">
-        <v>0.001344715102005817</v>
+        <v>3.696155425637714e-05</v>
       </c>
       <c r="G12">
-        <v>2.295925303540048e-06</v>
+        <v>8.217986749051996e-08</v>
       </c>
       <c r="H12">
-        <v>0.01425085597578751</v>
+        <v>0.0004336143608043946</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.005284173702788328</v>
+        <v>0.0002455894718393654</v>
       </c>
       <c r="C13">
-        <v>0.004476263047735729</v>
+        <v>0.0002992804768650539</v>
       </c>
       <c r="D13">
-        <v>6.731266469750816e-05</v>
+        <v>2.556434499125114e-06</v>
       </c>
       <c r="E13">
-        <v>0.002528306774335123</v>
+        <v>0.000271078207750842</v>
       </c>
       <c r="F13">
-        <v>0.001350922868934259</v>
+        <v>8.058759785150122e-05</v>
       </c>
       <c r="G13">
-        <v>2.649248805108531e-06</v>
+        <v>1.514791825306498e-07</v>
       </c>
       <c r="H13">
-        <v>0.01493691294945608</v>
+        <v>0.0009116171143696299</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005079751160660503</v>
+        <v>0.0001382722816289876</v>
       </c>
       <c r="C14">
-        <v>0.004135260725126235</v>
+        <v>0.0002388172212610919</v>
       </c>
       <c r="D14">
-        <v>5.242085134201293e-05</v>
+        <v>1.792171320840399e-06</v>
       </c>
       <c r="E14">
-        <v>0.003050312532518384</v>
+        <v>0.0001317966690543725</v>
       </c>
       <c r="F14">
-        <v>0.001278450304092646</v>
+        <v>4.150516911794798e-05</v>
       </c>
       <c r="G14">
-        <v>2.364274905177512e-06</v>
+        <v>8.811745739442865e-08</v>
       </c>
       <c r="H14">
-        <v>0.01359239604444369</v>
+        <v>0.0005057825544218099</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004282643556136357</v>
+        <v>0.002637320509484787</v>
       </c>
       <c r="C15">
-        <v>0.004347942732588705</v>
+        <v>0.007247112112957767</v>
       </c>
       <c r="D15">
-        <v>4.423101276401062e-05</v>
+        <v>2.532453434765953e-05</v>
       </c>
       <c r="E15">
-        <v>0.002458130418122059</v>
+        <v>0.002823053828764647</v>
       </c>
       <c r="F15">
-        <v>0.001086775263152736</v>
+        <v>0.000878834688587483</v>
       </c>
       <c r="G15">
-        <v>2.263393778419132e-06</v>
+        <v>1.602199014720462e-06</v>
       </c>
       <c r="H15">
-        <v>0.01236244694309382</v>
+        <v>0.009946533573019127</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005441104731368105</v>
+        <v>0.00322194982084188</v>
       </c>
       <c r="C16">
-        <v>0.004584978942063934</v>
+        <v>0.002728104044461223</v>
       </c>
       <c r="D16">
-        <v>5.637753884806027e-05</v>
+        <v>2.645611342441175e-05</v>
       </c>
       <c r="E16">
-        <v>0.002823439782000219</v>
+        <v>0.001852748155892376</v>
       </c>
       <c r="F16">
-        <v>0.001291926180155953</v>
+        <v>0.001035280276431778</v>
       </c>
       <c r="G16">
-        <v>2.342403702694991e-06</v>
+        <v>1.873911735580093e-06</v>
       </c>
       <c r="H16">
-        <v>0.01409535185106026</v>
+        <v>0.01105608061936272</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004824497137228873</v>
+        <v>0.0002058593118348019</v>
       </c>
       <c r="C17">
-        <v>0.006870217250638635</v>
+        <v>0.0001525498383176822</v>
       </c>
       <c r="D17">
-        <v>4.325379647300809e-05</v>
+        <v>2.037654414531345e-06</v>
       </c>
       <c r="E17">
-        <v>0.00324993927275153</v>
+        <v>0.0001471731985999111</v>
       </c>
       <c r="F17">
-        <v>0.001363537782388164</v>
+        <v>6.478499778312017e-05</v>
       </c>
       <c r="G17">
-        <v>2.489873561537533e-06</v>
+        <v>9.041874878043879e-08</v>
       </c>
       <c r="H17">
-        <v>0.01522299427838958</v>
+        <v>0.0008077970408287685</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.00548324383104075</v>
+        <v>0.003818139478411434</v>
       </c>
       <c r="C18">
-        <v>0.004098095633008213</v>
+        <v>0.004267733643248055</v>
       </c>
       <c r="D18">
-        <v>5.012194793088208e-05</v>
+        <v>3.085779784215357e-05</v>
       </c>
       <c r="E18">
-        <v>0.002776564387104772</v>
+        <v>0.002479075129904524</v>
       </c>
       <c r="F18">
-        <v>0.00131841893111586</v>
+        <v>0.001379401804431028</v>
       </c>
       <c r="G18">
-        <v>1.815100032857313e-06</v>
+        <v>2.114572022930575e-06</v>
       </c>
       <c r="H18">
-        <v>0.01458112877532493</v>
+        <v>0.01482395537403792</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.006104744427510388</v>
+        <v>0.002763607927308428</v>
       </c>
       <c r="C19">
-        <v>0.004298365449466089</v>
+        <v>0.00217972136137651</v>
       </c>
       <c r="D19">
-        <v>6.290633844704441e-05</v>
+        <v>2.534418367051594e-05</v>
       </c>
       <c r="E19">
-        <v>0.003501814844109512</v>
+        <v>0.002292644110435875</v>
       </c>
       <c r="F19">
-        <v>0.001611447086062184</v>
+        <v>0.0008562128546970093</v>
       </c>
       <c r="G19">
-        <v>2.414682239398868e-06</v>
+        <v>1.8248030064763e-06</v>
       </c>
       <c r="H19">
-        <v>0.01746732117985056</v>
+        <v>0.009711957529744459</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.006309329564174035</v>
+        <v>0.0001276896739913449</v>
       </c>
       <c r="C20">
-        <v>0.005619901055543232</v>
+        <v>0.0001896921733643798</v>
       </c>
       <c r="D20">
-        <v>5.386423798433392e-05</v>
+        <v>1.271690956860541e-06</v>
       </c>
       <c r="E20">
-        <v>0.003591909668764327</v>
+        <v>8.587761832406191e-05</v>
       </c>
       <c r="F20">
-        <v>0.001677246506596661</v>
+        <v>4.633844474064359e-05</v>
       </c>
       <c r="G20">
-        <v>2.766135931156122e-06</v>
+        <v>7.308689283637652e-08</v>
       </c>
       <c r="H20">
-        <v>0.01804810719787934</v>
+        <v>0.0005110916030315913</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.005606158156429683</v>
+        <v>0.0007116628156821906</v>
       </c>
       <c r="C21">
-        <v>0.003810301839932464</v>
+        <v>0.0007132564946982149</v>
       </c>
       <c r="D21">
-        <v>4.890323171687303e-05</v>
+        <v>6.268545337984643e-06</v>
       </c>
       <c r="E21">
-        <v>0.00303898921588082</v>
+        <v>0.0005396650056054491</v>
       </c>
       <c r="F21">
-        <v>0.001194998738263241</v>
+        <v>0.0002318682633858083</v>
       </c>
       <c r="G21">
-        <v>2.159642672301221e-06</v>
+        <v>3.525554419021222e-07</v>
       </c>
       <c r="H21">
-        <v>0.01370795435522705</v>
+        <v>0.002713448464591766</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.005046581334044534</v>
+        <v>0.0001263342057031181</v>
       </c>
       <c r="C22">
-        <v>0.006406987377953252</v>
+        <v>0.0001364792363629141</v>
       </c>
       <c r="D22">
-        <v>4.464602022461456e-05</v>
+        <v>1.173206722153999e-06</v>
       </c>
       <c r="E22">
-        <v>0.002771956942971188</v>
+        <v>8.516790854895782e-05</v>
       </c>
       <c r="F22">
-        <v>0.001521508408047201</v>
+        <v>3.632695061448377e-05</v>
       </c>
       <c r="G22">
-        <v>2.324639293607372e-06</v>
+        <v>7.48088026863071e-08</v>
       </c>
       <c r="H22">
-        <v>0.01637978576036843</v>
+        <v>0.0004665963021599098</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.005010644902774303</v>
+        <v>0.0002507263472338188</v>
       </c>
       <c r="C23">
-        <v>0.00471931362068269</v>
+        <v>0.000269936689454156</v>
       </c>
       <c r="D23">
-        <v>5.164275936802121e-05</v>
+        <v>2.601258015686025e-06</v>
       </c>
       <c r="E23">
-        <v>0.002664978905453702</v>
+        <v>0.0002146296645145459</v>
       </c>
       <c r="F23">
-        <v>0.001278850685161634</v>
+        <v>7.49506213516217e-05</v>
       </c>
       <c r="G23">
-        <v>1.803766955950484e-06</v>
+        <v>1.62339662079886e-07</v>
       </c>
       <c r="H23">
-        <v>0.01440849487940786</v>
+        <v>0.0009357800684691365</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.004950591067895307</v>
+        <v>0.001541400536281047</v>
       </c>
       <c r="C24">
-        <v>0.004161195548177157</v>
+        <v>0.001633187730649242</v>
       </c>
       <c r="D24">
-        <v>5.096724095633586e-05</v>
+        <v>1.223253744128451e-05</v>
       </c>
       <c r="E24">
-        <v>0.002678411734949495</v>
+        <v>0.0009578373062208721</v>
       </c>
       <c r="F24">
-        <v>0.001180473023174779</v>
+        <v>0.0003814581492084523</v>
       </c>
       <c r="G24">
-        <v>1.859958280620733e-06</v>
+        <v>9.067073958932607e-07</v>
       </c>
       <c r="H24">
-        <v>0.01270315779878305</v>
+        <v>0.003976359373730977</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.004347424297747854</v>
+        <v>0.003969493174466631</v>
       </c>
       <c r="C25">
-        <v>0.00457132459903596</v>
+        <v>0.00471996260579557</v>
       </c>
       <c r="D25">
-        <v>5.416008535989971e-05</v>
+        <v>4.420975684594389e-05</v>
       </c>
       <c r="E25">
-        <v>0.002794015471043847</v>
+        <v>0.003487940215927729</v>
       </c>
       <c r="F25">
-        <v>0.001192154901677071</v>
+        <v>0.001576903971588668</v>
       </c>
       <c r="G25">
-        <v>1.909257547591982e-06</v>
+        <v>2.838953921902132e-06</v>
       </c>
       <c r="H25">
-        <v>0.01311232324355307</v>
+        <v>0.01625113926564275</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.004973993255738353</v>
+        <v>0.001244802738136317</v>
       </c>
       <c r="C26">
-        <v>0.005832223727827132</v>
+        <v>0.002595973947571524</v>
       </c>
       <c r="D26">
-        <v>5.930214999146e-05</v>
+        <v>1.281462671835934e-05</v>
       </c>
       <c r="E26">
-        <v>0.002940843509423771</v>
+        <v>0.001098639553150093</v>
       </c>
       <c r="F26">
-        <v>0.00146257281527009</v>
+        <v>0.0003568422159605881</v>
       </c>
       <c r="G26">
-        <v>2.261806453275521e-06</v>
+        <v>8.889275350107427e-07</v>
       </c>
       <c r="H26">
-        <v>0.01541806022731204</v>
+        <v>0.003796033324169391</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.005660427053565301</v>
+        <v>0.0001874768582697536</v>
       </c>
       <c r="C27">
-        <v>0.003937161984836255</v>
+        <v>0.0002158165205015531</v>
       </c>
       <c r="D27">
-        <v>5.739409453890114e-05</v>
+        <v>1.620996470059741e-06</v>
       </c>
       <c r="E27">
-        <v>0.003023058967012728</v>
+        <v>0.0001143982102418757</v>
       </c>
       <c r="F27">
-        <v>0.001060914174012024</v>
+        <v>6.672893812386103e-05</v>
       </c>
       <c r="G27">
-        <v>1.989493748306141e-06</v>
+        <v>1.122283084157903e-07</v>
       </c>
       <c r="H27">
-        <v>0.01251064961977032</v>
+        <v>0.0006681036363216527</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.004445607203940449</v>
+        <v>0.003158726898910524</v>
       </c>
       <c r="C28">
-        <v>0.00430540235594513</v>
+        <v>0.003626926811201025</v>
       </c>
       <c r="D28">
-        <v>4.321671764874262e-05</v>
+        <v>3.301849438468415e-05</v>
       </c>
       <c r="E28">
-        <v>0.003043326955150808</v>
+        <v>0.002058992802875872</v>
       </c>
       <c r="F28">
-        <v>0.001045059040763215</v>
+        <v>0.0007071928424038872</v>
       </c>
       <c r="G28">
-        <v>2.086853559611012e-06</v>
+        <v>2.191666192826473e-06</v>
       </c>
       <c r="H28">
-        <v>0.01161759942664217</v>
+        <v>0.007538887636126052</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.004897868206559705</v>
+        <v>0.003784961031982883</v>
       </c>
       <c r="C29">
-        <v>0.00362668204677602</v>
+        <v>0.004042151331954049</v>
       </c>
       <c r="D29">
-        <v>4.625492293289661e-05</v>
+        <v>4.199352079802205e-05</v>
       </c>
       <c r="E29">
-        <v>0.002862838738166518</v>
+        <v>0.003111315247631447</v>
       </c>
       <c r="F29">
-        <v>0.00127787105127575</v>
+        <v>0.001408289304566777</v>
       </c>
       <c r="G29">
-        <v>2.181163284729169e-06</v>
+        <v>2.122885339926812e-06</v>
       </c>
       <c r="H29">
-        <v>0.01366042181013852</v>
+        <v>0.01498038885683386</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.005078485634725397</v>
+        <v>0.00231183346931464</v>
       </c>
       <c r="C30">
-        <v>0.004972574694709503</v>
+        <v>0.002546004472422902</v>
       </c>
       <c r="D30">
-        <v>4.575595958349608e-05</v>
+        <v>2.133627079843055e-05</v>
       </c>
       <c r="E30">
-        <v>0.003356405931275996</v>
+        <v>0.002049911035360725</v>
       </c>
       <c r="F30">
-        <v>0.00134743251675143</v>
+        <v>0.000529288137493349</v>
       </c>
       <c r="G30">
-        <v>2.637804521597858e-06</v>
+        <v>1.212308961386203e-06</v>
       </c>
       <c r="H30">
-        <v>0.01465986359234507</v>
+        <v>0.006192295317192002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.004655104149941595</v>
+        <v>0.003430544383346961</v>
       </c>
       <c r="C31">
-        <v>0.003839295623986742</v>
+        <v>0.003257114364162707</v>
       </c>
       <c r="D31">
-        <v>4.782160552286721e-05</v>
+        <v>3.876767638768011e-05</v>
       </c>
       <c r="E31">
-        <v>0.002579310610344202</v>
+        <v>0.002203105410274089</v>
       </c>
       <c r="F31">
-        <v>0.001230102345656545</v>
+        <v>0.001038579446363758</v>
       </c>
       <c r="G31">
-        <v>1.860246159012823e-06</v>
+        <v>2.034206576606747e-06</v>
       </c>
       <c r="H31">
-        <v>0.01343162677534232</v>
+        <v>0.01133834112389257</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.00435370747655615</v>
+        <v>0.004674627146819552</v>
       </c>
       <c r="C32">
-        <v>0.003856579733189619</v>
+        <v>0.005634086200924261</v>
       </c>
       <c r="D32">
-        <v>4.887988439977773e-05</v>
+        <v>6.720590639185802e-05</v>
       </c>
       <c r="E32">
-        <v>0.003244730141288163</v>
+        <v>0.00352583834008833</v>
       </c>
       <c r="F32">
-        <v>0.001258388575536505</v>
+        <v>0.001667163720372666</v>
       </c>
       <c r="G32">
-        <v>2.123461378901076e-06</v>
+        <v>2.566575973127386e-06</v>
       </c>
       <c r="H32">
-        <v>0.01407287266598419</v>
+        <v>0.01771989714176456</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.005928381791626954</v>
+        <v>0.00259918618423705</v>
       </c>
       <c r="C33">
-        <v>0.00339271708185918</v>
+        <v>0.00284110564684294</v>
       </c>
       <c r="D33">
-        <v>5.551349085233436e-05</v>
+        <v>2.851139561995269e-05</v>
       </c>
       <c r="E33">
-        <v>0.003135616096347966</v>
+        <v>0.00184957467279708</v>
       </c>
       <c r="F33">
-        <v>0.001360686671515657</v>
+        <v>0.0007387544891947234</v>
       </c>
       <c r="G33">
-        <v>1.96428494096374e-06</v>
+        <v>1.897953044215916e-06</v>
       </c>
       <c r="H33">
-        <v>0.01529336300587821</v>
+        <v>0.008741390129719851</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.005375119074951977</v>
+        <v>0.0007130619397015568</v>
       </c>
       <c r="C34">
-        <v>0.003462582804970822</v>
+        <v>0.0009435695191025896</v>
       </c>
       <c r="D34">
-        <v>5.149855453587557e-05</v>
+        <v>5.073845399746279e-06</v>
       </c>
       <c r="E34">
-        <v>0.002710468534394415</v>
+        <v>0.0005316753497295261</v>
       </c>
       <c r="F34">
-        <v>0.001327505657650176</v>
+        <v>0.0001996887441662991</v>
       </c>
       <c r="G34">
-        <v>2.063272094658835e-06</v>
+        <v>4.488580402662398e-07</v>
       </c>
       <c r="H34">
-        <v>0.01524519167500204</v>
+        <v>0.002419710100594346</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.005439054237424657</v>
+        <v>0.0005613401192032035</v>
       </c>
       <c r="C35">
-        <v>0.004275724582917719</v>
+        <v>0.0006702750564882255</v>
       </c>
       <c r="D35">
-        <v>5.569742760221824e-05</v>
+        <v>7.774320562387179e-06</v>
       </c>
       <c r="E35">
-        <v>0.002366401065249055</v>
+        <v>0.0004723039415535761</v>
       </c>
       <c r="F35">
-        <v>0.001507733787832883</v>
+        <v>0.0001738521481743364</v>
       </c>
       <c r="G35">
-        <v>2.403108176968761e-06</v>
+        <v>3.747173848435093e-07</v>
       </c>
       <c r="H35">
-        <v>0.0163036134849079</v>
+        <v>0.002077165813850154</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.005598245217429988</v>
+        <v>0.002169061939391961</v>
       </c>
       <c r="C36">
-        <v>0.005748490108379569</v>
+        <v>0.002152691510197253</v>
       </c>
       <c r="D36">
-        <v>5.930856422465546e-05</v>
+        <v>2.631353480288504e-05</v>
       </c>
       <c r="E36">
-        <v>0.002987908574056368</v>
+        <v>0.001464240539841959</v>
       </c>
       <c r="F36">
-        <v>0.001388751654890946</v>
+        <v>0.0007758416527740555</v>
       </c>
       <c r="G36">
-        <v>2.18674608058286e-06</v>
+        <v>1.231595681705588e-06</v>
       </c>
       <c r="H36">
-        <v>0.01533477935679076</v>
+        <v>0.007783906690623652</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.005376986536196738</v>
+        <v>0.001425782939177398</v>
       </c>
       <c r="C37">
-        <v>0.004166797696068866</v>
+        <v>0.001573709072973988</v>
       </c>
       <c r="D37">
-        <v>6.3392488569872e-05</v>
+        <v>1.343998429933358e-05</v>
       </c>
       <c r="E37">
-        <v>0.002868623881075241</v>
+        <v>0.001164534314354728</v>
       </c>
       <c r="F37">
-        <v>0.001240447610631503</v>
+        <v>0.0004832824350373768</v>
       </c>
       <c r="G37">
-        <v>1.880079453413251e-06</v>
+        <v>9.657271790274529e-07</v>
       </c>
       <c r="H37">
-        <v>0.01412867062242403</v>
+        <v>0.005408597840960152</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.005077752291839707</v>
+        <v>0.000119690414527986</v>
       </c>
       <c r="C38">
-        <v>0.00374408914598331</v>
+        <v>0.0002267093188634015</v>
       </c>
       <c r="D38">
-        <v>5.119961703337083e-05</v>
+        <v>1.298447539290082e-06</v>
       </c>
       <c r="E38">
-        <v>0.002295566552178988</v>
+        <v>0.0001337221087649598</v>
       </c>
       <c r="F38">
-        <v>0.001121174213041452</v>
+        <v>4.338392515399735e-05</v>
       </c>
       <c r="G38">
-        <v>1.835553614774465e-06</v>
+        <v>6.691117391642031e-08</v>
       </c>
       <c r="H38">
-        <v>0.01312522812994893</v>
+        <v>0.0005026070512356492</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.005488376150645104</v>
+        <v>0.001871652021333927</v>
       </c>
       <c r="C39">
-        <v>0.005371829131220991</v>
+        <v>0.002115094915428702</v>
       </c>
       <c r="D39">
-        <v>6.145896825523503e-05</v>
+        <v>1.680998611193551e-05</v>
       </c>
       <c r="E39">
-        <v>0.00331813004887463</v>
+        <v>0.001759718044864913</v>
       </c>
       <c r="F39">
-        <v>0.001500996858359238</v>
+        <v>0.0007430855422572712</v>
       </c>
       <c r="G39">
-        <v>2.332568152859503e-06</v>
+        <v>1.094593223460769e-06</v>
       </c>
       <c r="H39">
-        <v>0.01660878216277929</v>
+        <v>0.007409040764164506</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00507855554561964</v>
+        <v>0.004456971709744691</v>
       </c>
       <c r="C40">
-        <v>0.004567229823310996</v>
+        <v>0.004681664221910921</v>
       </c>
       <c r="D40">
-        <v>5.67144921729207e-05</v>
+        <v>4.798484099375311e-05</v>
       </c>
       <c r="E40">
-        <v>0.002797968011186379</v>
+        <v>0.003094659368299316</v>
       </c>
       <c r="F40">
-        <v>0.001454492871209555</v>
+        <v>0.001478108846374676</v>
       </c>
       <c r="G40">
-        <v>2.297387898434418e-06</v>
+        <v>2.936104677674251e-06</v>
       </c>
       <c r="H40">
-        <v>0.01554768905047979</v>
+        <v>0.01536689766243337</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.00529596501832447</v>
+        <v>0.0006266015635930592</v>
       </c>
       <c r="C41">
-        <v>0.003730038032806527</v>
+        <v>0.000732037839257934</v>
       </c>
       <c r="D41">
-        <v>4.541070808616116e-05</v>
+        <v>6.884545087573429e-06</v>
       </c>
       <c r="E41">
-        <v>0.003002131101656849</v>
+        <v>0.0003261453617404824</v>
       </c>
       <c r="F41">
-        <v>0.001240801177082361</v>
+        <v>0.0001518319323510541</v>
       </c>
       <c r="G41">
-        <v>1.910945693367129e-06</v>
+        <v>4.12284938405528e-07</v>
       </c>
       <c r="H41">
-        <v>0.01438971787026135</v>
+        <v>0.00150741741654563</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.004277647078974833</v>
+        <v>0.003013972132367159</v>
       </c>
       <c r="C42">
-        <v>0.003257653142775249</v>
+        <v>0.002768780576695758</v>
       </c>
       <c r="D42">
-        <v>4.246708472822988e-05</v>
+        <v>2.361814202109023e-05</v>
       </c>
       <c r="E42">
-        <v>0.002969326051572602</v>
+        <v>0.002100593511933291</v>
       </c>
       <c r="F42">
-        <v>0.001166153832445267</v>
+        <v>0.0009626291371877018</v>
       </c>
       <c r="G42">
-        <v>1.684569796579323e-06</v>
+        <v>1.806524673543043e-06</v>
       </c>
       <c r="H42">
-        <v>0.0130501629652919</v>
+        <v>0.01049174629201733</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00508673513226816</v>
+        <v>0.001965022059246377</v>
       </c>
       <c r="C43">
-        <v>0.005040016580346659</v>
+        <v>0.001697190763132794</v>
       </c>
       <c r="D43">
-        <v>5.08412542869043e-05</v>
+        <v>1.560813172451022e-05</v>
       </c>
       <c r="E43">
-        <v>0.002892399339229845</v>
+        <v>0.001213750142171934</v>
       </c>
       <c r="F43">
-        <v>0.001317667325449517</v>
+        <v>0.0004924919582102542</v>
       </c>
       <c r="G43">
-        <v>2.489807985032752e-06</v>
+        <v>9.001438963698009e-07</v>
       </c>
       <c r="H43">
-        <v>0.01461870186447533</v>
+        <v>0.005949362021811579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005802625935723187</v>
+        <v>0.0002693600626104681</v>
       </c>
       <c r="C44">
-        <v>0.003982852813517121</v>
+        <v>0.0005046394104628442</v>
       </c>
       <c r="D44">
-        <v>4.579368959673579e-05</v>
+        <v>3.077292790412825e-06</v>
       </c>
       <c r="E44">
-        <v>0.002966804579900292</v>
+        <v>0.000200536867142519</v>
       </c>
       <c r="F44">
-        <v>0.001346898770912332</v>
+        <v>0.0001052886799821711</v>
       </c>
       <c r="G44">
-        <v>2.053541666646287e-06</v>
+        <v>1.652057303063874e-07</v>
       </c>
       <c r="H44">
-        <v>0.0153557047807065</v>
+        <v>0.0009695428325856491</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005474906789057044</v>
+        <v>0.0001042560424392754</v>
       </c>
       <c r="C45">
-        <v>0.004276421680801089</v>
+        <v>0.0001174956019723178</v>
       </c>
       <c r="D45">
-        <v>6.398889254356155e-05</v>
+        <v>1.186843077608531e-06</v>
       </c>
       <c r="E45">
-        <v>0.002739483229427293</v>
+        <v>7.939523740805331e-05</v>
       </c>
       <c r="F45">
-        <v>0.001467751172794464</v>
+        <v>3.623306978347964e-05</v>
       </c>
       <c r="G45">
-        <v>2.29317416508844e-06</v>
+        <v>6.456317342221863e-08</v>
       </c>
       <c r="H45">
-        <v>0.01736714402346078</v>
+        <v>0.0003907231909491404</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.004761718776650964</v>
+        <v>0.002193796028739718</v>
       </c>
       <c r="C46">
-        <v>0.004557527229347162</v>
+        <v>0.002274142035480598</v>
       </c>
       <c r="D46">
-        <v>5.403079127932591e-05</v>
+        <v>2.12776863812855e-05</v>
       </c>
       <c r="E46">
-        <v>0.002959191303764243</v>
+        <v>0.001858667358276795</v>
       </c>
       <c r="F46">
-        <v>0.001121285110044959</v>
+        <v>0.000722039568356848</v>
       </c>
       <c r="G46">
-        <v>1.701767840626053e-06</v>
+        <v>1.339109851976816e-06</v>
       </c>
       <c r="H46">
-        <v>0.01284926995779142</v>
+        <v>0.008267909198959615</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005850947900892288</v>
+        <v>0.0005342759469700277</v>
       </c>
       <c r="C47">
-        <v>0.00372425126314011</v>
+        <v>0.0007888787262380661</v>
       </c>
       <c r="D47">
-        <v>4.858424578920464e-05</v>
+        <v>6.443846999791014e-06</v>
       </c>
       <c r="E47">
-        <v>0.003414843879940492</v>
+        <v>0.0003872993591979371</v>
       </c>
       <c r="F47">
-        <v>0.001316428468017959</v>
+        <v>0.0001881328436355</v>
       </c>
       <c r="G47">
-        <v>2.314761602141534e-06</v>
+        <v>3.414819494546861e-07</v>
       </c>
       <c r="H47">
-        <v>0.01499301621940248</v>
+        <v>0.002029273449140008</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005101177848051625</v>
+        <v>0.001967855902834768</v>
       </c>
       <c r="C48">
-        <v>0.004688963345398285</v>
+        <v>0.005717873879050139</v>
       </c>
       <c r="D48">
-        <v>5.088684210978319e-05</v>
+        <v>1.700710898375043e-05</v>
       </c>
       <c r="E48">
-        <v>0.003132581604415165</v>
+        <v>0.001613924138240532</v>
       </c>
       <c r="F48">
-        <v>0.001333224771911962</v>
+        <v>0.0006019420544444615</v>
       </c>
       <c r="G48">
-        <v>2.139513898424963e-06</v>
+        <v>1.411475216610124e-06</v>
       </c>
       <c r="H48">
-        <v>0.01491555716276742</v>
+        <v>0.006558437987634374</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005492398580159793</v>
+        <v>0.0002063764585966701</v>
       </c>
       <c r="C49">
-        <v>0.004120394947206391</v>
+        <v>0.0001979748806532122</v>
       </c>
       <c r="D49">
-        <v>5.522344079738993e-05</v>
+        <v>1.728403253524894e-06</v>
       </c>
       <c r="E49">
-        <v>0.003154797475690186</v>
+        <v>0.0001754999717153647</v>
       </c>
       <c r="F49">
-        <v>0.00112494466980744</v>
+        <v>7.567956856185946e-05</v>
       </c>
       <c r="G49">
-        <v>2.040760802991035e-06</v>
+        <v>1.498299902293086e-07</v>
       </c>
       <c r="H49">
-        <v>0.01362067014055931</v>
+        <v>0.0008201482569117032</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005979968551963799</v>
+        <v>0.0009449702282052343</v>
       </c>
       <c r="C50">
-        <v>0.003992779834718184</v>
+        <v>0.0008523091729788169</v>
       </c>
       <c r="D50">
-        <v>6.087084291878427e-05</v>
+        <v>9.246992984992025e-06</v>
       </c>
       <c r="E50">
-        <v>0.003174315689657518</v>
+        <v>0.0006621053512148298</v>
       </c>
       <c r="F50">
-        <v>0.001287212211163408</v>
+        <v>0.0002682354876709424</v>
       </c>
       <c r="G50">
-        <v>1.980191905471447e-06</v>
+        <v>5.98215880880766e-07</v>
       </c>
       <c r="H50">
-        <v>0.01390309381779678</v>
+        <v>0.002805652326066956</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.006698353253953914</v>
+        <v>0.001577916513785959</v>
       </c>
       <c r="C51">
-        <v>0.004662665031807514</v>
+        <v>0.001281436353051439</v>
       </c>
       <c r="D51">
-        <v>5.96812235749872e-05</v>
+        <v>1.546017494222074e-05</v>
       </c>
       <c r="E51">
-        <v>0.00346234517250006</v>
+        <v>0.001317164762657156</v>
       </c>
       <c r="F51">
-        <v>0.001577888271854989</v>
+        <v>0.0004512058132251276</v>
       </c>
       <c r="G51">
-        <v>2.397015854686872e-06</v>
+        <v>9.851667856214215e-07</v>
       </c>
       <c r="H51">
-        <v>0.01650112419116028</v>
+        <v>0.004938936291689692</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005162192864861368</v>
+        <v>0.0003467940709229314</v>
       </c>
       <c r="C52">
-        <v>0.003253227709779367</v>
+        <v>0.000459385648362163</v>
       </c>
       <c r="D52">
-        <v>5.357813220027469e-05</v>
+        <v>3.787975349709664e-06</v>
       </c>
       <c r="E52">
-        <v>0.002964525244482505</v>
+        <v>0.0002762078357841289</v>
       </c>
       <c r="F52">
-        <v>0.001355980149847741</v>
+        <v>0.0001502284484074478</v>
       </c>
       <c r="G52">
-        <v>2.07173662086544e-06</v>
+        <v>1.911860407924855e-07</v>
       </c>
       <c r="H52">
-        <v>0.01462000035708728</v>
+        <v>0.00153070315521599</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.004455804925754874</v>
+        <v>0.0004271916946874638</v>
       </c>
       <c r="C53">
-        <v>0.004155587833186163</v>
+        <v>0.0005579967960596534</v>
       </c>
       <c r="D53">
-        <v>4.036610434103989e-05</v>
+        <v>4.551493936188748e-06</v>
       </c>
       <c r="E53">
-        <v>0.003110218074057628</v>
+        <v>0.000418076344984448</v>
       </c>
       <c r="F53">
-        <v>0.001453962069021478</v>
+        <v>0.0001258195624735217</v>
       </c>
       <c r="G53">
-        <v>2.129482573646103e-06</v>
+        <v>3.30354045755467e-07</v>
       </c>
       <c r="H53">
-        <v>0.01653362831888392</v>
+        <v>0.001346366313829539</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005538922759895148</v>
+        <v>0.002582347589676745</v>
       </c>
       <c r="C54">
-        <v>0.004583756611724073</v>
+        <v>0.004657945331945757</v>
       </c>
       <c r="D54">
-        <v>5.810577126360848e-05</v>
+        <v>2.55615232142174e-05</v>
       </c>
       <c r="E54">
-        <v>0.002912903400557165</v>
+        <v>0.001837795024990348</v>
       </c>
       <c r="F54">
-        <v>0.001417032435782089</v>
+        <v>0.001019054708918421</v>
       </c>
       <c r="G54">
-        <v>2.292880273450889e-06</v>
+        <v>1.698124195270301e-06</v>
       </c>
       <c r="H54">
-        <v>0.01491947748431161</v>
+        <v>0.0108274230099975</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004448884472264837</v>
+        <v>0.0002672845884069652</v>
       </c>
       <c r="C55">
-        <v>0.003942891838333747</v>
+        <v>0.0004437111859169534</v>
       </c>
       <c r="D55">
-        <v>5.322771823043716e-05</v>
+        <v>2.964864991988819e-06</v>
       </c>
       <c r="E55">
-        <v>0.002461528507666026</v>
+        <v>0.0002109829404394546</v>
       </c>
       <c r="F55">
-        <v>0.001204503726167424</v>
+        <v>9.467214615683202e-05</v>
       </c>
       <c r="G55">
-        <v>1.8553976532818e-06</v>
+        <v>1.668306345371585e-07</v>
       </c>
       <c r="H55">
-        <v>0.01388148830732112</v>
+        <v>0.001069607104401852</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.004498204823740017</v>
+        <v>0.001624702006644443</v>
       </c>
       <c r="C56">
-        <v>0.003653799859531361</v>
+        <v>0.002533251103543956</v>
       </c>
       <c r="D56">
-        <v>5.049042249992716e-05</v>
+        <v>1.602271461838728e-05</v>
       </c>
       <c r="E56">
-        <v>0.002474864840113217</v>
+        <v>0.001266649810098133</v>
       </c>
       <c r="F56">
-        <v>0.001305021092369608</v>
+        <v>0.0005429144625467392</v>
       </c>
       <c r="G56">
-        <v>1.916576575324116e-06</v>
+        <v>1.048348765136087e-06</v>
       </c>
       <c r="H56">
-        <v>0.01413591363224865</v>
+        <v>0.006603479349221392</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.00464666519532772</v>
+        <v>0.0001382007942068896</v>
       </c>
       <c r="C57">
-        <v>0.003937671270203985</v>
+        <v>0.0002120434577851975</v>
       </c>
       <c r="D57">
-        <v>4.887186261123883e-05</v>
+        <v>1.404472855971074e-06</v>
       </c>
       <c r="E57">
-        <v>0.002870838823958126</v>
+        <v>0.0001378350596571127</v>
       </c>
       <c r="F57">
-        <v>0.001407084124479563</v>
+        <v>5.616707746290047e-05</v>
       </c>
       <c r="G57">
-        <v>1.865424722753028e-06</v>
+        <v>1.133106081537419e-07</v>
       </c>
       <c r="H57">
-        <v>0.01558862817974508</v>
+        <v>0.0006316221950831885</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005855855263670266</v>
+        <v>0.0002484281542551731</v>
       </c>
       <c r="C58">
-        <v>0.004853160118263013</v>
+        <v>0.0002272532868166262</v>
       </c>
       <c r="D58">
-        <v>5.524755743517161e-05</v>
+        <v>1.874940800664107e-06</v>
       </c>
       <c r="E58">
-        <v>0.003730267757985524</v>
+        <v>0.0001645019047301242</v>
       </c>
       <c r="F58">
-        <v>0.001220888105350975</v>
+        <v>8.544860879752818e-05</v>
       </c>
       <c r="G58">
-        <v>1.763633013439984e-06</v>
+        <v>1.962959786704472e-07</v>
       </c>
       <c r="H58">
-        <v>0.01360610655112614</v>
+        <v>0.000927692910143816</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005450776888381936</v>
+        <v>0.0003977178516250547</v>
       </c>
       <c r="C59">
-        <v>0.004610275404456713</v>
+        <v>0.000429907051168063</v>
       </c>
       <c r="D59">
-        <v>5.490145283809896e-05</v>
+        <v>3.934238595175215e-06</v>
       </c>
       <c r="E59">
-        <v>0.002700276494698636</v>
+        <v>0.0002642204330727693</v>
       </c>
       <c r="F59">
-        <v>0.001423174713669957</v>
+        <v>0.0001119884794108941</v>
       </c>
       <c r="G59">
-        <v>2.193913607300093e-06</v>
+        <v>1.958194027205563e-07</v>
       </c>
       <c r="H59">
-        <v>0.01563633408948413</v>
+        <v>0.00119444220871757</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.005108472059354709</v>
+        <v>0.0009006318840832961</v>
       </c>
       <c r="C60">
-        <v>0.005254251339185466</v>
+        <v>0.001112577082723287</v>
       </c>
       <c r="D60">
-        <v>5.001092510518895e-05</v>
+        <v>1.103388248216565e-05</v>
       </c>
       <c r="E60">
-        <v>0.002967193384678767</v>
+        <v>0.0006875741691268477</v>
       </c>
       <c r="F60">
-        <v>0.001463424647627204</v>
+        <v>0.000256216309294081</v>
       </c>
       <c r="G60">
-        <v>2.208511165497135e-06</v>
+        <v>5.006420158307536e-07</v>
       </c>
       <c r="H60">
-        <v>0.01678189764487368</v>
+        <v>0.002939175754242458</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.005852900546165059</v>
+        <v>7.997324884632719e-05</v>
       </c>
       <c r="C61">
-        <v>0.003965632273967908</v>
+        <v>0.0002181669492174638</v>
       </c>
       <c r="D61">
-        <v>4.470696179995859e-05</v>
+        <v>9.10685245101353e-07</v>
       </c>
       <c r="E61">
-        <v>0.003071024864128536</v>
+        <v>8.353675298187953e-05</v>
       </c>
       <c r="F61">
-        <v>0.001379987824660626</v>
+        <v>3.671673305287496e-05</v>
       </c>
       <c r="G61">
-        <v>2.302349127045748e-06</v>
+        <v>6.239147404135837e-08</v>
       </c>
       <c r="H61">
-        <v>0.0164349015929308</v>
+        <v>0.0003723582680775881</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.00522474656119238</v>
+        <v>0.002269150010592209</v>
       </c>
       <c r="C62">
-        <v>0.003965389677226043</v>
+        <v>0.001391755759027812</v>
       </c>
       <c r="D62">
-        <v>5.330302962073777e-05</v>
+        <v>2.164060893697235e-05</v>
       </c>
       <c r="E62">
-        <v>0.002835448924376817</v>
+        <v>0.001403762122652758</v>
       </c>
       <c r="F62">
-        <v>0.001427649119910372</v>
+        <v>0.0006627986510678778</v>
       </c>
       <c r="G62">
-        <v>2.229255382166669e-06</v>
+        <v>1.439732430373325e-06</v>
       </c>
       <c r="H62">
-        <v>0.01589438771511667</v>
+        <v>0.007040077432246577</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.005176245157433697</v>
+        <v>0.002008402014382006</v>
       </c>
       <c r="C63">
-        <v>0.004266910655250834</v>
+        <v>0.002788963889054813</v>
       </c>
       <c r="D63">
-        <v>4.182971527653972e-05</v>
+        <v>2.507057468378123e-05</v>
       </c>
       <c r="E63">
-        <v>0.002472976135553966</v>
+        <v>0.001806217214143895</v>
       </c>
       <c r="F63">
-        <v>0.001138892295530854</v>
+        <v>0.0007631914662106651</v>
       </c>
       <c r="G63">
-        <v>2.065368303287387e-06</v>
+        <v>1.616149648193422e-06</v>
       </c>
       <c r="H63">
-        <v>0.01354574425213581</v>
+        <v>0.008102234977438245</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.005815852700107509</v>
+        <v>0.002209348625019432</v>
       </c>
       <c r="C64">
-        <v>0.004937162293119596</v>
+        <v>0.001812705756573999</v>
       </c>
       <c r="D64">
-        <v>5.219732932363125e-05</v>
+        <v>2.258561609287259e-05</v>
       </c>
       <c r="E64">
-        <v>0.002672211667293092</v>
+        <v>0.001719620362066327</v>
       </c>
       <c r="F64">
-        <v>0.001486506358913192</v>
+        <v>0.0006546022381178391</v>
       </c>
       <c r="G64">
-        <v>2.175029780805179e-06</v>
+        <v>1.359144104481446e-06</v>
       </c>
       <c r="H64">
-        <v>0.01731580452580269</v>
+        <v>0.008351016660777481</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004729785836289699</v>
+        <v>0.004248355030542769</v>
       </c>
       <c r="C65">
-        <v>0.004469190257329711</v>
+        <v>0.00351833919104285</v>
       </c>
       <c r="D65">
-        <v>4.600725163237948e-05</v>
+        <v>2.904669799133262e-05</v>
       </c>
       <c r="E65">
-        <v>0.002823713418986704</v>
+        <v>0.002487947859200751</v>
       </c>
       <c r="F65">
-        <v>0.001135424712313464</v>
+        <v>0.001093385505333592</v>
       </c>
       <c r="G65">
-        <v>1.991920924003481e-06</v>
+        <v>2.310786150366696e-06</v>
       </c>
       <c r="H65">
-        <v>0.01347284804673452</v>
+        <v>0.0132669707007644</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.006250671956431622</v>
+        <v>0.002243863140977514</v>
       </c>
       <c r="C66">
-        <v>0.004360502007782424</v>
+        <v>0.001832269770610625</v>
       </c>
       <c r="D66">
-        <v>4.169781618627367e-05</v>
+        <v>2.153813480180316e-05</v>
       </c>
       <c r="E66">
-        <v>0.003843381820769367</v>
+        <v>0.001202238443230259</v>
       </c>
       <c r="F66">
-        <v>0.001469154721378837</v>
+        <v>0.000767556594014468</v>
       </c>
       <c r="G66">
-        <v>2.253832016059908e-06</v>
+        <v>1.200166957066672e-06</v>
       </c>
       <c r="H66">
-        <v>0.01716865511877711</v>
+        <v>0.008397411309097198</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.005619527908304854</v>
+        <v>0.002562226864853285</v>
       </c>
       <c r="C67">
-        <v>0.004212022648710253</v>
+        <v>0.002221538317870968</v>
       </c>
       <c r="D67">
-        <v>6.776525221183264e-05</v>
+        <v>2.451414641679673e-05</v>
       </c>
       <c r="E67">
-        <v>0.003088947733635361</v>
+        <v>0.002378465766949173</v>
       </c>
       <c r="F67">
-        <v>0.001350428879256357</v>
+        <v>0.0009127035669847812</v>
       </c>
       <c r="G67">
-        <v>2.002435920984902e-06</v>
+        <v>1.901886213389509e-06</v>
       </c>
       <c r="H67">
-        <v>0.01500003936343673</v>
+        <v>0.0090012610918031</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.005834654004898962</v>
+        <v>0.002321134593775745</v>
       </c>
       <c r="C68">
-        <v>0.003984673979058514</v>
+        <v>0.002526874525091683</v>
       </c>
       <c r="D68">
-        <v>5.497118178257325e-05</v>
+        <v>2.336362436489719e-05</v>
       </c>
       <c r="E68">
-        <v>0.002797370302843999</v>
+        <v>0.002247667327023574</v>
       </c>
       <c r="F68">
-        <v>0.001305341943790298</v>
+        <v>0.0007108879825167365</v>
       </c>
       <c r="G68">
-        <v>1.715515021551384e-06</v>
+        <v>1.1862405099813e-06</v>
       </c>
       <c r="H68">
-        <v>0.01488434559472738</v>
+        <v>0.007878575298707721</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.005686727698297405</v>
+        <v>0.0001339344954462912</v>
       </c>
       <c r="C69">
-        <v>0.004785167098588871</v>
+        <v>0.0001266969263453322</v>
       </c>
       <c r="D69">
-        <v>5.851993710952018e-05</v>
+        <v>1.097787462343814e-06</v>
       </c>
       <c r="E69">
-        <v>0.002550907048400424</v>
+        <v>0.0001180746596130488</v>
       </c>
       <c r="F69">
-        <v>0.001569262973383598</v>
+        <v>3.493121668420032e-05</v>
       </c>
       <c r="G69">
-        <v>2.732047863820973e-06</v>
+        <v>9.008509950908516e-08</v>
       </c>
       <c r="H69">
-        <v>0.01621112577265814</v>
+        <v>0.0004111928073003274</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004992165197356753</v>
+        <v>0.0001174121775433352</v>
       </c>
       <c r="C70">
-        <v>0.003755674351361678</v>
+        <v>0.0001532557694364984</v>
       </c>
       <c r="D70">
-        <v>6.410442894210663e-05</v>
+        <v>1.116926270939614e-06</v>
       </c>
       <c r="E70">
-        <v>0.002382347718572169</v>
+        <v>8.457322900197022e-05</v>
       </c>
       <c r="F70">
-        <v>0.001181336642121927</v>
+        <v>3.662031247288855e-05</v>
       </c>
       <c r="G70">
-        <v>1.999628791496374e-06</v>
+        <v>7.503930345172365e-08</v>
       </c>
       <c r="H70">
-        <v>0.01324069751897943</v>
+        <v>0.0003717377563507262</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.005149379253827482</v>
+        <v>0.0001382530158785212</v>
       </c>
       <c r="C71">
-        <v>0.003780870386353319</v>
+        <v>0.0001795039036202391</v>
       </c>
       <c r="D71">
-        <v>5.134811424841764e-05</v>
+        <v>1.531174281096255e-06</v>
       </c>
       <c r="E71">
-        <v>0.002922975232141696</v>
+        <v>0.0001039274799350513</v>
       </c>
       <c r="F71">
-        <v>0.001340547072265174</v>
+        <v>4.477193413118082e-05</v>
       </c>
       <c r="G71">
-        <v>1.647127199545163e-06</v>
+        <v>9.447634600422331e-08</v>
       </c>
       <c r="H71">
-        <v>0.01551292487448974</v>
+        <v>0.0004779487443950304</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.005012242345298662</v>
+        <v>0.002928395752169731</v>
       </c>
       <c r="C72">
-        <v>0.004640957774719153</v>
+        <v>0.001913865723349134</v>
       </c>
       <c r="D72">
-        <v>5.904086141747578e-05</v>
+        <v>3.169959044143066e-05</v>
       </c>
       <c r="E72">
-        <v>0.002420664543446018</v>
+        <v>0.001976101541782519</v>
       </c>
       <c r="F72">
-        <v>0.001208490387637463</v>
+        <v>0.0008334977581101006</v>
       </c>
       <c r="G72">
-        <v>1.725336141310463e-06</v>
+        <v>1.711102617828306e-06</v>
       </c>
       <c r="H72">
-        <v>0.01401998542676254</v>
+        <v>0.009866900557005219</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.006231485355507078</v>
+        <v>0.0004663160146581612</v>
       </c>
       <c r="C73">
-        <v>0.004099645426714135</v>
+        <v>0.0003769254838454952</v>
       </c>
       <c r="D73">
-        <v>5.127528772213733e-05</v>
+        <v>5.73414026933681e-06</v>
       </c>
       <c r="E73">
-        <v>0.003670026135190441</v>
+        <v>0.0004183973001963131</v>
       </c>
       <c r="F73">
-        <v>0.001584142557222827</v>
+        <v>0.0001430732702002618</v>
       </c>
       <c r="G73">
-        <v>2.500136331864006e-06</v>
+        <v>2.900085779379436e-07</v>
       </c>
       <c r="H73">
-        <v>0.01711819741559843</v>
+        <v>0.001853783702713228</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.006489174840251155</v>
+        <v>0.004585480721967197</v>
       </c>
       <c r="C74">
-        <v>0.004982482537551238</v>
+        <v>0.003885036291912997</v>
       </c>
       <c r="D74">
-        <v>6.316324027082853e-05</v>
+        <v>5.821720024129229e-05</v>
       </c>
       <c r="E74">
-        <v>0.003287172353675306</v>
+        <v>0.003861393960680207</v>
       </c>
       <c r="F74">
-        <v>0.001455573115668798</v>
+        <v>0.001271208830726055</v>
       </c>
       <c r="G74">
-        <v>2.32876263984939e-06</v>
+        <v>2.301909689726769e-06</v>
       </c>
       <c r="H74">
-        <v>0.01690278832361223</v>
+        <v>0.01447776133881137</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.005204695618870163</v>
+        <v>0.003690790032078539</v>
       </c>
       <c r="C75">
-        <v>0.003643622858487787</v>
+        <v>0.002637537360929283</v>
       </c>
       <c r="D75">
-        <v>5.279083079514579e-05</v>
+        <v>3.71967231023635e-05</v>
       </c>
       <c r="E75">
-        <v>0.002833306507931483</v>
+        <v>0.003228665199011685</v>
       </c>
       <c r="F75">
-        <v>0.001281000466976774</v>
+        <v>0.001256190222885255</v>
       </c>
       <c r="G75">
-        <v>2.027827542267776e-06</v>
+        <v>2.535207402887945e-06</v>
       </c>
       <c r="H75">
-        <v>0.01484358969083938</v>
+        <v>0.01307844043389383</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.00533554987027467</v>
+        <v>0.00173009250231557</v>
       </c>
       <c r="C76">
-        <v>0.005351849425018733</v>
+        <v>0.003007977212111515</v>
       </c>
       <c r="D76">
-        <v>7.26975141969706e-05</v>
+        <v>2.457082514959159e-05</v>
       </c>
       <c r="E76">
-        <v>0.002809755426881677</v>
+        <v>0.001289752592703951</v>
       </c>
       <c r="F76">
-        <v>0.001648685665912108</v>
+        <v>0.0006499388561517595</v>
       </c>
       <c r="G76">
-        <v>2.662046762013177e-06</v>
+        <v>1.29797263272961e-06</v>
       </c>
       <c r="H76">
-        <v>0.01652279728616209</v>
+        <v>0.006403646221552381</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.005604026237388287</v>
+        <v>0.001932714047706068</v>
       </c>
       <c r="C77">
-        <v>0.004042854844595791</v>
+        <v>0.003036468822501485</v>
       </c>
       <c r="D77">
-        <v>4.723952872121108e-05</v>
+        <v>2.074106838287173e-05</v>
       </c>
       <c r="E77">
-        <v>0.004076142352748996</v>
+        <v>0.00176863639163162</v>
       </c>
       <c r="F77">
-        <v>0.001189449274099569</v>
+        <v>0.0004846645343056162</v>
       </c>
       <c r="G77">
-        <v>1.948702771004188e-06</v>
+        <v>1.35120977457906e-06</v>
       </c>
       <c r="H77">
-        <v>0.01374265399460383</v>
+        <v>0.0062004218529902</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.005244738430707041</v>
+        <v>0.003360928735134962</v>
       </c>
       <c r="C78">
-        <v>0.004151017515005197</v>
+        <v>0.003295378195074888</v>
       </c>
       <c r="D78">
-        <v>5.050856327808258e-05</v>
+        <v>3.394327380126874e-05</v>
       </c>
       <c r="E78">
-        <v>0.003431875747418656</v>
+        <v>0.002228691308388186</v>
       </c>
       <c r="F78">
-        <v>0.001230119886235751</v>
+        <v>0.001379606707683792</v>
       </c>
       <c r="G78">
-        <v>1.947323337238419e-06</v>
+        <v>2.409952534399225e-06</v>
       </c>
       <c r="H78">
-        <v>0.01394412436934217</v>
+        <v>0.01446058795172673</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.005277235858802042</v>
+        <v>0.003065293341728754</v>
       </c>
       <c r="C79">
-        <v>0.003956142918399616</v>
+        <v>0.002483361610913336</v>
       </c>
       <c r="D79">
-        <v>4.990781912188214e-05</v>
+        <v>2.257455599348248e-05</v>
       </c>
       <c r="E79">
-        <v>0.00309136026535389</v>
+        <v>0.001480184096849446</v>
       </c>
       <c r="F79">
-        <v>0.00129857880483307</v>
+        <v>0.0006949342010662917</v>
       </c>
       <c r="G79">
-        <v>2.232600745834887e-06</v>
+        <v>1.884457760156997e-06</v>
       </c>
       <c r="H79">
-        <v>0.01494679250671931</v>
+        <v>0.00782650226102897</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.006911026020414501</v>
+        <v>0.0001403596636047176</v>
       </c>
       <c r="C80">
-        <v>0.004525386150573839</v>
+        <v>0.0001704835938212016</v>
       </c>
       <c r="D80">
-        <v>6.217178652908432e-05</v>
+        <v>1.354495289026815e-06</v>
       </c>
       <c r="E80">
-        <v>0.003053767860383805</v>
+        <v>7.315915959656996e-05</v>
       </c>
       <c r="F80">
-        <v>0.001371806448524481</v>
+        <v>3.54369486057586e-05</v>
       </c>
       <c r="G80">
-        <v>2.243382371224217e-06</v>
+        <v>8.313634891560056e-08</v>
       </c>
       <c r="H80">
-        <v>0.01540644302932342</v>
+        <v>0.0004208025116254747</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.005087721649636686</v>
+        <v>0.0001102933995847022</v>
       </c>
       <c r="C81">
-        <v>0.003989783198189103</v>
+        <v>0.00014481545354624</v>
       </c>
       <c r="D81">
-        <v>4.755144486629971e-05</v>
+        <v>1.302844429857735e-06</v>
       </c>
       <c r="E81">
-        <v>0.002893142018350035</v>
+        <v>7.23278229908395e-05</v>
       </c>
       <c r="F81">
-        <v>0.001224001119477846</v>
+        <v>3.724998785229067e-05</v>
       </c>
       <c r="G81">
-        <v>1.759671500744103e-06</v>
+        <v>7.607172252818775e-08</v>
       </c>
       <c r="H81">
-        <v>0.01475291649977021</v>
+        <v>0.0004087659736446249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.005933713018517814</v>
+        <v>0.001548666235242295</v>
       </c>
       <c r="C82">
-        <v>0.004202468302393207</v>
+        <v>0.001919541094479485</v>
       </c>
       <c r="D82">
-        <v>5.639093874752125e-05</v>
+        <v>1.499360461289284e-05</v>
       </c>
       <c r="E82">
-        <v>0.003387180204893138</v>
+        <v>0.001250278563964853</v>
       </c>
       <c r="F82">
-        <v>0.001392042708522603</v>
+        <v>0.0005610527346737959</v>
       </c>
       <c r="G82">
-        <v>2.002876271300808e-06</v>
+        <v>8.322342671392449e-07</v>
       </c>
       <c r="H82">
-        <v>0.01582599788696103</v>
+        <v>0.005894503538221671</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004619708031928326</v>
+        <v>0.002281563112213727</v>
       </c>
       <c r="C83">
-        <v>0.003089787213811182</v>
+        <v>0.002602145735354101</v>
       </c>
       <c r="D83">
-        <v>4.916535127343721e-05</v>
+        <v>2.762451045949444e-05</v>
       </c>
       <c r="E83">
-        <v>0.003048839541350247</v>
+        <v>0.001472735636698668</v>
       </c>
       <c r="F83">
-        <v>0.001209783480510443</v>
+        <v>0.0007526980657073766</v>
       </c>
       <c r="G83">
-        <v>2.043965524654037e-06</v>
+        <v>1.366642606259212e-06</v>
       </c>
       <c r="H83">
-        <v>0.01403917125049122</v>
+        <v>0.00766776987487302</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.004997051064126738</v>
+        <v>0.0002306689818842222</v>
       </c>
       <c r="C84">
-        <v>0.005464830165474606</v>
+        <v>0.0003191572706532739</v>
       </c>
       <c r="D84">
-        <v>5.216857216406952e-05</v>
+        <v>1.79911978643737e-06</v>
       </c>
       <c r="E84">
-        <v>0.003167659655241779</v>
+        <v>0.000173845542691718</v>
       </c>
       <c r="F84">
-        <v>0.001342902372749347</v>
+        <v>7.568895750185127e-05</v>
       </c>
       <c r="G84">
-        <v>1.991141734721918e-06</v>
+        <v>1.379241731784515e-07</v>
       </c>
       <c r="H84">
-        <v>0.01501529321154125</v>
+        <v>0.0008842359325491279</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.006448259829595247</v>
+        <v>0.002080090759160812</v>
       </c>
       <c r="C85">
-        <v>0.005672249688982345</v>
+        <v>0.00151625716720242</v>
       </c>
       <c r="D85">
-        <v>5.510703091258277e-05</v>
+        <v>1.545241271088547e-05</v>
       </c>
       <c r="E85">
-        <v>0.004185041104254748</v>
+        <v>0.001459606374739273</v>
       </c>
       <c r="F85">
-        <v>0.001449819723522756</v>
+        <v>0.0006594885235792238</v>
       </c>
       <c r="G85">
-        <v>2.133232161876437e-06</v>
+        <v>9.626651619624368e-07</v>
       </c>
       <c r="H85">
-        <v>0.01706662009307757</v>
+        <v>0.007091189660661396</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.004721441717666417</v>
+        <v>0.005291345230335556</v>
       </c>
       <c r="C86">
-        <v>0.003874838097285302</v>
+        <v>0.004707953094388766</v>
       </c>
       <c r="D86">
-        <v>5.333722200407286e-05</v>
+        <v>5.382122568731654e-05</v>
       </c>
       <c r="E86">
-        <v>0.002881469583186146</v>
+        <v>0.004558183089532627</v>
       </c>
       <c r="F86">
-        <v>0.0014466053482843</v>
+        <v>0.001730132133814962</v>
       </c>
       <c r="G86">
-        <v>2.067760594684625e-06</v>
+        <v>3.472011790280918e-06</v>
       </c>
       <c r="H86">
-        <v>0.01557898621667711</v>
+        <v>0.01858648513165461</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.005500366142504409</v>
+        <v>0.003752468675644932</v>
       </c>
       <c r="C87">
-        <v>0.004429279315858104</v>
+        <v>0.004319844120861117</v>
       </c>
       <c r="D87">
-        <v>5.652012137566988e-05</v>
+        <v>3.173223875277636e-05</v>
       </c>
       <c r="E87">
-        <v>0.003167102225044808</v>
+        <v>0.00249513844400716</v>
       </c>
       <c r="F87">
-        <v>0.001377459136598206</v>
+        <v>0.001216565322312162</v>
       </c>
       <c r="G87">
-        <v>2.391651364027737e-06</v>
+        <v>2.200713978817183e-06</v>
       </c>
       <c r="H87">
-        <v>0.01472788178224265</v>
+        <v>0.01316385105252603</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.004450860635476925</v>
+        <v>0.00251448914487498</v>
       </c>
       <c r="C88">
-        <v>0.003192786331458879</v>
+        <v>0.003355643198404001</v>
       </c>
       <c r="D88">
-        <v>3.920127361442455e-05</v>
+        <v>2.962418744909149e-05</v>
       </c>
       <c r="E88">
-        <v>0.002349725094862463</v>
+        <v>0.002176716008752925</v>
       </c>
       <c r="F88">
-        <v>0.001040774567464166</v>
+        <v>0.0007245582868297712</v>
       </c>
       <c r="G88">
-        <v>2.234473712718332e-06</v>
+        <v>1.689061774755764e-06</v>
       </c>
       <c r="H88">
-        <v>0.01163181733332056</v>
+        <v>0.008797464379465523</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.004436015310724778</v>
+        <v>0.00165099758643942</v>
       </c>
       <c r="C89">
-        <v>0.003737948397199552</v>
+        <v>0.002508775003319135</v>
       </c>
       <c r="D89">
-        <v>5.027348490930607e-05</v>
+        <v>1.954427148792692e-05</v>
       </c>
       <c r="E89">
-        <v>0.00244495410747959</v>
+        <v>0.001612279848192211</v>
       </c>
       <c r="F89">
-        <v>0.00133435720139462</v>
+        <v>0.0005252344322278569</v>
       </c>
       <c r="G89">
-        <v>2.269128010168136e-06</v>
+        <v>1.108592806008781e-06</v>
       </c>
       <c r="H89">
-        <v>0.01346400520190705</v>
+        <v>0.005770761943976335</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.005372707569642473</v>
+        <v>0.001951394121602546</v>
       </c>
       <c r="C90">
-        <v>0.00469575322090638</v>
+        <v>0.001926983087985597</v>
       </c>
       <c r="D90">
-        <v>7.086835042156012e-05</v>
+        <v>2.184113305925088e-05</v>
       </c>
       <c r="E90">
-        <v>0.003095562923122802</v>
+        <v>0.001560652520711702</v>
       </c>
       <c r="F90">
-        <v>0.001473757176543502</v>
+        <v>0.0007273833386794424</v>
       </c>
       <c r="G90">
-        <v>2.227567742298294e-06</v>
+        <v>9.877004357537705e-07</v>
       </c>
       <c r="H90">
-        <v>0.01506105628565361</v>
+        <v>0.007750110574629039</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.006862386610127611</v>
+        <v>0.002785397649456079</v>
       </c>
       <c r="C91">
-        <v>0.004204360323385728</v>
+        <v>0.001816038948939941</v>
       </c>
       <c r="D91">
-        <v>6.824648163643065e-05</v>
+        <v>2.61618771607874e-05</v>
       </c>
       <c r="E91">
-        <v>0.00347261088180628</v>
+        <v>0.002509036340224421</v>
       </c>
       <c r="F91">
-        <v>0.001456575923338575</v>
+        <v>0.0008562145127152008</v>
       </c>
       <c r="G91">
-        <v>2.246957243330688e-06</v>
+        <v>1.827137573494338e-06</v>
       </c>
       <c r="H91">
-        <v>0.01662746544413604</v>
+        <v>0.009697834007709336</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.005245974315804874</v>
+        <v>0.002416064119375657</v>
       </c>
       <c r="C92">
-        <v>0.004126471370292506</v>
+        <v>0.002285625551589569</v>
       </c>
       <c r="D92">
-        <v>5.294261854160819e-05</v>
+        <v>2.651920551421191e-05</v>
       </c>
       <c r="E92">
-        <v>0.002967577457483758</v>
+        <v>0.002168243764108767</v>
       </c>
       <c r="F92">
-        <v>0.001385754006405576</v>
+        <v>0.0008844144401109763</v>
       </c>
       <c r="G92">
-        <v>2.235362895128276e-06</v>
+        <v>2.075510181457202e-06</v>
       </c>
       <c r="H92">
-        <v>0.01506777155781676</v>
+        <v>0.009785044502745451</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.005743166344478773</v>
+        <v>0.0006514706892472389</v>
       </c>
       <c r="C93">
-        <v>0.003726124148020549</v>
+        <v>0.0005538754854124544</v>
       </c>
       <c r="D93">
-        <v>4.536395634586182e-05</v>
+        <v>6.065900947812759e-06</v>
       </c>
       <c r="E93">
-        <v>0.003416141122416445</v>
+        <v>0.0005431494117703636</v>
       </c>
       <c r="F93">
-        <v>0.001263835995121485</v>
+        <v>0.0002398706756440804</v>
       </c>
       <c r="G93">
-        <v>1.682278427571344e-06</v>
+        <v>4.361787829843449e-07</v>
       </c>
       <c r="H93">
-        <v>0.0149523036929765</v>
+        <v>0.002568820842764392</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.005704061633879847</v>
+        <v>0.0006605052099363086</v>
       </c>
       <c r="C94">
-        <v>0.005309464895514206</v>
+        <v>0.0009437543635710472</v>
       </c>
       <c r="D94">
-        <v>5.303123358208773e-05</v>
+        <v>6.888316966634107e-06</v>
       </c>
       <c r="E94">
-        <v>0.003438061092895702</v>
+        <v>0.0004123946853166597</v>
       </c>
       <c r="F94">
-        <v>0.001691082032186724</v>
+        <v>0.000202756783030468</v>
       </c>
       <c r="G94">
-        <v>2.519009613614674e-06</v>
+        <v>4.102393695488026e-07</v>
       </c>
       <c r="H94">
-        <v>0.01806985984467197</v>
+        <v>0.002256299218746302</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.005519884871881055</v>
+        <v>0.001912823143077873</v>
       </c>
       <c r="C95">
-        <v>0.003838894035688065</v>
+        <v>0.002183186311620334</v>
       </c>
       <c r="D95">
-        <v>6.208272739142604e-05</v>
+        <v>1.665154619083041e-05</v>
       </c>
       <c r="E95">
-        <v>0.003259391916064292</v>
+        <v>0.001272352533717953</v>
       </c>
       <c r="F95">
-        <v>0.001250415732851306</v>
+        <v>0.000530039335640294</v>
       </c>
       <c r="G95">
-        <v>1.974372424379821e-06</v>
+        <v>1.183404744378568e-06</v>
       </c>
       <c r="H95">
-        <v>0.01363974118366774</v>
+        <v>0.005728835445059975</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.005431847408811529</v>
+        <v>0.0004723212105446738</v>
       </c>
       <c r="C96">
-        <v>0.003756605261981936</v>
+        <v>0.0006730965951517853</v>
       </c>
       <c r="D96">
-        <v>4.519698430858372e-05</v>
+        <v>4.637669310639959e-06</v>
       </c>
       <c r="E96">
-        <v>0.002945190680763622</v>
+        <v>0.0004439497887326676</v>
       </c>
       <c r="F96">
-        <v>0.00133226212979275</v>
+        <v>0.0002113892162445089</v>
       </c>
       <c r="G96">
-        <v>2.564443411746405e-06</v>
+        <v>3.618258777196665e-07</v>
       </c>
       <c r="H96">
-        <v>0.0145158080171476</v>
+        <v>0.002443952144609706</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.005825425222957622</v>
+        <v>0.002611426123822601</v>
       </c>
       <c r="C97">
-        <v>0.004238938678430171</v>
+        <v>0.002522904604590078</v>
       </c>
       <c r="D97">
-        <v>5.411255126349592e-05</v>
+        <v>3.253735316523624e-05</v>
       </c>
       <c r="E97">
-        <v>0.002930185908743949</v>
+        <v>0.002816242459287962</v>
       </c>
       <c r="F97">
-        <v>0.001194339961846928</v>
+        <v>0.0007940318802992199</v>
       </c>
       <c r="G97">
-        <v>2.052082201034743e-06</v>
+        <v>1.6426128803372e-06</v>
       </c>
       <c r="H97">
-        <v>0.01372516653706111</v>
+        <v>0.008608458328277706</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.00505390432193036</v>
+        <v>0.002119745058748856</v>
       </c>
       <c r="C98">
-        <v>0.004560863565498608</v>
+        <v>0.003907185276982944</v>
       </c>
       <c r="D98">
-        <v>6.217009545421923e-05</v>
+        <v>2.543490277386539e-05</v>
       </c>
       <c r="E98">
-        <v>0.002953942180352291</v>
+        <v>0.001776524881211399</v>
       </c>
       <c r="F98">
-        <v>0.001160004292471199</v>
+        <v>0.0007937280572121597</v>
       </c>
       <c r="G98">
-        <v>1.793262316143289e-06</v>
+        <v>1.806253194651427e-06</v>
       </c>
       <c r="H98">
-        <v>0.01257435044042157</v>
+        <v>0.00860928940339741</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.004718263672531077</v>
+        <v>0.001978236134425207</v>
       </c>
       <c r="C99">
-        <v>0.003937514768769084</v>
+        <v>0.002851161753958883</v>
       </c>
       <c r="D99">
-        <v>5.284517675145759e-05</v>
+        <v>2.276704085923815e-05</v>
       </c>
       <c r="E99">
-        <v>0.002821740879530388</v>
+        <v>0.001533007696115127</v>
       </c>
       <c r="F99">
-        <v>0.001336805969061478</v>
+        <v>0.0007033429948621854</v>
       </c>
       <c r="G99">
-        <v>2.017184023769924e-06</v>
+        <v>1.546861071013571e-06</v>
       </c>
       <c r="H99">
-        <v>0.01432814360622678</v>
+        <v>0.007822085988570582</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.005249576241242169</v>
+        <v>0.0002862127236585534</v>
       </c>
       <c r="C100">
-        <v>0.004337822112428938</v>
+        <v>0.0004081093972510894</v>
       </c>
       <c r="D100">
-        <v>4.638188097696631e-05</v>
+        <v>3.430004331433781e-06</v>
       </c>
       <c r="E100">
-        <v>0.002802840766470914</v>
+        <v>0.0002408910665290782</v>
       </c>
       <c r="F100">
-        <v>0.001478852897833808</v>
+        <v>8.317623330462316e-05</v>
       </c>
       <c r="G100">
-        <v>2.401541811991985e-06</v>
+        <v>1.670247492392167e-07</v>
       </c>
       <c r="H100">
-        <v>0.01614767528080982</v>
+        <v>0.0009481918430513376</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.006184219121186386</v>
+        <v>0.002118707741384952</v>
       </c>
       <c r="C101">
-        <v>0.003822665674521684</v>
+        <v>0.001654789833608023</v>
       </c>
       <c r="D101">
-        <v>5.479106490566666e-05</v>
+        <v>2.014086258752136e-05</v>
       </c>
       <c r="E101">
-        <v>0.003340085976944558</v>
+        <v>0.001466637085953118</v>
       </c>
       <c r="F101">
-        <v>0.001204655157440408</v>
+        <v>0.000593661101142124</v>
       </c>
       <c r="G101">
-        <v>2.002766795576937e-06</v>
+        <v>1.408567902525336e-06</v>
       </c>
       <c r="H101">
-        <v>0.01444706929521851</v>
+        <v>0.007002279455336606</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.006043021535633435</v>
+        <v>0.0009417186989041406</v>
       </c>
       <c r="C102">
-        <v>0.004813561769092337</v>
+        <v>0.00106592408766615</v>
       </c>
       <c r="D102">
-        <v>5.604637334754121e-05</v>
+        <v>9.352988237287722e-06</v>
       </c>
       <c r="E102">
-        <v>0.00399658381548932</v>
+        <v>0.0007579752484179757</v>
       </c>
       <c r="F102">
-        <v>0.001474238066486794</v>
+        <v>0.0002740214784232674</v>
       </c>
       <c r="G102">
-        <v>2.145617149344857e-06</v>
+        <v>7.289464280210616e-07</v>
       </c>
       <c r="H102">
-        <v>0.01724240001455661</v>
+        <v>0.002811178551127322</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.005974612332347908</v>
+        <v>0.0003296900226270119</v>
       </c>
       <c r="C103">
-        <v>0.004353471124598124</v>
+        <v>0.0004751334119408635</v>
       </c>
       <c r="D103">
-        <v>5.264995490061832e-05</v>
+        <v>3.977769098249249e-06</v>
       </c>
       <c r="E103">
-        <v>0.003071185174342992</v>
+        <v>0.0002686975698620673</v>
       </c>
       <c r="F103">
-        <v>0.001407969784365585</v>
+        <v>0.000133800020167236</v>
       </c>
       <c r="G103">
-        <v>2.346856629871727e-06</v>
+        <v>1.795296325644182e-07</v>
       </c>
       <c r="H103">
-        <v>0.01728971523421845</v>
+        <v>0.001464992705903361</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.005299766224394356</v>
+        <v>0.0001005824361883297</v>
       </c>
       <c r="C104">
-        <v>0.003921103197260991</v>
+        <v>0.0001613139453431815</v>
       </c>
       <c r="D104">
-        <v>4.613464060067678e-05</v>
+        <v>1.037468580174321e-06</v>
       </c>
       <c r="E104">
-        <v>0.00257242489962301</v>
+        <v>9.108531116768071e-05</v>
       </c>
       <c r="F104">
-        <v>0.001298812717930801</v>
+        <v>3.678955238155521e-05</v>
       </c>
       <c r="G104">
-        <v>2.336836544961231e-06</v>
+        <v>7.512617383879795e-08</v>
       </c>
       <c r="H104">
-        <v>0.01399434101107131</v>
+        <v>0.0003757398085669339</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.005566406547641821</v>
+        <v>0.00194696180805839</v>
       </c>
       <c r="C105">
-        <v>0.004424771996489305</v>
+        <v>0.002484834371499759</v>
       </c>
       <c r="D105">
-        <v>5.09706640378466e-05</v>
+        <v>2.030414362759507e-05</v>
       </c>
       <c r="E105">
-        <v>0.002997701777726655</v>
+        <v>0.001381140149406945</v>
       </c>
       <c r="F105">
-        <v>0.001517209236271822</v>
+        <v>0.0007684203248422495</v>
       </c>
       <c r="G105">
-        <v>2.434362046219592e-06</v>
+        <v>1.515075587762298e-06</v>
       </c>
       <c r="H105">
-        <v>0.01699064457224742</v>
+        <v>0.007757763631089417</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.005481831739248376</v>
+        <v>0.003734589891919807</v>
       </c>
       <c r="C106">
-        <v>0.003978041012887864</v>
+        <v>0.003228779281605526</v>
       </c>
       <c r="D106">
-        <v>4.732666820258257e-05</v>
+        <v>3.121380510312002e-05</v>
       </c>
       <c r="E106">
-        <v>0.00271926876187581</v>
+        <v>0.002234112718069298</v>
       </c>
       <c r="F106">
-        <v>0.001815802130168699</v>
+        <v>0.00103460668818894</v>
       </c>
       <c r="G106">
-        <v>2.872850364169155e-06</v>
+        <v>2.408866998965488e-06</v>
       </c>
       <c r="H106">
-        <v>0.01905469222093464</v>
+        <v>0.01158050105030113</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.005415984900382519</v>
+        <v>0.002293817599434493</v>
       </c>
       <c r="C107">
-        <v>0.005482277979108093</v>
+        <v>0.002801548525244198</v>
       </c>
       <c r="D107">
-        <v>6.500891362883209e-05</v>
+        <v>2.874968308773342e-05</v>
       </c>
       <c r="E107">
-        <v>0.003392656915878655</v>
+        <v>0.002144098326742934</v>
       </c>
       <c r="F107">
-        <v>0.001414060260447</v>
+        <v>0.0008395451871813764</v>
       </c>
       <c r="G107">
-        <v>1.855319446486753e-06</v>
+        <v>1.663493765829069e-06</v>
       </c>
       <c r="H107">
-        <v>0.01527409509589797</v>
+        <v>0.008332553843562913</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.005438798956306363</v>
+        <v>0.002551193645233586</v>
       </c>
       <c r="C108">
-        <v>0.00409133206543611</v>
+        <v>0.002549843584903093</v>
       </c>
       <c r="D108">
-        <v>6.628355321294513e-05</v>
+        <v>2.510761851374059e-05</v>
       </c>
       <c r="E108">
-        <v>0.002513766977822697</v>
+        <v>0.001567335845280946</v>
       </c>
       <c r="F108">
-        <v>0.001280160100019053</v>
+        <v>0.000907125273555238</v>
       </c>
       <c r="G108">
-        <v>1.884281942280574e-06</v>
+        <v>1.590116511947618e-06</v>
       </c>
       <c r="H108">
-        <v>0.01464399705905711</v>
+        <v>0.009955464924614962</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.005817135013392049</v>
+        <v>0.001560977320882051</v>
       </c>
       <c r="C109">
-        <v>0.005061419041673074</v>
+        <v>0.001997925440653328</v>
       </c>
       <c r="D109">
-        <v>4.569267161952875e-05</v>
+        <v>1.813435930899735e-05</v>
       </c>
       <c r="E109">
-        <v>0.002662855925382115</v>
+        <v>0.001292960619237016</v>
       </c>
       <c r="F109">
-        <v>0.001498711036113332</v>
+        <v>0.000450304950030721</v>
       </c>
       <c r="G109">
-        <v>2.319547407884979e-06</v>
+        <v>9.626495699747778e-07</v>
       </c>
       <c r="H109">
-        <v>0.01614715010617226</v>
+        <v>0.005443246251354058</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.004809879876116861</v>
+        <v>0.004313629290943757</v>
       </c>
       <c r="C110">
-        <v>0.003952221829342144</v>
+        <v>0.005874080129587031</v>
       </c>
       <c r="D110">
-        <v>4.767342815485233e-05</v>
+        <v>4.050103691568861e-05</v>
       </c>
       <c r="E110">
-        <v>0.002945142038502788</v>
+        <v>0.00356143049487649</v>
       </c>
       <c r="F110">
-        <v>0.001141291611003116</v>
+        <v>0.001345504510644736</v>
       </c>
       <c r="G110">
-        <v>2.153282437040102e-06</v>
+        <v>2.822978496870936e-06</v>
       </c>
       <c r="H110">
-        <v>0.01217995493368098</v>
+        <v>0.01455139951186638</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.004363935470084511</v>
+        <v>0.000657805441542531</v>
       </c>
       <c r="C111">
-        <v>0.003592428535507647</v>
+        <v>0.0009869842950293787</v>
       </c>
       <c r="D111">
-        <v>4.742434385617223e-05</v>
+        <v>6.771760002000288e-06</v>
       </c>
       <c r="E111">
-        <v>0.002123529876717752</v>
+        <v>0.0006418962339866458</v>
       </c>
       <c r="F111">
-        <v>0.001135299418686086</v>
+        <v>0.0002713707548557579</v>
       </c>
       <c r="G111">
-        <v>1.882105421715739e-06</v>
+        <v>5.735577380896317e-07</v>
       </c>
       <c r="H111">
-        <v>0.01258506927514766</v>
+        <v>0.003056354896700755</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.00509504655072907</v>
+        <v>0.002488864896155728</v>
       </c>
       <c r="C112">
-        <v>0.003088078776484137</v>
+        <v>0.002567746609365647</v>
       </c>
       <c r="D112">
-        <v>4.359938017131172e-05</v>
+        <v>2.502770405167992e-05</v>
       </c>
       <c r="E112">
-        <v>0.003222176354675693</v>
+        <v>0.00209250546160572</v>
       </c>
       <c r="F112">
-        <v>0.001167297548120428</v>
+        <v>0.0007129779557932679</v>
       </c>
       <c r="G112">
-        <v>1.9762224889728e-06</v>
+        <v>1.419872983041659e-06</v>
       </c>
       <c r="H112">
-        <v>0.01361025340458885</v>
+        <v>0.01026730762090365</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.004903087476798716</v>
+        <v>0.001162547562169233</v>
       </c>
       <c r="C113">
-        <v>0.005595584570282654</v>
+        <v>0.00115740707072923</v>
       </c>
       <c r="D113">
-        <v>5.286905857835703e-05</v>
+        <v>1.025686006405576e-05</v>
       </c>
       <c r="E113">
-        <v>0.002777185004443538</v>
+        <v>0.0007148484915623182</v>
       </c>
       <c r="F113">
-        <v>0.001333300656295954</v>
+        <v>0.0003125497236448726</v>
       </c>
       <c r="G113">
-        <v>1.851364973430853e-06</v>
+        <v>5.786447123863849e-07</v>
       </c>
       <c r="H113">
-        <v>0.01472599968593329</v>
+        <v>0.00365864486557287</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.005821670097835905</v>
+        <v>0.0009863746880109301</v>
       </c>
       <c r="C114">
-        <v>0.004908739287497013</v>
+        <v>0.0008759958045606</v>
       </c>
       <c r="D114">
-        <v>5.834024985688041e-05</v>
+        <v>9.893634338022339e-06</v>
       </c>
       <c r="E114">
-        <v>0.002940603773703654</v>
+        <v>0.0007038263639852348</v>
       </c>
       <c r="F114">
-        <v>0.001399331609502159</v>
+        <v>0.0003307580653537297</v>
       </c>
       <c r="G114">
-        <v>2.082989458362147e-06</v>
+        <v>5.719197131858556e-07</v>
       </c>
       <c r="H114">
-        <v>0.01622764400454352</v>
+        <v>0.003777149738714055</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.006147312443998141</v>
+        <v>0.0006920513907307932</v>
       </c>
       <c r="C115">
-        <v>0.004544974588259467</v>
+        <v>0.0009697347511303643</v>
       </c>
       <c r="D115">
-        <v>5.369706289324097e-05</v>
+        <v>5.955191131962119e-06</v>
       </c>
       <c r="E115">
-        <v>0.003485350368903242</v>
+        <v>0.0004769850920862235</v>
       </c>
       <c r="F115">
-        <v>0.001436738005221073</v>
+        <v>0.0001785312191722585</v>
       </c>
       <c r="G115">
-        <v>2.23277354748204e-06</v>
+        <v>5.167524296224986e-07</v>
       </c>
       <c r="H115">
-        <v>0.01614833829624467</v>
+        <v>0.002050925988595088</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.005188321890885283</v>
+        <v>0.002096965735472576</v>
       </c>
       <c r="C116">
-        <v>0.003278340540352137</v>
+        <v>0.001747057220206142</v>
       </c>
       <c r="D116">
-        <v>4.876950235368979e-05</v>
+        <v>2.204517697014785e-05</v>
       </c>
       <c r="E116">
-        <v>0.002900125756720585</v>
+        <v>0.00201557676671849</v>
       </c>
       <c r="F116">
-        <v>0.001281621902439634</v>
+        <v>0.0008975480766460006</v>
       </c>
       <c r="G116">
-        <v>2.080765139675091e-06</v>
+        <v>1.558298457003192e-06</v>
       </c>
       <c r="H116">
-        <v>0.01409608439803441</v>
+        <v>0.009272508165912498</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.005432542994917171</v>
+        <v>0.0003328819793771616</v>
       </c>
       <c r="C117">
-        <v>0.004616709574656314</v>
+        <v>0.0003396233171347909</v>
       </c>
       <c r="D117">
-        <v>5.459053171153568e-05</v>
+        <v>4.04788122636807e-06</v>
       </c>
       <c r="E117">
-        <v>0.003215111715067834</v>
+        <v>0.0002883446560094564</v>
       </c>
       <c r="F117">
-        <v>0.001382667872960145</v>
+        <v>8.188088366355018e-05</v>
       </c>
       <c r="G117">
-        <v>2.073267280957576e-06</v>
+        <v>2.36947353240866e-07</v>
       </c>
       <c r="H117">
-        <v>0.01504886840585342</v>
+        <v>0.001012445860990516</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.005643153481067626</v>
+        <v>0.002416289384722978</v>
       </c>
       <c r="C118">
-        <v>0.004506777428077103</v>
+        <v>0.004603911214140035</v>
       </c>
       <c r="D118">
-        <v>5.380801257790423e-05</v>
+        <v>1.898307811890719e-05</v>
       </c>
       <c r="E118">
-        <v>0.002250053730657295</v>
+        <v>0.001302523224393205</v>
       </c>
       <c r="F118">
-        <v>0.001356749094322454</v>
+        <v>0.0006438306602743903</v>
       </c>
       <c r="G118">
-        <v>2.152707957063758e-06</v>
+        <v>1.235450248380032e-06</v>
       </c>
       <c r="H118">
-        <v>0.01468910087023178</v>
+        <v>0.006435237669190798</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.006831481238439201</v>
+        <v>0.005946273632247858</v>
       </c>
       <c r="C119">
-        <v>0.004591116778864554</v>
+        <v>0.004063884568842206</v>
       </c>
       <c r="D119">
-        <v>6.497864492851318e-05</v>
+        <v>4.734748849744676e-05</v>
       </c>
       <c r="E119">
-        <v>0.002993746428063051</v>
+        <v>0.004736918411231869</v>
       </c>
       <c r="F119">
-        <v>0.001321718336490637</v>
+        <v>0.001770634597930478</v>
       </c>
       <c r="G119">
-        <v>1.930965199348796e-06</v>
+        <v>4.133705179307284e-06</v>
       </c>
       <c r="H119">
-        <v>0.0150809173181952</v>
+        <v>0.02041175914673134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.005081781351760774</v>
+        <v>0.0009489656276309016</v>
       </c>
       <c r="C120">
-        <v>0.003559978106871203</v>
+        <v>0.0009411630949459791</v>
       </c>
       <c r="D120">
-        <v>5.769933645977665e-05</v>
+        <v>1.196200961841731e-05</v>
       </c>
       <c r="E120">
-        <v>0.00292238666049922</v>
+        <v>0.0008531113098957266</v>
       </c>
       <c r="F120">
-        <v>0.001198466057612234</v>
+        <v>0.0002550236780824502</v>
       </c>
       <c r="G120">
-        <v>2.035851685951188e-06</v>
+        <v>6.687534805508815e-07</v>
       </c>
       <c r="H120">
-        <v>0.01317586190426753</v>
+        <v>0.002710893338142978</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.004796325756989275</v>
+        <v>0.00287389639157203</v>
       </c>
       <c r="C121">
-        <v>0.003676683184647783</v>
+        <v>0.002424654292349015</v>
       </c>
       <c r="D121">
-        <v>4.009024672856971e-05</v>
+        <v>3.096132407296713e-05</v>
       </c>
       <c r="E121">
-        <v>0.002916837622227304</v>
+        <v>0.002508648626851323</v>
       </c>
       <c r="F121">
-        <v>0.001442801840273158</v>
+        <v>0.0009839034832780787</v>
       </c>
       <c r="G121">
-        <v>2.38265762780591e-06</v>
+        <v>2.201108387289067e-06</v>
       </c>
       <c r="H121">
-        <v>0.01539003575923525</v>
+        <v>0.009839785648365105</v>
       </c>
     </row>
   </sheetData>
